--- a/costofinal.xlsx
+++ b/costofinal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PAGINA DE INICIO" sheetId="1" state="visible" r:id="rId2"/>
@@ -1380,7 +1380,7 @@
     <t xml:space="preserve">TEURO30</t>
   </si>
   <si>
-    <t xml:space="preserve">Termocuplas   Euro  30 cm</t>
+    <t xml:space="preserve">Termocuplas Euro 30 cm</t>
   </si>
   <si>
     <t xml:space="preserve">Termocuplas solas</t>
@@ -1389,31 +1389,31 @@
     <t xml:space="preserve">TEURO50</t>
   </si>
   <si>
-    <t xml:space="preserve">Termocuplas   Euro 50 cm</t>
+    <t xml:space="preserve">Termocuplas Euro 50 cm</t>
   </si>
   <si>
     <t xml:space="preserve">TEURO60</t>
   </si>
   <si>
-    <t xml:space="preserve">Termocuplas   Euro 60 cm</t>
+    <t xml:space="preserve">Termocuplas Euro 60 cm</t>
   </si>
   <si>
     <t xml:space="preserve">TEURO70</t>
   </si>
   <si>
-    <t xml:space="preserve">Termocuplas   Euro 70 cm</t>
+    <t xml:space="preserve">Termocuplas Euro 70 cm</t>
   </si>
   <si>
     <t xml:space="preserve">TEURO80</t>
   </si>
   <si>
-    <t xml:space="preserve">Termocuplas   Euro 80 cm</t>
+    <t xml:space="preserve">Termocuplas Euro 80 cm</t>
   </si>
   <si>
     <t xml:space="preserve">TEURO90</t>
   </si>
   <si>
-    <t xml:space="preserve">Termocuplas   Euro 90 cm</t>
+    <t xml:space="preserve">Termocuplas Euro 90 cm</t>
   </si>
   <si>
     <t xml:space="preserve">TSM820</t>
@@ -1437,7 +1437,7 @@
     <t xml:space="preserve">TSOU40</t>
   </si>
   <si>
-    <t xml:space="preserve">Termocuplas  simil Soporte Orbis Universal</t>
+    <t xml:space="preserve">Termocuplas simil Soporte Orbis Universal</t>
   </si>
   <si>
     <t xml:space="preserve">TSEGUER100</t>
@@ -3578,8 +3578,8 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3727,7 +3727,6 @@
       <c r="G5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="0"/>
       <c r="I5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3750,7 +3749,6 @@
       <c r="G6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="0"/>
       <c r="I6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3784,7 +3782,6 @@
       <c r="C8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="0"/>
       <c r="E8" s="15"/>
       <c r="F8" s="9" t="s">
         <v>46</v>
@@ -3805,7 +3802,6 @@
       <c r="C9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="0"/>
       <c r="E9" s="11"/>
       <c r="F9" s="9" t="s">
         <v>47</v>
@@ -3826,7 +3822,6 @@
       <c r="C10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="0"/>
       <c r="E10" s="11"/>
       <c r="F10" s="9" t="s">
         <v>37</v>
@@ -3847,8 +3842,6 @@
       <c r="C11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
       <c r="F11" s="9" t="s">
         <v>56</v>
       </c>
@@ -3868,8 +3861,6 @@
       <c r="C12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
       <c r="F12" s="9" t="s">
         <v>61</v>
       </c>
@@ -3885,7 +3876,6 @@
         <v>63</v>
       </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="0"/>
       <c r="F13" s="16" t="s">
         <v>64</v>
       </c>
@@ -3917,7 +3907,6 @@
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="0"/>
       <c r="G15" s="17"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -3929,7 +3918,6 @@
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="0"/>
       <c r="G16" s="17"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -3985,7 +3973,6 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17"/>
-      <c r="B21" s="0"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -3996,7 +3983,6 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17"/>
-      <c r="B22" s="0"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
@@ -6265,7 +6251,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6298,7 +6284,7 @@
       <c r="C2" s="49" t="n">
         <v>259.813125</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6312,7 +6298,7 @@
       <c r="C3" s="49" t="n">
         <v>198.12</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6326,7 +6312,7 @@
       <c r="C4" s="49" t="n">
         <v>263.68875</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6340,7 +6326,7 @@
       <c r="C5" s="49" t="n">
         <v>215.466875</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6354,7 +6340,7 @@
       <c r="C6" s="49" t="n">
         <v>223.738125</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6368,7 +6354,7 @@
       <c r="C7" s="49" t="n">
         <v>267.5725</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6382,7 +6368,7 @@
       <c r="C8" s="49" t="n">
         <v>195.495625</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6396,7 +6382,7 @@
       <c r="C9" s="49" t="n">
         <v>242.4825</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6410,7 +6396,7 @@
       <c r="C10" s="49" t="n">
         <v>294.636875</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6424,7 +6410,7 @@
       <c r="C11" s="49" t="n">
         <v>314.68125</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6438,7 +6424,7 @@
       <c r="C12" s="49" t="n">
         <v>333.43375</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6452,7 +6438,7 @@
       <c r="C13" s="49" t="n">
         <v>378.763125</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6466,7 +6452,7 @@
       <c r="C14" s="49" t="n">
         <v>290.82625</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6480,7 +6466,7 @@
       <c r="C15" s="49" t="n">
         <v>322.326875</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6494,7 +6480,7 @@
       <c r="C16" s="49" t="n">
         <v>287.67375</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6508,7 +6494,7 @@
       <c r="C17" s="49" t="n">
         <v>307.100625</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6522,7 +6508,7 @@
       <c r="C18" s="49" t="n">
         <v>284.350625</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6536,7 +6522,7 @@
       <c r="C19" s="49" t="n">
         <v>311.211875</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6550,7 +6536,7 @@
       <c r="C20" s="49" t="n">
         <v>289.49375</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6564,7 +6550,7 @@
       <c r="C21" s="49" t="n">
         <v>289.49375</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6578,7 +6564,7 @@
       <c r="C22" s="49" t="n">
         <v>294.051875</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6592,7 +6578,7 @@
       <c r="C23" s="49" t="n">
         <v>294.051875</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6606,7 +6592,7 @@
       <c r="C24" s="49" t="n">
         <v>287.67375</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6620,7 +6606,7 @@
       <c r="C25" s="49" t="n">
         <v>280.450625</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6634,7 +6620,7 @@
       <c r="C26" s="49" t="n">
         <v>244.35125</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6648,7 +6634,7 @@
       <c r="C27" s="49" t="n">
         <v>300.941875</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6662,7 +6648,7 @@
       <c r="C28" s="49" t="n">
         <v>311.211875</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6676,7 +6662,7 @@
       <c r="C29" s="49" t="n">
         <v>311.211875</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6690,7 +6676,7 @@
       <c r="C30" s="49" t="n">
         <v>215.466875</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6704,7 +6690,7 @@
       <c r="C31" s="49" t="n">
         <v>352.86875</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6718,7 +6704,7 @@
       <c r="C32" s="49" t="n">
         <v>250.680625</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6732,7 +6718,7 @@
       <c r="C33" s="49" t="n">
         <v>341.10375</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6746,7 +6732,7 @@
       <c r="C34" s="49" t="n">
         <v>283.765625</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6760,7 +6746,7 @@
       <c r="C35" s="49" t="n">
         <v>317.785</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6774,7 +6760,7 @@
       <c r="C36" s="49" t="n">
         <v>414.06625</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6788,7 +6774,7 @@
       <c r="C37" s="49" t="n">
         <v>267.085</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6802,7 +6788,7 @@
       <c r="C38" s="49" t="n">
         <v>235.7875</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>444</v>
       </c>
     </row>
@@ -6816,7 +6802,7 @@
       <c r="C39" s="49" t="n">
         <v>91.2060826060606</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>447</v>
       </c>
     </row>
@@ -6838,8 +6824,8 @@
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6872,7 +6858,7 @@
       <c r="C2" s="49" t="n">
         <v>424.56</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>450</v>
       </c>
     </row>
@@ -6886,7 +6872,7 @@
       <c r="C3" s="49" t="n">
         <v>526.82</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>450</v>
       </c>
     </row>
@@ -6900,7 +6886,7 @@
       <c r="C4" s="49" t="n">
         <v>564</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>450</v>
       </c>
     </row>
@@ -6914,7 +6900,7 @@
       <c r="C5" s="49" t="n">
         <v>594.86</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>450</v>
       </c>
     </row>
@@ -6928,7 +6914,7 @@
       <c r="C6" s="49" t="n">
         <v>635.3</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>450</v>
       </c>
     </row>
@@ -6942,7 +6928,7 @@
       <c r="C7" s="49" t="n">
         <v>678.84</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>450</v>
       </c>
     </row>
@@ -6956,7 +6942,7 @@
       <c r="C8" s="49" t="n">
         <v>469.63</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>450</v>
       </c>
     </row>
@@ -6970,7 +6956,7 @@
       <c r="C9" s="49" t="n">
         <v>692.74</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>450</v>
       </c>
     </row>
@@ -6981,7 +6967,7 @@
       <c r="C10" s="49" t="n">
         <v>424.56</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>450</v>
       </c>
     </row>
@@ -6992,7 +6978,7 @@
       <c r="C11" s="49" t="n">
         <v>564</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>450</v>
       </c>
     </row>
@@ -7006,7 +6992,7 @@
       <c r="C12" s="49" t="n">
         <v>486.5</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>450</v>
       </c>
     </row>
@@ -7020,7 +7006,7 @@
       <c r="C13" s="49" t="n">
         <v>712.77</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>450</v>
       </c>
     </row>
@@ -7034,7 +7020,7 @@
       <c r="C14" s="49" t="n">
         <v>578.142208</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>473</v>
       </c>
     </row>
@@ -7048,7 +7034,7 @@
       <c r="C15" s="49" t="n">
         <v>608.147456</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>473</v>
       </c>
     </row>
@@ -7062,7 +7048,7 @@
       <c r="C16" s="49" t="n">
         <v>691.862528</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>473</v>
       </c>
     </row>
@@ -7076,7 +7062,7 @@
       <c r="C17" s="49" t="n">
         <v>785.6128</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>473</v>
       </c>
     </row>
@@ -7090,7 +7076,7 @@
       <c r="C18" s="49" t="n">
         <v>879.37024</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>473</v>
       </c>
     </row>
@@ -7104,7 +7090,7 @@
       <c r="C19" s="49" t="n">
         <v>973.12768</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>473</v>
       </c>
     </row>
@@ -7118,7 +7104,7 @@
       <c r="C20" s="49" t="n">
         <v>1066.906624</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>473</v>
       </c>
     </row>
@@ -7132,7 +7118,7 @@
       <c r="C21" s="49" t="n">
         <v>1255.86944</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>473</v>
       </c>
     </row>
@@ -7146,7 +7132,7 @@
       <c r="C22" s="49" t="n">
         <v>1336.86784</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>473</v>
       </c>
     </row>
@@ -7160,7 +7146,7 @@
       <c r="C23" s="49" t="n">
         <v>1446.695936</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>473</v>
       </c>
     </row>
@@ -7174,7 +7160,7 @@
       <c r="C24" s="49" t="n">
         <v>1542.367232</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>473</v>
       </c>
     </row>
@@ -7188,7 +7174,7 @@
       <c r="C25" s="49" t="n">
         <v>1734.290432</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>473</v>
       </c>
     </row>
@@ -7202,7 +7188,7 @@
       <c r="C26" s="49" t="n">
         <v>834.885632</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>498</v>
       </c>
     </row>
@@ -7216,7 +7202,7 @@
       <c r="C27" s="49" t="n">
         <v>124.450816</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>501</v>
       </c>
     </row>
@@ -7230,7 +7216,7 @@
       <c r="C28" s="49" t="n">
         <v>124.450816</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>501</v>
       </c>
     </row>
@@ -7244,7 +7230,7 @@
       <c r="C29" s="49" t="n">
         <v>124.450816</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>501</v>
       </c>
     </row>
@@ -7258,7 +7244,7 @@
       <c r="C30" s="49" t="n">
         <v>124.450816</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>501</v>
       </c>
     </row>
@@ -7272,7 +7258,7 @@
       <c r="C31" s="49" t="n">
         <v>173.917184</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>501</v>
       </c>
     </row>
@@ -7286,7 +7272,7 @@
       <c r="C32" s="49" t="n">
         <v>124.450816</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>501</v>
       </c>
     </row>
@@ -7300,7 +7286,7 @@
       <c r="C33" s="49" t="n">
         <v>124.450816</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>501</v>
       </c>
     </row>
@@ -7314,7 +7300,7 @@
       <c r="C34" s="49" t="n">
         <v>145.316864</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>501</v>
       </c>
     </row>
@@ -7328,7 +7314,7 @@
       <c r="C35" s="49" t="n">
         <v>53.279744</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7342,7 +7328,7 @@
       <c r="C36" s="49" t="n">
         <v>53.279744</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7356,7 +7342,7 @@
       <c r="C37" s="49" t="n">
         <v>53.279744</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7370,7 +7356,7 @@
       <c r="C38" s="49" t="n">
         <v>53.279744</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7384,7 +7370,7 @@
       <c r="C39" s="49" t="n">
         <v>70.884352</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7398,7 +7384,7 @@
       <c r="C40" s="49" t="n">
         <v>34.671616</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7412,7 +7398,7 @@
       <c r="C41" s="49" t="n">
         <v>63.18</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7426,7 +7412,7 @@
       <c r="C42" s="49" t="n">
         <v>489.276928</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>498</v>
       </c>
     </row>
@@ -7440,7 +7426,7 @@
       <c r="C43" s="49" t="n">
         <v>519.282176</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>498</v>
       </c>
     </row>
@@ -7454,7 +7440,7 @@
       <c r="C44" s="49" t="n">
         <v>602.997248</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>498</v>
       </c>
     </row>
@@ -7468,7 +7454,7 @@
       <c r="C45" s="49" t="n">
         <v>696.74752</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>498</v>
       </c>
     </row>
@@ -7482,7 +7468,7 @@
       <c r="C46" s="49" t="n">
         <v>790.50496</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>498</v>
       </c>
     </row>
@@ -7496,7 +7482,7 @@
       <c r="C47" s="49" t="n">
         <v>884.2624</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>498</v>
       </c>
     </row>
@@ -7510,7 +7496,7 @@
       <c r="C48" s="49" t="n">
         <v>978.041344</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>498</v>
       </c>
     </row>
@@ -7524,7 +7510,7 @@
       <c r="C49" s="49" t="n">
         <v>1167.00416</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>498</v>
       </c>
     </row>
@@ -7538,7 +7524,7 @@
       <c r="C50" s="49" t="n">
         <v>1357.830656</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>498</v>
       </c>
     </row>
@@ -7552,7 +7538,7 @@
       <c r="C51" s="49" t="n">
         <v>1645.425152</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>498</v>
       </c>
     </row>
@@ -7608,7 +7594,7 @@
       <c r="C2" s="49" t="n">
         <v>11.37162</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>551</v>
       </c>
     </row>
@@ -7622,7 +7608,7 @@
       <c r="C3" s="49" t="n">
         <v>16.62128</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>551</v>
       </c>
     </row>
@@ -7636,7 +7622,7 @@
       <c r="C4" s="49" t="n">
         <v>23.16353</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>551</v>
       </c>
     </row>
@@ -7650,7 +7636,7 @@
       <c r="C5" s="49" t="n">
         <v>11.38748</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -7664,7 +7650,7 @@
       <c r="C6" s="49" t="n">
         <v>17.96145</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -7678,7 +7664,7 @@
       <c r="C7" s="49" t="n">
         <v>25.16189</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -7692,7 +7678,7 @@
       <c r="C8" s="49" t="n">
         <v>23.34592</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -7706,7 +7692,7 @@
       <c r="C9" s="49" t="n">
         <v>32.90157</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -7720,7 +7706,7 @@
       <c r="C10" s="49" t="n">
         <v>41.7118</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -7734,7 +7720,7 @@
       <c r="C11" s="49" t="n">
         <v>22.81461</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7748,7 +7734,7 @@
       <c r="C12" s="49" t="n">
         <v>30.26088</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7762,7 +7748,7 @@
       <c r="C13" s="49" t="n">
         <v>45.1217</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7776,7 +7762,7 @@
       <c r="C14" s="49" t="n">
         <v>35.93876</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7790,7 +7776,7 @@
       <c r="C15" s="49" t="n">
         <v>56.92154</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7804,7 +7790,7 @@
       <c r="C16" s="49" t="n">
         <v>74.39133</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7818,7 +7804,7 @@
       <c r="C17" s="49" t="n">
         <v>26.89856</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7832,7 +7818,7 @@
       <c r="C18" s="49" t="n">
         <v>39.14248</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7846,7 +7832,7 @@
       <c r="C19" s="49" t="n">
         <v>74.51821</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7860,7 +7846,7 @@
       <c r="C20" s="49" t="n">
         <v>28.18322</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -7874,7 +7860,7 @@
       <c r="C21" s="49" t="n">
         <v>20.37217</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -7888,7 +7874,7 @@
       <c r="C22" s="49" t="n">
         <v>21.38721</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -7902,7 +7888,7 @@
       <c r="C23" s="49" t="n">
         <v>28.61144</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -7916,7 +7902,7 @@
       <c r="C24" s="49" t="n">
         <v>28.61144</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -7930,7 +7916,7 @@
       <c r="C25" s="49" t="n">
         <v>35.81981</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -7944,7 +7930,7 @@
       <c r="C26" s="49" t="n">
         <v>41.17256</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -7958,7 +7944,7 @@
       <c r="C27" s="49" t="n">
         <v>41.17256</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -7972,7 +7958,7 @@
       <c r="C28" s="49" t="n">
         <v>41.17256</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -7986,7 +7972,7 @@
       <c r="C29" s="49" t="n">
         <v>41.17256</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -8000,7 +7986,7 @@
       <c r="C30" s="49" t="n">
         <v>41.17256</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -8014,7 +8000,7 @@
       <c r="C31" s="49" t="n">
         <v>19.34127</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>611</v>
       </c>
     </row>
@@ -8028,7 +8014,7 @@
       <c r="C32" s="49" t="n">
         <v>25.62183</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>611</v>
       </c>
     </row>
@@ -8042,7 +8028,7 @@
       <c r="C33" s="49" t="n">
         <v>25.62183</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>611</v>
       </c>
     </row>
@@ -8056,7 +8042,7 @@
       <c r="C34" s="49" t="n">
         <v>33.02845</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>618</v>
       </c>
     </row>
@@ -8070,7 +8056,7 @@
       <c r="C35" s="49" t="n">
         <v>42.59996</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>618</v>
       </c>
     </row>
@@ -8084,7 +8070,7 @@
       <c r="C36" s="49" t="n">
         <v>71.04487</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>618</v>
       </c>
     </row>
@@ -8098,7 +8084,7 @@
       <c r="C37" s="49" t="n">
         <v>59.80806</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>618</v>
       </c>
     </row>
@@ -8112,7 +8098,7 @@
       <c r="C38" s="49" t="n">
         <v>69.4668</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>618</v>
       </c>
     </row>
@@ -8126,7 +8112,7 @@
       <c r="C39" s="49" t="n">
         <v>91.96421</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>618</v>
       </c>
     </row>
@@ -8140,7 +8126,7 @@
       <c r="C40" s="49" t="n">
         <v>55.51793</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>618</v>
       </c>
     </row>
@@ -8154,7 +8140,7 @@
       <c r="C41" s="49" t="n">
         <v>65.71591</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>618</v>
       </c>
     </row>
@@ -8168,7 +8154,7 @@
       <c r="C42" s="49" t="n">
         <v>93.70088</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>618</v>
       </c>
     </row>
@@ -8224,7 +8210,7 @@
       <c r="C2" s="49" t="n">
         <v>20.55375</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>637</v>
       </c>
     </row>
@@ -8238,7 +8224,7 @@
       <c r="C3" s="49" t="n">
         <v>21.853125</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8252,7 +8238,7 @@
       <c r="C4" s="49" t="n">
         <v>30.79125</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8266,7 +8252,7 @@
       <c r="C5" s="49" t="n">
         <v>54.0225</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8280,7 +8266,7 @@
       <c r="C6" s="49" t="n">
         <v>35.316</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8294,7 +8280,7 @@
       <c r="C7" s="49" t="n">
         <v>55.902</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8308,7 +8294,7 @@
       <c r="C8" s="49" t="n">
         <v>38.1375</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8322,7 +8308,7 @@
       <c r="C9" s="49" t="n">
         <v>84.72</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8336,7 +8322,7 @@
       <c r="C10" s="49" t="n">
         <v>66.725</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8350,7 +8336,7 @@
       <c r="C11" s="49" t="n">
         <v>19.13625</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -8364,7 +8350,7 @@
       <c r="C12" s="49" t="n">
         <v>24.215625</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -8378,7 +8364,7 @@
       <c r="C13" s="49" t="n">
         <v>31.303125</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -8392,7 +8378,7 @@
       <c r="C14" s="49" t="n">
         <v>23.270625</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -8406,7 +8392,7 @@
       <c r="C15" s="49" t="n">
         <v>34.825</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -8420,7 +8406,7 @@
       <c r="C16" s="49" t="n">
         <v>29.570625</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -8434,7 +8420,7 @@
       <c r="C17" s="49" t="n">
         <v>95.1</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>668</v>
       </c>
     </row>
@@ -8448,7 +8434,7 @@
       <c r="C18" s="49" t="n">
         <v>123.625</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>668</v>
       </c>
     </row>
@@ -8462,7 +8448,7 @@
       <c r="C19" s="49" t="n">
         <v>27.64125</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8476,7 +8462,7 @@
       <c r="C20" s="49" t="n">
         <v>35.91</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8490,7 +8476,7 @@
       <c r="C21" s="49" t="n">
         <v>63.590625</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8504,7 +8490,7 @@
       <c r="C22" s="49" t="n">
         <v>49.8875</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8518,7 +8504,7 @@
       <c r="C23" s="49" t="n">
         <v>107.652</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8532,7 +8518,7 @@
       <c r="C24" s="49" t="n">
         <v>81.125</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8546,7 +8532,7 @@
       <c r="C25" s="49" t="n">
         <v>17.994375</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8560,7 +8546,7 @@
       <c r="C26" s="49" t="n">
         <v>21.49875</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8574,7 +8560,7 @@
       <c r="C27" s="49" t="n">
         <v>29.295</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8588,7 +8574,7 @@
       <c r="C28" s="49" t="n">
         <v>122.5875</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>691</v>
       </c>
     </row>
@@ -8602,7 +8588,7 @@
       <c r="C29" s="49" t="n">
         <v>131.9375</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>691</v>
       </c>
     </row>
@@ -8616,7 +8602,7 @@
       <c r="C30" s="49" t="n">
         <v>188.55</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>691</v>
       </c>
     </row>
@@ -8630,7 +8616,7 @@
       <c r="C31" s="49" t="n">
         <v>180.975</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>698</v>
       </c>
     </row>
@@ -8644,7 +8630,7 @@
       <c r="C32" s="49" t="n">
         <v>247.536</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>698</v>
       </c>
     </row>
@@ -8658,7 +8644,7 @@
       <c r="C33" s="49" t="n">
         <v>396.234</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>698</v>
       </c>
     </row>
@@ -8670,7 +8656,7 @@
         <v>704</v>
       </c>
       <c r="C34" s="49"/>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>705</v>
       </c>
     </row>
@@ -8684,7 +8670,7 @@
       <c r="C35" s="49" t="n">
         <v>244.9125</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>705</v>
       </c>
     </row>
@@ -8698,7 +8684,7 @@
       <c r="C36" s="49" t="n">
         <v>343.58625</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>705</v>
       </c>
     </row>
@@ -8712,7 +8698,7 @@
       <c r="C37" s="49" t="n">
         <v>257.67</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>705</v>
       </c>
     </row>
@@ -8726,7 +8712,7 @@
       <c r="C38" s="49" t="n">
         <v>344.1375</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>705</v>
       </c>
     </row>
@@ -8740,7 +8726,7 @@
       <c r="C39" s="49" t="n">
         <v>679.8</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>705</v>
       </c>
     </row>
@@ -8754,7 +8740,7 @@
       <c r="C40" s="49" t="n">
         <v>336.105</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>705</v>
       </c>
     </row>
@@ -8768,7 +8754,7 @@
       <c r="C41" s="49" t="n">
         <v>455.450625</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>705</v>
       </c>
     </row>
@@ -8782,7 +8768,7 @@
       <c r="C42" s="49" t="n">
         <v>343.5075</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>705</v>
       </c>
     </row>
@@ -8796,7 +8782,7 @@
       <c r="C43" s="49" t="n">
         <v>456.12</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>705</v>
       </c>
     </row>
@@ -8810,7 +8796,7 @@
       <c r="C44" s="49" t="n">
         <v>776.916</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>705</v>
       </c>
     </row>
@@ -8824,7 +8810,7 @@
       <c r="C45" s="49" t="n">
         <v>874.032</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>705</v>
       </c>
     </row>
@@ -8838,7 +8824,7 @@
       <c r="C46" s="49" t="n">
         <v>251.37</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>730</v>
       </c>
     </row>
@@ -8852,7 +8838,7 @@
       <c r="C47" s="49" t="n">
         <v>412.734</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>730</v>
       </c>
     </row>
@@ -8866,7 +8852,7 @@
       <c r="C48" s="49" t="n">
         <v>278.22375</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>730</v>
       </c>
     </row>
@@ -8880,7 +8866,7 @@
       <c r="C49" s="49" t="n">
         <v>410.59998</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>730</v>
       </c>
     </row>
@@ -8894,7 +8880,7 @@
       <c r="C50" s="49" t="n">
         <v>576.7875</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>730</v>
       </c>
     </row>
@@ -8908,7 +8894,7 @@
       <c r="C51" s="49" t="n">
         <v>812.214</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>730</v>
       </c>
     </row>
@@ -8922,7 +8908,7 @@
       <c r="C52" s="49" t="n">
         <v>343.8225</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>730</v>
       </c>
     </row>
@@ -8936,7 +8922,7 @@
       <c r="C53" s="49" t="n">
         <v>534.126</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>730</v>
       </c>
     </row>
@@ -8950,7 +8936,7 @@
       <c r="C54" s="49" t="n">
         <v>363.6675</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>730</v>
       </c>
     </row>
@@ -8964,7 +8950,7 @@
       <c r="C55" s="49" t="n">
         <v>527.009112</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>730</v>
       </c>
     </row>
@@ -8978,7 +8964,7 @@
       <c r="C56" s="49" t="n">
         <v>874.032</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>730</v>
       </c>
     </row>
@@ -8992,7 +8978,7 @@
       <c r="C57" s="49" t="n">
         <v>285.46875</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>753</v>
       </c>
     </row>
@@ -9006,7 +8992,7 @@
       <c r="C58" s="49" t="n">
         <v>427.308</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>753</v>
       </c>
     </row>
@@ -9020,7 +9006,7 @@
       <c r="C59" s="49" t="n">
         <v>558.402</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>753</v>
       </c>
     </row>
@@ -9034,7 +9020,7 @@
       <c r="C60" s="49" t="n">
         <v>236.51352</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>753</v>
       </c>
     </row>
@@ -9048,7 +9034,7 @@
       <c r="C61" s="49" t="n">
         <v>376.11</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>753</v>
       </c>
     </row>
@@ -9062,7 +9048,7 @@
       <c r="C62" s="49" t="n">
         <v>534.018</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>753</v>
       </c>
     </row>
@@ -9076,7 +9062,7 @@
       <c r="C63" s="49" t="n">
         <v>631.248</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>753</v>
       </c>
     </row>
@@ -9090,7 +9076,7 @@
       <c r="C64" s="49" t="n">
         <v>1866.6</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>767</v>
       </c>
     </row>
@@ -9104,7 +9090,7 @@
       <c r="C65" s="49" t="n">
         <v>2049.6</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>767</v>
       </c>
     </row>
@@ -9118,7 +9104,7 @@
       <c r="C66" s="49" t="n">
         <v>2232.6</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>767</v>
       </c>
     </row>
@@ -9132,7 +9118,7 @@
       <c r="C67" s="49" t="n">
         <v>414.8</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>767</v>
       </c>
     </row>
@@ -9146,7 +9132,7 @@
       <c r="C68" s="49" t="n">
         <v>646.6</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="1" t="s">
         <v>767</v>
       </c>
     </row>
@@ -9160,7 +9146,7 @@
       <c r="C69" s="49" t="n">
         <v>976</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="1" t="s">
         <v>767</v>
       </c>
     </row>
@@ -9174,7 +9160,7 @@
       <c r="C70" s="49" t="n">
         <v>1476.2</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="1" t="s">
         <v>780</v>
       </c>
     </row>
@@ -9230,7 +9216,7 @@
       <c r="C2" s="49" t="n">
         <v>27.08355</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -9244,7 +9230,7 @@
       <c r="C3" s="49" t="n">
         <v>44.4106</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -9258,7 +9244,7 @@
       <c r="C4" s="49" t="n">
         <v>72.43275</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -9272,7 +9258,7 @@
       <c r="C5" s="49" t="n">
         <v>28.9731</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -9286,7 +9272,7 @@
       <c r="C6" s="49" t="n">
         <v>44.0895</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -9300,7 +9286,7 @@
       <c r="C7" s="49" t="n">
         <v>27.7134</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -9314,7 +9300,7 @@
       <c r="C8" s="49" t="n">
         <v>40.3104</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -9328,7 +9314,7 @@
       <c r="C9" s="49" t="n">
         <v>62.985</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -9342,7 +9328,7 @@
       <c r="C10" s="49" t="n">
         <v>37.791</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -9356,7 +9342,7 @@
       <c r="C11" s="49" t="n">
         <v>62.985</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>668</v>
       </c>
     </row>
@@ -9370,7 +9356,7 @@
       <c r="C12" s="49" t="n">
         <v>88.179</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>668</v>
       </c>
     </row>
@@ -9384,7 +9370,7 @@
       <c r="C13" s="49" t="n">
         <v>119.6715</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>805</v>
       </c>
     </row>
@@ -9398,7 +9384,7 @@
       <c r="C14" s="49" t="n">
         <v>127.2297</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>805</v>
       </c>
     </row>
@@ -9412,7 +9398,7 @@
       <c r="C15" s="49" t="n">
         <v>178.24755</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>805</v>
       </c>
     </row>
@@ -9426,7 +9412,7 @@
       <c r="C16" s="49" t="n">
         <v>44.0895</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -9440,7 +9426,7 @@
       <c r="C17" s="49" t="n">
         <v>78.73125</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -9454,7 +9440,7 @@
       <c r="C18" s="49" t="n">
         <v>119.6715</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -9468,7 +9454,7 @@
       <c r="C19" s="49" t="n">
         <v>22.6746</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>815</v>
       </c>
     </row>
@@ -9482,7 +9468,7 @@
       <c r="C20" s="49" t="n">
         <v>27.7134</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>815</v>
       </c>
     </row>
@@ -9496,7 +9482,7 @@
       <c r="C21" s="49" t="n">
         <v>30.2328</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>815</v>
       </c>
     </row>
@@ -9510,7 +9496,7 @@
       <c r="C22" s="49" t="n">
         <v>20.78505</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9524,7 +9510,7 @@
       <c r="C23" s="49" t="n">
         <v>24.56415</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9538,7 +9524,7 @@
       <c r="C24" s="49" t="n">
         <v>31.4925</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9552,7 +9538,7 @@
       <c r="C25" s="49" t="n">
         <v>27.7134</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9566,7 +9552,7 @@
       <c r="C26" s="49" t="n">
         <v>32.7522</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9580,7 +9566,7 @@
       <c r="C27" s="49" t="n">
         <v>32.7522</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9594,7 +9580,7 @@
       <c r="C28" s="49" t="n">
         <v>20.1552</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -9608,7 +9594,7 @@
       <c r="C29" s="49" t="n">
         <v>20.1552</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -9622,7 +9608,7 @@
       <c r="C30" s="49" t="n">
         <v>25.194</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -9636,7 +9622,7 @@
       <c r="C31" s="49" t="n">
         <v>25.194</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -9650,7 +9636,7 @@
       <c r="C32" s="49" t="n">
         <v>28.34325</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -9664,7 +9650,7 @@
       <c r="C33" s="49" t="n">
         <v>37.791</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -9678,7 +9664,7 @@
       <c r="C34" s="49" t="n">
         <v>17.69</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9692,7 +9678,7 @@
       <c r="C35" s="49" t="n">
         <v>23.79</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9706,7 +9692,7 @@
       <c r="C36" s="49" t="n">
         <v>29.28</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9720,7 +9706,7 @@
       <c r="C37" s="49" t="n">
         <v>32.94</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9734,7 +9720,7 @@
       <c r="C38" s="49" t="n">
         <v>39.04</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9748,7 +9734,7 @@
       <c r="C39" s="49" t="n">
         <v>53.07</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9762,7 +9748,7 @@
       <c r="C40" s="49" t="n">
         <v>21.96</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9776,7 +9762,7 @@
       <c r="C41" s="49" t="n">
         <v>31.11</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9790,7 +9776,7 @@
       <c r="C42" s="49" t="n">
         <v>39.04</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9804,7 +9790,7 @@
       <c r="C43" s="49" t="n">
         <v>46.36</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9818,7 +9804,7 @@
       <c r="C44" s="49" t="n">
         <v>57.34</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9832,7 +9818,7 @@
       <c r="C45" s="49" t="n">
         <v>69.54</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9846,7 +9832,7 @@
       <c r="C46" s="49" t="n">
         <v>32.94</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9860,7 +9846,7 @@
       <c r="C47" s="49" t="n">
         <v>43.92</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9874,7 +9860,7 @@
       <c r="C48" s="49" t="n">
         <v>57.95</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9888,7 +9874,7 @@
       <c r="C49" s="49" t="n">
         <v>70.76</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9902,7 +9888,7 @@
       <c r="C50" s="49" t="n">
         <v>84.79</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9916,7 +9902,7 @@
       <c r="C51" s="49" t="n">
         <v>96.38</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9972,7 +9958,7 @@
       <c r="C2" s="49" t="n">
         <v>577.5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>877</v>
       </c>
     </row>
@@ -9986,7 +9972,7 @@
       <c r="C3" s="49" t="n">
         <v>91.7125</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>877</v>
       </c>
     </row>
@@ -10000,7 +9986,7 @@
       <c r="C4" s="49" t="n">
         <v>91.7125</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>877</v>
       </c>
     </row>
@@ -10014,7 +10000,7 @@
       <c r="C5" s="49" t="n">
         <v>183.4375</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>877</v>
       </c>
     </row>
@@ -10028,7 +10014,7 @@
       <c r="C6" s="49" t="n">
         <v>183.4375</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>877</v>
       </c>
     </row>
@@ -10042,7 +10028,7 @@
       <c r="C7" s="49" t="n">
         <v>145.1</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>877</v>
       </c>
     </row>
@@ -10056,7 +10042,7 @@
       <c r="C8" s="49" t="n">
         <v>145.1</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>877</v>
       </c>
     </row>
@@ -10070,7 +10056,7 @@
       <c r="C9" s="49" t="n">
         <v>148.925</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>877</v>
       </c>
     </row>
@@ -10084,7 +10070,7 @@
       <c r="C10" s="49" t="n">
         <v>225</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>894</v>
       </c>
     </row>
@@ -10098,7 +10084,7 @@
       <c r="C11" s="49" t="n">
         <v>256.25</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>894</v>
       </c>
     </row>
@@ -10112,7 +10098,7 @@
       <c r="C12" s="49" t="n">
         <v>300</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>894</v>
       </c>
     </row>
@@ -10126,7 +10112,7 @@
       <c r="C13" s="49" t="n">
         <v>481.25</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>894</v>
       </c>
     </row>
@@ -10140,7 +10126,7 @@
       <c r="C14" s="49" t="n">
         <v>225</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -10154,7 +10140,7 @@
       <c r="C15" s="49" t="n">
         <v>256.25</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -10168,7 +10154,7 @@
       <c r="C16" s="49" t="n">
         <v>300</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -10182,7 +10168,7 @@
       <c r="C17" s="49" t="n">
         <v>481.25</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -10196,7 +10182,7 @@
       <c r="C18" s="49" t="n">
         <v>124.8</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>894</v>
       </c>
     </row>
@@ -10210,7 +10196,7 @@
       <c r="C19" s="49" t="n">
         <v>152.1</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>894</v>
       </c>
     </row>
@@ -10224,7 +10210,7 @@
       <c r="C20" s="49" t="n">
         <v>235.3</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>894</v>
       </c>
     </row>

--- a/costofinal.xlsx
+++ b/costofinal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="PAGINA DE INICIO" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="916">
   <si>
     <t xml:space="preserve">BRONCE ROSCADO PARA AGUA</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t xml:space="preserve">TIPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIT</t>
   </si>
   <si>
     <t xml:space="preserve">B3412BR</t>
@@ -3056,7 +3059,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3190,10 +3193,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4039,7 +4038,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4066,572 +4065,635 @@
       <c r="D1" s="21" t="s">
         <v>73</v>
       </c>
+      <c r="E1" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="24" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$26</f>
         <v>250.3116</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="26"/>
+        <v>77</v>
+      </c>
+      <c r="E2" s="26" t="n">
+        <v>20</v>
+      </c>
       <c r="F2" s="26"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="29" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$28</f>
         <v>481.2192</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="26"/>
+        <v>77</v>
+      </c>
+      <c r="E3" s="26" t="n">
+        <v>20</v>
+      </c>
       <c r="F3" s="26"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="32" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$27</f>
         <v>391.9608</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="26"/>
+        <v>77</v>
+      </c>
+      <c r="E4" s="26" t="n">
+        <v>20</v>
+      </c>
       <c r="F4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="24" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$13</f>
         <v>318.2256</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="26"/>
+        <v>84</v>
+      </c>
+      <c r="E5" s="26" t="n">
+        <v>20</v>
+      </c>
       <c r="F5" s="26"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="29" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$14</f>
         <v>399.7224</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="34"/>
+        <v>84</v>
+      </c>
+      <c r="E6" s="26" t="n">
+        <v>20</v>
+      </c>
       <c r="F6" s="26"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" s="29" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$15</f>
         <v>659.736</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+        <v>84</v>
+      </c>
+      <c r="E7" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="29" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$15</f>
         <v>659.736</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
+        <v>84</v>
+      </c>
+      <c r="E8" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="s">
-        <v>90</v>
+      <c r="A9" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" s="32" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$33</f>
         <v>357.0336</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+        <v>84</v>
+      </c>
+      <c r="E9" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" s="24" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$6</f>
         <v>232.848</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+        <v>95</v>
+      </c>
+      <c r="E10" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C11" s="29" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$7</f>
         <v>345.3912</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+        <v>95</v>
+      </c>
+      <c r="E11" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" s="32" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$8</f>
         <v>541.3716</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+        <v>95</v>
+      </c>
+      <c r="E12" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="38" t="s">
+      <c r="A13" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="39" t="n">
+      <c r="B13" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="38" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$29</f>
         <v>335.6892</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+        <v>102</v>
+      </c>
+      <c r="E13" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" s="24" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$9</f>
         <v>242.55</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+        <v>105</v>
+      </c>
+      <c r="E14" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36" t="s">
-        <v>105</v>
+      <c r="A15" s="35" t="s">
+        <v>106</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C15" s="32" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$10</f>
         <v>283.2984</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+        <v>105</v>
+      </c>
+      <c r="E15" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40" t="s">
-        <v>107</v>
+      <c r="A16" s="39" t="s">
+        <v>108</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C16" s="24" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$11</f>
         <v>190.1592</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+        <v>110</v>
+      </c>
+      <c r="E16" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36" t="s">
-        <v>110</v>
+      <c r="A17" s="35" t="s">
+        <v>111</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C17" s="32" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$12</f>
         <v>312.4044</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+        <v>110</v>
+      </c>
+      <c r="E17" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C18" s="24" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$17</f>
         <v>426.888</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+        <v>115</v>
+      </c>
+      <c r="E18" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C19" s="29" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$18</f>
         <v>638.3916</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+        <v>115</v>
+      </c>
+      <c r="E19" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" s="29" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$19</f>
         <v>426.888</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+        <v>115</v>
+      </c>
+      <c r="E20" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C21" s="29" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$20</f>
         <v>638.3916</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
+        <v>115</v>
+      </c>
+      <c r="E21" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C22" s="32" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$34</f>
         <v>523.908</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+        <v>115</v>
+      </c>
+      <c r="E22" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C23" s="24" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$21</f>
         <v>514.206</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+        <v>126</v>
+      </c>
+      <c r="E23" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C24" s="29" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$22</f>
         <v>758.6964</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
+        <v>126</v>
+      </c>
+      <c r="E24" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C25" s="29" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$23</f>
         <v>1129.3128</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
+        <v>126</v>
+      </c>
+      <c r="E25" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C26" s="32" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$35</f>
         <v>671.3784</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
+        <v>126</v>
+      </c>
+      <c r="E26" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C27" s="24" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$24</f>
         <v>799.4448</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
+        <v>135</v>
+      </c>
+      <c r="E27" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C28" s="32" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$25</f>
         <v>1451.4192</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
+        <v>135</v>
+      </c>
+      <c r="E28" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C29" s="24" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$30</f>
         <v>500.6232</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
+        <v>140</v>
+      </c>
+      <c r="E29" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" s="34"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C30" s="29" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$31</f>
         <v>638.3916</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
+        <v>140</v>
+      </c>
+      <c r="E30" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" s="34"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C31" s="32" t="n">
         <f aca="false">'[1]ACCESORIOS BCE'!$G$32</f>
         <v>727.65</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
+        <v>140</v>
+      </c>
+      <c r="E31" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" s="34"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="41"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="28"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="41"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="28"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="41"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="28"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="44"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="41"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="28"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="45"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="44"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="41"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="28"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="45"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="44"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="41"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="28"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="45"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="44"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="41"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="28"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="45"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="44"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4649,21 +4711,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="45" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="20" t="s">
@@ -4672,1562 +4734,1898 @@
       <c r="C1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>73</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="n">
+      <c r="A2" s="45" t="n">
         <v>1418</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="49" t="n">
+        <v>144</v>
+      </c>
+      <c r="C2" s="48" t="n">
         <v>65.1075796353247</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="n">
+      <c r="A3" s="45" t="n">
         <v>3818</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="48" t="n">
+        <v>109.757600349495</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="49" t="n">
-        <v>109.757600349495</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>144</v>
+      <c r="E3" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="n">
+      <c r="A4" s="45" t="n">
         <v>3814</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="49" t="n">
+        <v>147</v>
+      </c>
+      <c r="C4" s="48" t="n">
         <v>94.9520804543435</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="n">
+      <c r="A5" s="45" t="n">
         <v>1218</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="49" t="n">
+        <v>148</v>
+      </c>
+      <c r="C5" s="48" t="n">
         <v>121.579390409091</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="n">
+      <c r="A6" s="45" t="n">
         <v>1214</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="49" t="n">
+        <v>149</v>
+      </c>
+      <c r="C6" s="48" t="n">
         <v>109.476922943182</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="n">
+      <c r="A7" s="45" t="n">
         <v>1238</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="49" t="n">
+        <v>150</v>
+      </c>
+      <c r="C7" s="48" t="n">
         <v>101.237232606061</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="n">
+      <c r="A8" s="45" t="n">
         <v>3412</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="49" t="n">
+        <v>151</v>
+      </c>
+      <c r="C8" s="48" t="n">
         <v>323.994007888889</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46" t="s">
-        <v>151</v>
+      <c r="A9" s="45" t="s">
+        <v>152</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="49" t="n">
+        <v>153</v>
+      </c>
+      <c r="C9" s="48" t="n">
         <v>691.721428302247</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="48" t="n">
+        <v>591.721428302247</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="49" t="n">
-        <v>591.721428302247</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>153</v>
+      <c r="E10" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46" t="s">
-        <v>156</v>
+      <c r="A11" s="45" t="s">
+        <v>157</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="49" t="n">
+        <v>158</v>
+      </c>
+      <c r="C11" s="48" t="n">
         <v>85.9677883641212</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46" t="s">
-        <v>158</v>
+      <c r="A12" s="45" t="s">
+        <v>159</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="49" t="n">
+        <v>160</v>
+      </c>
+      <c r="C12" s="48" t="n">
         <v>103.175076142909</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46" t="s">
-        <v>160</v>
+      <c r="A13" s="45" t="s">
+        <v>161</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="49" t="n">
+        <v>162</v>
+      </c>
+      <c r="C13" s="48" t="n">
         <v>142.607373939394</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="46" t="s">
-        <v>162</v>
+      <c r="A14" s="45" t="s">
+        <v>163</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="49" t="n">
+        <v>164</v>
+      </c>
+      <c r="C14" s="48" t="n">
         <v>231.619321454545</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="46" t="s">
-        <v>164</v>
+      <c r="A15" s="45" t="s">
+        <v>165</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="49" t="n">
+        <v>166</v>
+      </c>
+      <c r="C15" s="48" t="n">
         <v>149.174831782391</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="48" t="n">
+        <v>172.526511136364</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" s="49" t="n">
+      <c r="E16" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="48" t="n">
         <v>172.526511136364</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="49" t="n">
-        <v>172.526511136364</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="46" t="s">
-        <v>171</v>
+      <c r="A18" s="45" t="s">
+        <v>172</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="49" t="n">
+        <v>173</v>
+      </c>
+      <c r="C18" s="48" t="n">
         <v>208.205156909091</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="46" t="s">
-        <v>173</v>
+      <c r="A19" s="45" t="s">
+        <v>174</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" s="49" t="n">
+        <v>175</v>
+      </c>
+      <c r="C19" s="48" t="n">
         <v>208.205156909091</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="46" t="s">
-        <v>175</v>
+      <c r="A20" s="45" t="s">
+        <v>176</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="49" t="n">
+        <v>177</v>
+      </c>
+      <c r="C20" s="48" t="n">
         <v>208.205156909091</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="46" t="s">
-        <v>177</v>
+      <c r="A21" s="45" t="s">
+        <v>178</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="49" t="n">
+        <v>179</v>
+      </c>
+      <c r="C21" s="48" t="n">
         <v>99.2941485292929</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="46" t="s">
-        <v>179</v>
+      <c r="A22" s="45" t="s">
+        <v>180</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="49" t="n">
+        <v>181</v>
+      </c>
+      <c r="C22" s="48" t="n">
         <v>97.3677623434344</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="46" t="s">
-        <v>181</v>
+      <c r="A23" s="45" t="s">
+        <v>182</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" s="49" t="n">
+        <v>183</v>
+      </c>
+      <c r="C23" s="48" t="n">
         <v>127.029825672414</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="46" t="s">
-        <v>183</v>
+      <c r="A24" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="49" t="n">
+        <v>185</v>
+      </c>
+      <c r="C24" s="48" t="n">
         <v>232.478029603448</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="46" t="s">
-        <v>185</v>
+      <c r="A25" s="45" t="s">
+        <v>186</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C25" s="49" t="n">
+        <v>187</v>
+      </c>
+      <c r="C25" s="48" t="n">
         <v>46.8693214545455</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="48" t="n">
+        <v>46.6415493818182</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C26" s="49" t="n">
+      <c r="E26" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="48" t="n">
         <v>46.6415493818182</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C27" s="49" t="n">
-        <v>46.6415493818182</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="46" t="s">
-        <v>192</v>
+      <c r="A28" s="45" t="s">
+        <v>193</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C28" s="49" t="n">
+        <v>194</v>
+      </c>
+      <c r="C28" s="48" t="n">
         <v>6.984</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="46" t="s">
-        <v>194</v>
+      <c r="A29" s="45" t="s">
+        <v>195</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C29" s="49" t="n">
+        <v>196</v>
+      </c>
+      <c r="C29" s="48" t="n">
         <v>6.984</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="46" t="s">
-        <v>196</v>
+      <c r="A30" s="45" t="s">
+        <v>197</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C30" s="49" t="n">
+        <v>198</v>
+      </c>
+      <c r="C30" s="48" t="n">
         <v>6.984</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="46" t="s">
-        <v>198</v>
+      <c r="A31" s="45" t="s">
+        <v>199</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C31" s="49" t="n">
+        <v>200</v>
+      </c>
+      <c r="C31" s="48" t="n">
         <v>251.255364312304</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="48" t="n">
+        <v>252.45726005094</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C32" s="49" t="n">
-        <v>252.45726005094</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>200</v>
+      <c r="E32" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="46" t="s">
-        <v>203</v>
+      <c r="A33" s="45" t="s">
+        <v>204</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C33" s="49" t="n">
+        <v>205</v>
+      </c>
+      <c r="C33" s="48" t="n">
         <v>135.57375</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="48" t="n">
+        <v>188.914375</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="49" t="n">
-        <v>188.914375</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>205</v>
+      <c r="E34" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="46" t="s">
-        <v>208</v>
+      <c r="A35" s="45" t="s">
+        <v>209</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C35" s="49" t="n">
+        <v>210</v>
+      </c>
+      <c r="C35" s="48" t="n">
         <v>102.01963225353</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="48" t="n">
+        <v>185.316456235298</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C36" s="49" t="n">
-        <v>185.316456235298</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>210</v>
+      <c r="E36" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="46" t="s">
-        <v>213</v>
+      <c r="A37" s="45" t="s">
+        <v>214</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C37" s="49" t="n">
+        <v>215</v>
+      </c>
+      <c r="C37" s="48" t="n">
         <v>444.073603125</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="48" t="n">
+        <v>446.982970795455</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C38" s="49" t="n">
-        <v>446.982970795455</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>215</v>
+      <c r="E38" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="46" t="s">
-        <v>218</v>
+      <c r="A39" s="45" t="s">
+        <v>219</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C39" s="49" t="n">
+        <v>220</v>
+      </c>
+      <c r="C39" s="48" t="n">
         <v>243.652380411442</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="46" t="s">
-        <v>220</v>
+      <c r="A40" s="45" t="s">
+        <v>221</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C40" s="49" t="n">
+        <v>222</v>
+      </c>
+      <c r="C40" s="48" t="n">
         <v>272.806271912226</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="46" t="s">
-        <v>222</v>
+      <c r="A41" s="45" t="s">
+        <v>223</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C41" s="49" t="n">
+        <v>224</v>
+      </c>
+      <c r="C41" s="48" t="n">
         <v>351.177374807312</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="46" t="s">
-        <v>224</v>
+      <c r="A42" s="45" t="s">
+        <v>225</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C42" s="49" t="n">
+        <v>226</v>
+      </c>
+      <c r="C42" s="48" t="n">
         <v>433.868539356061</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="46" t="s">
-        <v>226</v>
+      <c r="A43" s="45" t="s">
+        <v>227</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C43" s="49" t="n">
+        <v>228</v>
+      </c>
+      <c r="C43" s="48" t="n">
         <v>487.615784469697</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="46" t="s">
-        <v>228</v>
+      <c r="A44" s="45" t="s">
+        <v>229</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C44" s="49" t="n">
+        <v>230</v>
+      </c>
+      <c r="C44" s="48" t="n">
         <v>571.049288431818</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="46" t="s">
-        <v>230</v>
+      <c r="A45" s="45" t="s">
+        <v>231</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C45" s="49" t="n">
+        <v>232</v>
+      </c>
+      <c r="C45" s="48" t="n">
         <v>466.337953037841</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="46" t="s">
-        <v>232</v>
+      <c r="A46" s="45" t="s">
+        <v>233</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C46" s="49" t="n">
+        <v>234</v>
+      </c>
+      <c r="C46" s="48" t="n">
         <v>561.349217449218</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="46" t="s">
-        <v>234</v>
+      <c r="A47" s="45" t="s">
+        <v>235</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C47" s="49" t="n">
+        <v>236</v>
+      </c>
+      <c r="C47" s="48" t="n">
         <v>641.174606373009</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="46" t="s">
-        <v>236</v>
+      <c r="A48" s="45" t="s">
+        <v>237</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C48" s="49" t="n">
+        <v>238</v>
+      </c>
+      <c r="C48" s="48" t="n">
         <v>738.835382609478</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="46" t="s">
-        <v>238</v>
+      <c r="A49" s="45" t="s">
+        <v>239</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C49" s="49" t="n">
+        <v>240</v>
+      </c>
+      <c r="C49" s="48" t="n">
         <v>890.857478354978</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="46" t="s">
-        <v>240</v>
+      <c r="A50" s="45" t="s">
+        <v>241</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C50" s="49" t="n">
+        <v>242</v>
+      </c>
+      <c r="C50" s="48" t="n">
         <v>110.358680184075</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="46" t="s">
-        <v>242</v>
+      <c r="A51" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C51" s="49" t="n">
+        <v>244</v>
+      </c>
+      <c r="C51" s="48" t="n">
         <v>151.200094199498</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="46" t="s">
-        <v>244</v>
+      <c r="A52" s="45" t="s">
+        <v>245</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C52" s="49" t="n">
+        <v>246</v>
+      </c>
+      <c r="C52" s="48" t="n">
         <v>135.46036313697</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="46" t="s">
-        <v>246</v>
+      <c r="A53" s="45" t="s">
+        <v>247</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="49" t="n">
+        <v>248</v>
+      </c>
+      <c r="C53" s="48" t="n">
         <v>175.936074221408</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="46" t="s">
-        <v>248</v>
+      <c r="A54" s="45" t="s">
+        <v>249</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C54" s="49" t="n">
+        <v>250</v>
+      </c>
+      <c r="C54" s="48" t="n">
         <v>171.887097318182</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="46" t="s">
-        <v>250</v>
+      <c r="A55" s="45" t="s">
+        <v>251</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C55" s="49" t="n">
+        <v>252</v>
+      </c>
+      <c r="C55" s="48" t="n">
         <v>191.435589507576</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="46" t="s">
-        <v>252</v>
+      <c r="A56" s="45" t="s">
+        <v>253</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C56" s="49" t="n">
+        <v>254</v>
+      </c>
+      <c r="C56" s="48" t="n">
         <v>140.248328379718</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="46" t="s">
-        <v>254</v>
+      <c r="A57" s="45" t="s">
+        <v>255</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C57" s="49" t="n">
+        <v>256</v>
+      </c>
+      <c r="C57" s="48" t="n">
         <v>160.026511136364</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="46" t="s">
-        <v>256</v>
+      <c r="A58" s="45" t="s">
+        <v>257</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C58" s="49" t="n">
+        <v>258</v>
+      </c>
+      <c r="C58" s="48" t="n">
         <v>161.317908012623</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="46" t="s">
-        <v>258</v>
+      <c r="A59" s="45" t="s">
+        <v>259</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C59" s="49" t="n">
+        <v>260</v>
+      </c>
+      <c r="C59" s="48" t="n">
         <v>208.697929200627</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="46" t="s">
-        <v>260</v>
+      <c r="A60" s="45" t="s">
+        <v>261</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C60" s="49" t="n">
+        <v>262</v>
+      </c>
+      <c r="C60" s="48" t="n">
         <v>209.67067415047</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="46" t="s">
-        <v>262</v>
+      <c r="A61" s="45" t="s">
+        <v>263</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C61" s="49" t="n">
+        <v>264</v>
+      </c>
+      <c r="C61" s="48" t="n">
         <v>235.866713229665</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="46" t="s">
-        <v>264</v>
+      <c r="A62" s="45" t="s">
+        <v>265</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C62" s="49" t="n">
+        <v>266</v>
+      </c>
+      <c r="C62" s="48" t="n">
         <v>518.396361212121</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="46" t="s">
-        <v>266</v>
+      <c r="A63" s="45" t="s">
+        <v>267</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C63" s="49" t="n">
+        <v>268</v>
+      </c>
+      <c r="C63" s="48" t="n">
         <v>568.396361212121</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="46" t="s">
-        <v>268</v>
+      <c r="A64" s="45" t="s">
+        <v>269</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C64" s="49" t="n">
+        <v>270</v>
+      </c>
+      <c r="C64" s="48" t="n">
         <v>614.382837139394</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="46" t="s">
-        <v>270</v>
+      <c r="A65" s="45" t="s">
+        <v>271</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C65" s="49" t="n">
+        <v>272</v>
+      </c>
+      <c r="C65" s="48" t="n">
         <v>518.396361212121</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="46" t="s">
-        <v>272</v>
+      <c r="A66" s="45" t="s">
+        <v>273</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C66" s="49" t="n">
+        <v>274</v>
+      </c>
+      <c r="C66" s="48" t="n">
         <v>147.284406261333</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="46" t="s">
-        <v>274</v>
+      <c r="A67" s="45" t="s">
+        <v>275</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C67" s="49" t="n">
+        <v>276</v>
+      </c>
+      <c r="C67" s="48" t="n">
         <v>144.055846894606</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="46" t="s">
-        <v>276</v>
+      <c r="A68" s="45" t="s">
+        <v>277</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C68" s="49" t="n">
+        <v>278</v>
+      </c>
+      <c r="C68" s="48" t="n">
         <v>159.467972462121</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="46" t="s">
-        <v>278</v>
+      <c r="A69" s="45" t="s">
+        <v>279</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C69" s="49" t="n">
+        <v>280</v>
+      </c>
+      <c r="C69" s="48" t="n">
         <v>57.8523794574545</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="46" t="s">
-        <v>280</v>
+      <c r="A70" s="45" t="s">
+        <v>281</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C70" s="49" t="n">
+        <v>282</v>
+      </c>
+      <c r="C70" s="48" t="n">
         <v>68.0714207085455</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="46" t="s">
-        <v>282</v>
+      <c r="A71" s="45" t="s">
+        <v>283</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C71" s="49" t="n">
+        <v>284</v>
+      </c>
+      <c r="C71" s="48" t="n">
         <v>89.3297207057416</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="46" t="s">
-        <v>284</v>
+      <c r="A72" s="45" t="s">
+        <v>285</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C72" s="49" t="n">
+        <v>286</v>
+      </c>
+      <c r="C72" s="48" t="n">
         <v>125.684000231975</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="46" t="s">
-        <v>286</v>
+      <c r="A73" s="45" t="s">
+        <v>287</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C73" s="49" t="n">
+        <v>288</v>
+      </c>
+      <c r="C73" s="48" t="n">
         <v>72.6127418094546</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="46" t="s">
-        <v>288</v>
+      <c r="A74" s="45" t="s">
+        <v>289</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C74" s="49" t="n">
+        <v>290</v>
+      </c>
+      <c r="C74" s="48" t="n">
         <v>62.70583112</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="46" t="s">
-        <v>290</v>
+      <c r="A75" s="45" t="s">
+        <v>291</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C75" s="49" t="n">
+        <v>292</v>
+      </c>
+      <c r="C75" s="48" t="n">
         <v>84.6743026765657</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="46" t="s">
-        <v>292</v>
+      <c r="A76" s="45" t="s">
+        <v>293</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C76" s="49" t="n">
+        <v>294</v>
+      </c>
+      <c r="C76" s="48" t="n">
         <v>129.124455477273</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="46" t="s">
-        <v>294</v>
+      <c r="A77" s="45" t="s">
+        <v>295</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C77" s="49" t="n">
+        <v>296</v>
+      </c>
+      <c r="C77" s="48" t="n">
         <v>110.471818814862</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="46" t="s">
+      <c r="A78" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C78" s="48" t="n">
+        <v>115.780864193939</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C78" s="49" t="n">
-        <v>115.780864193939</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>296</v>
+      <c r="E78" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="46" t="s">
-        <v>299</v>
+      <c r="A79" s="45" t="s">
+        <v>300</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C79" s="49" t="n">
+        <v>301</v>
+      </c>
+      <c r="C79" s="48" t="n">
         <v>143.690911379394</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="46" t="s">
-        <v>301</v>
+      <c r="A80" s="45" t="s">
+        <v>302</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C80" s="49" t="n">
+        <v>303</v>
+      </c>
+      <c r="C80" s="48" t="n">
         <v>196.826837435407</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="46" t="s">
-        <v>303</v>
+      <c r="A81" s="45" t="s">
+        <v>304</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C81" s="49" t="n">
+        <v>305</v>
+      </c>
+      <c r="C81" s="48" t="n">
         <v>116.470584274656</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="46" t="s">
-        <v>305</v>
+      <c r="A82" s="45" t="s">
+        <v>306</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C82" s="49" t="n">
+        <v>307</v>
+      </c>
+      <c r="C82" s="48" t="n">
         <v>127.200981549713</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="46" t="s">
-        <v>307</v>
+      <c r="A83" s="45" t="s">
+        <v>308</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C83" s="49" t="n">
+        <v>309</v>
+      </c>
+      <c r="C83" s="48" t="n">
         <v>168.736139617225</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="46" t="s">
-        <v>309</v>
+      <c r="A84" s="45" t="s">
+        <v>310</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C84" s="49" t="n">
+        <v>311</v>
+      </c>
+      <c r="C84" s="48" t="n">
         <v>231.685529799043</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="46" t="s">
-        <v>311</v>
+      <c r="A85" s="45" t="s">
+        <v>312</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C85" s="49" t="n">
+        <v>313</v>
+      </c>
+      <c r="C85" s="48" t="n">
         <v>311.764375</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="46" t="s">
-        <v>313</v>
+      <c r="A86" s="45" t="s">
+        <v>314</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C86" s="49" t="n">
+        <v>315</v>
+      </c>
+      <c r="C86" s="48" t="n">
         <v>311.764375</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="46" t="s">
-        <v>315</v>
+      <c r="A87" s="45" t="s">
+        <v>316</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C87" s="49" t="n">
+        <v>317</v>
+      </c>
+      <c r="C87" s="48" t="n">
         <v>292.065202787879</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="46" t="s">
-        <v>317</v>
+      <c r="A88" s="45" t="s">
+        <v>318</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C88" s="49" t="n">
+        <v>319</v>
+      </c>
+      <c r="C88" s="48" t="n">
         <v>355.522508861244</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="46" t="s">
-        <v>319</v>
+      <c r="A89" s="45" t="s">
+        <v>320</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C89" s="49" t="n">
+        <v>321</v>
+      </c>
+      <c r="C89" s="48" t="n">
         <v>57.4952366003117</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="46" t="s">
+      <c r="A90" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C90" s="48" t="n">
+        <v>57.1417114232727</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C90" s="49" t="n">
-        <v>57.1417114232727</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>321</v>
+      <c r="E90" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="46" t="s">
-        <v>324</v>
+      <c r="A91" s="45" t="s">
+        <v>325</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C91" s="49" t="n">
+        <v>326</v>
+      </c>
+      <c r="C91" s="48" t="n">
         <v>68.8049825189394</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="46" t="s">
-        <v>326</v>
+      <c r="A92" s="45" t="s">
+        <v>327</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C92" s="49" t="n">
+        <v>328</v>
+      </c>
+      <c r="C92" s="48" t="n">
         <v>149.492493636364</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="46" t="s">
-        <v>328</v>
+      <c r="A93" s="45" t="s">
+        <v>329</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C93" s="49" t="n">
+        <v>330</v>
+      </c>
+      <c r="C93" s="48" t="n">
         <v>166.462336363636</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="46" t="s">
-        <v>330</v>
+      <c r="A94" s="45" t="s">
+        <v>331</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C94" s="49" t="n">
+        <v>332</v>
+      </c>
+      <c r="C94" s="48" t="n">
         <v>74.5297540418788</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="46" t="s">
-        <v>332</v>
+      <c r="A95" s="45" t="s">
+        <v>333</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C95" s="49" t="n">
+        <v>334</v>
+      </c>
+      <c r="C95" s="48" t="n">
         <v>57.4952366003117</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="46" t="s">
-        <v>334</v>
+      <c r="A96" s="45" t="s">
+        <v>335</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C96" s="49" t="n">
+        <v>336</v>
+      </c>
+      <c r="C96" s="48" t="n">
         <v>68.8049825189394</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="46" t="s">
-        <v>336</v>
+      <c r="A97" s="45" t="s">
+        <v>337</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C97" s="49" t="n">
+        <v>338</v>
+      </c>
+      <c r="C97" s="48" t="n">
         <v>29.0160169541818</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="46" t="s">
-        <v>338</v>
+      <c r="A98" s="45" t="s">
+        <v>339</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C98" s="49" t="n">
+        <v>340</v>
+      </c>
+      <c r="C98" s="48" t="n">
         <v>36.4226338981818</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="46" t="s">
-        <v>340</v>
+      <c r="A99" s="45" t="s">
+        <v>341</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C99" s="49" t="n">
+        <v>342</v>
+      </c>
+      <c r="C99" s="48" t="n">
         <v>48.6448070454546</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="46" t="s">
-        <v>342</v>
+      <c r="A100" s="45" t="s">
+        <v>343</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C100" s="49" t="n">
+        <v>344</v>
+      </c>
+      <c r="C100" s="48" t="n">
         <v>91.9626632727273</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="46" t="s">
-        <v>344</v>
+      <c r="A101" s="45" t="s">
+        <v>345</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C101" s="49" t="n">
+        <v>346</v>
+      </c>
+      <c r="C101" s="48" t="n">
         <v>278.83430945634</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="46" t="s">
-        <v>346</v>
+      <c r="A102" s="45" t="s">
+        <v>347</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C102" s="49" t="n">
+        <v>348</v>
+      </c>
+      <c r="C102" s="48" t="n">
         <v>274.4746573814</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="46" t="s">
-        <v>348</v>
+      <c r="A103" s="45" t="s">
+        <v>349</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C103" s="49" t="n">
+        <v>350</v>
+      </c>
+      <c r="C103" s="48" t="n">
         <v>439.069809988636</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="46" t="s">
-        <v>350</v>
+      <c r="A104" s="45" t="s">
+        <v>351</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C104" s="49" t="n">
+        <v>352</v>
+      </c>
+      <c r="C104" s="48" t="n">
         <v>411.606498238636</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="46" t="s">
-        <v>352</v>
+      <c r="A105" s="45" t="s">
+        <v>353</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C105" s="49" t="n">
+        <v>354</v>
+      </c>
+      <c r="C105" s="48" t="n">
         <v>14.2</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="46" t="s">
+      <c r="A106" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C106" s="48" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C106" s="49" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>354</v>
+      <c r="E106" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="46" t="s">
-        <v>357</v>
+      <c r="A107" s="45" t="s">
+        <v>358</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C107" s="49" t="n">
+        <v>359</v>
+      </c>
+      <c r="C107" s="48" t="n">
         <v>15.76</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="46" t="s">
-        <v>359</v>
+      <c r="A108" s="45" t="s">
+        <v>360</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C108" s="49" t="n">
+        <v>361</v>
+      </c>
+      <c r="C108" s="48" t="n">
         <v>22</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="46" t="s">
-        <v>361</v>
+      <c r="A109" s="45" t="s">
+        <v>362</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C109" s="49" t="n">
+        <v>363</v>
+      </c>
+      <c r="C109" s="48" t="n">
         <v>23.9484454939</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="46" t="s">
-        <v>363</v>
+      <c r="A110" s="45" t="s">
+        <v>364</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C110" s="49" t="n">
+        <v>365</v>
+      </c>
+      <c r="C110" s="48" t="n">
         <v>27.087522576761</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="46" t="s">
-        <v>365</v>
+      <c r="A111" s="45" t="s">
+        <v>366</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C111" s="49" t="n">
+        <v>367</v>
+      </c>
+      <c r="C111" s="48" t="n">
         <v>32.4997035573123</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="46" t="s">
-        <v>367</v>
+      <c r="A112" s="45" t="s">
+        <v>368</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C112" s="49" t="n">
+        <v>369</v>
+      </c>
+      <c r="C112" s="48" t="n">
         <v>46.0389165628892</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6248,10 +6646,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6270,540 +6668,657 @@
       <c r="C1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>73</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C2" s="49" t="n">
+        <v>371</v>
+      </c>
+      <c r="C2" s="48" t="n">
         <v>259.813125</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C3" s="49" t="n">
+        <v>373</v>
+      </c>
+      <c r="C3" s="48" t="n">
         <v>198.12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C4" s="49" t="n">
+        <v>375</v>
+      </c>
+      <c r="C4" s="48" t="n">
         <v>263.68875</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C5" s="49" t="n">
+        <v>377</v>
+      </c>
+      <c r="C5" s="48" t="n">
         <v>215.466875</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C6" s="49" t="n">
+        <v>379</v>
+      </c>
+      <c r="C6" s="48" t="n">
         <v>223.738125</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C7" s="49" t="n">
+        <v>381</v>
+      </c>
+      <c r="C7" s="48" t="n">
         <v>267.5725</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C8" s="49" t="n">
+        <v>383</v>
+      </c>
+      <c r="C8" s="48" t="n">
         <v>195.495625</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C9" s="49" t="n">
+        <v>385</v>
+      </c>
+      <c r="C9" s="48" t="n">
         <v>242.4825</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C10" s="49" t="n">
+        <v>387</v>
+      </c>
+      <c r="C10" s="48" t="n">
         <v>294.636875</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C11" s="49" t="n">
+        <v>389</v>
+      </c>
+      <c r="C11" s="48" t="n">
         <v>314.68125</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C12" s="48" t="n">
+        <v>333.43375</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C12" s="49" t="n">
-        <v>333.43375</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>389</v>
+      <c r="E12" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C13" s="49" t="n">
+        <v>394</v>
+      </c>
+      <c r="C13" s="48" t="n">
         <v>378.763125</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C14" s="49" t="n">
+        <v>396</v>
+      </c>
+      <c r="C14" s="48" t="n">
         <v>290.82625</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C15" s="49" t="n">
+        <v>398</v>
+      </c>
+      <c r="C15" s="48" t="n">
         <v>322.326875</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C16" s="49" t="n">
+        <v>400</v>
+      </c>
+      <c r="C16" s="48" t="n">
         <v>287.67375</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C17" s="49" t="n">
+        <v>402</v>
+      </c>
+      <c r="C17" s="48" t="n">
         <v>307.100625</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C18" s="49" t="n">
+        <v>404</v>
+      </c>
+      <c r="C18" s="48" t="n">
         <v>284.350625</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C19" s="49" t="n">
+        <v>406</v>
+      </c>
+      <c r="C19" s="48" t="n">
         <v>311.211875</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C20" s="49" t="n">
+        <v>408</v>
+      </c>
+      <c r="C20" s="48" t="n">
         <v>289.49375</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C21" s="49" t="n">
+        <v>410</v>
+      </c>
+      <c r="C21" s="48" t="n">
         <v>289.49375</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C22" s="49" t="n">
+        <v>412</v>
+      </c>
+      <c r="C22" s="48" t="n">
         <v>294.051875</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C23" s="49" t="n">
+        <v>414</v>
+      </c>
+      <c r="C23" s="48" t="n">
         <v>294.051875</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C24" s="49" t="n">
+        <v>416</v>
+      </c>
+      <c r="C24" s="48" t="n">
         <v>287.67375</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C25" s="49" t="n">
+        <v>418</v>
+      </c>
+      <c r="C25" s="48" t="n">
         <v>280.450625</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C26" s="49" t="n">
+        <v>420</v>
+      </c>
+      <c r="C26" s="48" t="n">
         <v>244.35125</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C27" s="49" t="n">
+        <v>422</v>
+      </c>
+      <c r="C27" s="48" t="n">
         <v>300.941875</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C28" s="49" t="n">
+        <v>424</v>
+      </c>
+      <c r="C28" s="48" t="n">
         <v>311.211875</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C29" s="49" t="n">
+        <v>426</v>
+      </c>
+      <c r="C29" s="48" t="n">
         <v>311.211875</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C30" s="49" t="n">
+        <v>428</v>
+      </c>
+      <c r="C30" s="48" t="n">
         <v>215.466875</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C31" s="49" t="n">
+        <v>430</v>
+      </c>
+      <c r="C31" s="48" t="n">
         <v>352.86875</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C32" s="49" t="n">
+        <v>432</v>
+      </c>
+      <c r="C32" s="48" t="n">
         <v>250.680625</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C33" s="49" t="n">
+        <v>434</v>
+      </c>
+      <c r="C33" s="48" t="n">
         <v>341.10375</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C34" s="49" t="n">
+        <v>436</v>
+      </c>
+      <c r="C34" s="48" t="n">
         <v>283.765625</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C35" s="49" t="n">
+        <v>438</v>
+      </c>
+      <c r="C35" s="48" t="n">
         <v>317.785</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C36" s="49" t="n">
+        <v>440</v>
+      </c>
+      <c r="C36" s="48" t="n">
         <v>414.06625</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C37" s="49" t="n">
+        <v>442</v>
+      </c>
+      <c r="C37" s="48" t="n">
         <v>267.085</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C38" s="49" t="n">
+        <v>444</v>
+      </c>
+      <c r="C38" s="48" t="n">
         <v>235.7875</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C39" s="49" t="n">
+        <v>447</v>
+      </c>
+      <c r="C39" s="48" t="n">
         <v>91.2060826060606</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -6822,10 +7337,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6844,702 +7359,855 @@
       <c r="C1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>73</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C2" s="49" t="n">
+        <v>450</v>
+      </c>
+      <c r="C2" s="48" t="n">
         <v>424.56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C3" s="48" t="n">
+        <v>526.82</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C3" s="49" t="n">
-        <v>526.82</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>450</v>
+      <c r="E3" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C4" s="49" t="n">
+        <v>455</v>
+      </c>
+      <c r="C4" s="48" t="n">
         <v>564</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C5" s="49" t="n">
+        <v>457</v>
+      </c>
+      <c r="C5" s="48" t="n">
         <v>594.86</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C6" s="49" t="n">
+        <v>459</v>
+      </c>
+      <c r="C6" s="48" t="n">
         <v>635.3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C7" s="49" t="n">
+        <v>461</v>
+      </c>
+      <c r="C7" s="48" t="n">
         <v>678.84</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C8" s="49" t="n">
+        <v>463</v>
+      </c>
+      <c r="C8" s="48" t="n">
         <v>469.63</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C9" s="49" t="n">
+        <v>465</v>
+      </c>
+      <c r="C9" s="48" t="n">
         <v>692.74</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C10" s="49" t="n">
+        <v>466</v>
+      </c>
+      <c r="C10" s="48" t="n">
         <v>424.56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C11" s="49" t="n">
+        <v>467</v>
+      </c>
+      <c r="C11" s="48" t="n">
         <v>564</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C12" s="49" t="n">
+        <v>469</v>
+      </c>
+      <c r="C12" s="48" t="n">
         <v>486.5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C13" s="49" t="n">
+        <v>471</v>
+      </c>
+      <c r="C13" s="48" t="n">
         <v>712.77</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C14" s="49" t="n">
+        <v>473</v>
+      </c>
+      <c r="C14" s="48" t="n">
         <v>578.142208</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C15" s="48" t="n">
+        <v>608.147456</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C15" s="49" t="n">
-        <v>608.147456</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>473</v>
+      <c r="E15" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C16" s="49" t="n">
+        <v>478</v>
+      </c>
+      <c r="C16" s="48" t="n">
         <v>691.862528</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C17" s="49" t="n">
+        <v>480</v>
+      </c>
+      <c r="C17" s="48" t="n">
         <v>785.6128</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C18" s="49" t="n">
+        <v>482</v>
+      </c>
+      <c r="C18" s="48" t="n">
         <v>879.37024</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C19" s="49" t="n">
+        <v>484</v>
+      </c>
+      <c r="C19" s="48" t="n">
         <v>973.12768</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C20" s="49" t="n">
+        <v>486</v>
+      </c>
+      <c r="C20" s="48" t="n">
         <v>1066.906624</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C21" s="49" t="n">
+        <v>488</v>
+      </c>
+      <c r="C21" s="48" t="n">
         <v>1255.86944</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C22" s="49" t="n">
+        <v>490</v>
+      </c>
+      <c r="C22" s="48" t="n">
         <v>1336.86784</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C23" s="49" t="n">
+        <v>492</v>
+      </c>
+      <c r="C23" s="48" t="n">
         <v>1446.695936</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C24" s="49" t="n">
+        <v>494</v>
+      </c>
+      <c r="C24" s="48" t="n">
         <v>1542.367232</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C25" s="49" t="n">
+        <v>496</v>
+      </c>
+      <c r="C25" s="48" t="n">
         <v>1734.290432</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C26" s="49" t="n">
+        <v>498</v>
+      </c>
+      <c r="C26" s="48" t="n">
         <v>834.885632</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C27" s="49" t="n">
+        <v>501</v>
+      </c>
+      <c r="C27" s="48" t="n">
         <v>124.450816</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C28" s="48" t="n">
+        <v>124.450816</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C28" s="49" t="n">
-        <v>124.450816</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>501</v>
+      <c r="E28" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C29" s="49" t="n">
+        <v>506</v>
+      </c>
+      <c r="C29" s="48" t="n">
         <v>124.450816</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C30" s="49" t="n">
+        <v>508</v>
+      </c>
+      <c r="C30" s="48" t="n">
         <v>124.450816</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C31" s="49" t="n">
+        <v>510</v>
+      </c>
+      <c r="C31" s="48" t="n">
         <v>173.917184</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" s="49" t="n">
+        <v>512</v>
+      </c>
+      <c r="C32" s="48" t="n">
         <v>124.450816</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C33" s="49" t="n">
+        <v>514</v>
+      </c>
+      <c r="C33" s="48" t="n">
         <v>124.450816</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C34" s="49" t="n">
+        <v>516</v>
+      </c>
+      <c r="C34" s="48" t="n">
         <v>145.316864</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C35" s="49" t="n">
+        <v>517</v>
+      </c>
+      <c r="C35" s="48" t="n">
         <v>53.279744</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C36" s="49" t="n">
+        <v>519</v>
+      </c>
+      <c r="C36" s="48" t="n">
         <v>53.279744</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C37" s="49" t="n">
+        <v>521</v>
+      </c>
+      <c r="C37" s="48" t="n">
         <v>53.279744</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C38" s="49" t="n">
+        <v>523</v>
+      </c>
+      <c r="C38" s="48" t="n">
         <v>53.279744</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C39" s="49" t="n">
+        <v>525</v>
+      </c>
+      <c r="C39" s="48" t="n">
         <v>70.884352</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C40" s="49" t="n">
+        <v>527</v>
+      </c>
+      <c r="C40" s="48" t="n">
         <v>34.671616</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C41" s="49" t="n">
+        <v>529</v>
+      </c>
+      <c r="C41" s="48" t="n">
         <v>63.18</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C42" s="49" t="n">
+        <v>531</v>
+      </c>
+      <c r="C42" s="48" t="n">
         <v>489.276928</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C43" s="49" t="n">
+        <v>533</v>
+      </c>
+      <c r="C43" s="48" t="n">
         <v>519.282176</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C44" s="49" t="n">
+        <v>535</v>
+      </c>
+      <c r="C44" s="48" t="n">
         <v>602.997248</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C45" s="49" t="n">
+        <v>537</v>
+      </c>
+      <c r="C45" s="48" t="n">
         <v>696.74752</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C46" s="49" t="n">
+        <v>539</v>
+      </c>
+      <c r="C46" s="48" t="n">
         <v>790.50496</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C47" s="49" t="n">
+        <v>541</v>
+      </c>
+      <c r="C47" s="48" t="n">
         <v>884.2624</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C48" s="49" t="n">
+        <v>543</v>
+      </c>
+      <c r="C48" s="48" t="n">
         <v>978.041344</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C49" s="49" t="n">
+        <v>545</v>
+      </c>
+      <c r="C49" s="48" t="n">
         <v>1167.00416</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="C50" s="49" t="n">
+        <v>547</v>
+      </c>
+      <c r="C50" s="48" t="n">
         <v>1357.830656</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="C51" s="49" t="n">
+        <v>549</v>
+      </c>
+      <c r="C51" s="48" t="n">
         <v>1645.425152</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -7558,10 +8226,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7580,582 +8248,708 @@
       <c r="C1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>73</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="C2" s="49" t="n">
+        <v>551</v>
+      </c>
+      <c r="C2" s="48" t="n">
         <v>11.37162</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C3" s="48" t="n">
+        <v>16.62128</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C3" s="49" t="n">
-        <v>16.62128</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>551</v>
+      <c r="E3" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C4" s="49" t="n">
+        <v>556</v>
+      </c>
+      <c r="C4" s="48" t="n">
         <v>23.16353</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C5" s="49" t="n">
+        <v>558</v>
+      </c>
+      <c r="C5" s="48" t="n">
         <v>11.38748</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C6" s="48" t="n">
+        <v>17.96145</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C6" s="49" t="n">
-        <v>17.96145</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>558</v>
+      <c r="E6" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C7" s="49" t="n">
+        <v>563</v>
+      </c>
+      <c r="C7" s="48" t="n">
         <v>25.16189</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C8" s="49" t="n">
+        <v>565</v>
+      </c>
+      <c r="C8" s="48" t="n">
         <v>23.34592</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C9" s="49" t="n">
+        <v>567</v>
+      </c>
+      <c r="C9" s="48" t="n">
         <v>32.90157</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C10" s="49" t="n">
+        <v>569</v>
+      </c>
+      <c r="C10" s="48" t="n">
         <v>41.7118</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C11" s="49" t="n">
+        <v>571</v>
+      </c>
+      <c r="C11" s="48" t="n">
         <v>22.81461</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C12" s="49" t="n">
+        <v>573</v>
+      </c>
+      <c r="C12" s="48" t="n">
         <v>30.26088</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C13" s="49" t="n">
+        <v>575</v>
+      </c>
+      <c r="C13" s="48" t="n">
         <v>45.1217</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C14" s="49" t="n">
+        <v>577</v>
+      </c>
+      <c r="C14" s="48" t="n">
         <v>35.93876</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C15" s="49" t="n">
+        <v>579</v>
+      </c>
+      <c r="C15" s="48" t="n">
         <v>56.92154</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C16" s="49" t="n">
+        <v>581</v>
+      </c>
+      <c r="C16" s="48" t="n">
         <v>74.39133</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C17" s="49" t="n">
+        <v>583</v>
+      </c>
+      <c r="C17" s="48" t="n">
         <v>26.89856</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C18" s="49" t="n">
+        <v>585</v>
+      </c>
+      <c r="C18" s="48" t="n">
         <v>39.14248</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C19" s="49" t="n">
+        <v>587</v>
+      </c>
+      <c r="C19" s="48" t="n">
         <v>74.51821</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C20" s="49" t="n">
+        <v>589</v>
+      </c>
+      <c r="C20" s="48" t="n">
         <v>28.18322</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C21" s="49" t="n">
+        <v>591</v>
+      </c>
+      <c r="C21" s="48" t="n">
         <v>20.37217</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C22" s="49" t="n">
+        <v>593</v>
+      </c>
+      <c r="C22" s="48" t="n">
         <v>21.38721</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C23" s="49" t="n">
+        <v>595</v>
+      </c>
+      <c r="C23" s="48" t="n">
         <v>28.61144</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C24" s="49" t="n">
+        <v>597</v>
+      </c>
+      <c r="C24" s="48" t="n">
         <v>28.61144</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C25" s="49" t="n">
+        <v>599</v>
+      </c>
+      <c r="C25" s="48" t="n">
         <v>35.81981</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="C26" s="49" t="n">
+        <v>601</v>
+      </c>
+      <c r="C26" s="48" t="n">
         <v>41.17256</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C27" s="49" t="n">
+        <v>603</v>
+      </c>
+      <c r="C27" s="48" t="n">
         <v>41.17256</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C28" s="49" t="n">
+        <v>605</v>
+      </c>
+      <c r="C28" s="48" t="n">
         <v>41.17256</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C29" s="49" t="n">
+        <v>607</v>
+      </c>
+      <c r="C29" s="48" t="n">
         <v>41.17256</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C30" s="49" t="n">
+        <v>609</v>
+      </c>
+      <c r="C30" s="48" t="n">
         <v>41.17256</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="C31" s="49" t="n">
+        <v>611</v>
+      </c>
+      <c r="C31" s="48" t="n">
         <v>19.34127</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C32" s="48" t="n">
+        <v>25.62183</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="C32" s="49" t="n">
-        <v>25.62183</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>611</v>
+      <c r="E32" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="C33" s="49" t="n">
+        <v>616</v>
+      </c>
+      <c r="C33" s="48" t="n">
         <v>25.62183</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C34" s="49" t="n">
+        <v>618</v>
+      </c>
+      <c r="C34" s="48" t="n">
         <v>33.02845</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C35" s="48" t="n">
+        <v>42.59996</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C35" s="49" t="n">
-        <v>42.59996</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>618</v>
+      <c r="E35" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="C36" s="49" t="n">
+        <v>623</v>
+      </c>
+      <c r="C36" s="48" t="n">
         <v>71.04487</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="C37" s="49" t="n">
+        <v>625</v>
+      </c>
+      <c r="C37" s="48" t="n">
         <v>59.80806</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C38" s="49" t="n">
+        <v>627</v>
+      </c>
+      <c r="C38" s="48" t="n">
         <v>69.4668</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C39" s="49" t="n">
+        <v>629</v>
+      </c>
+      <c r="C39" s="48" t="n">
         <v>91.96421</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="C40" s="49" t="n">
+        <v>631</v>
+      </c>
+      <c r="C40" s="48" t="n">
         <v>55.51793</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="C41" s="49" t="n">
+        <v>633</v>
+      </c>
+      <c r="C41" s="48" t="n">
         <v>65.71591</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="C42" s="49" t="n">
+        <v>635</v>
+      </c>
+      <c r="C42" s="48" t="n">
         <v>93.70088</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -8174,10 +8968,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D71" activeCellId="0" sqref="D71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8196,972 +8990,1182 @@
       <c r="C1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>73</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="C2" s="49" t="n">
+        <v>637</v>
+      </c>
+      <c r="C2" s="48" t="n">
         <v>20.55375</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="C3" s="49" t="n">
+        <v>640</v>
+      </c>
+      <c r="C3" s="48" t="n">
         <v>21.853125</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C4" s="49" t="n">
+        <v>642</v>
+      </c>
+      <c r="C4" s="48" t="n">
         <v>30.79125</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="C5" s="49" t="n">
+        <v>644</v>
+      </c>
+      <c r="C5" s="48" t="n">
         <v>54.0225</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="C6" s="49" t="n">
+        <v>646</v>
+      </c>
+      <c r="C6" s="48" t="n">
         <v>35.316</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C7" s="49" t="n">
+        <v>648</v>
+      </c>
+      <c r="C7" s="48" t="n">
         <v>55.902</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C8" s="49" t="n">
+        <v>650</v>
+      </c>
+      <c r="C8" s="48" t="n">
         <v>38.1375</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C9" s="49" t="n">
+        <v>652</v>
+      </c>
+      <c r="C9" s="48" t="n">
         <v>84.72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C10" s="49" t="n">
+        <v>654</v>
+      </c>
+      <c r="C10" s="48" t="n">
         <v>66.725</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="C11" s="49" t="n">
+        <v>656</v>
+      </c>
+      <c r="C11" s="48" t="n">
         <v>19.13625</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="C12" s="49" t="n">
+        <v>658</v>
+      </c>
+      <c r="C12" s="48" t="n">
         <v>24.215625</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="C13" s="49" t="n">
+        <v>660</v>
+      </c>
+      <c r="C13" s="48" t="n">
         <v>31.303125</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C14" s="49" t="n">
+        <v>662</v>
+      </c>
+      <c r="C14" s="48" t="n">
         <v>23.270625</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="C15" s="49" t="n">
+        <v>664</v>
+      </c>
+      <c r="C15" s="48" t="n">
         <v>34.825</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="C16" s="49" t="n">
+        <v>666</v>
+      </c>
+      <c r="C16" s="48" t="n">
         <v>29.570625</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C17" s="49" t="n">
+        <v>668</v>
+      </c>
+      <c r="C17" s="48" t="n">
         <v>95.1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C18" s="48" t="n">
+        <v>123.625</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="C18" s="49" t="n">
-        <v>123.625</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>668</v>
+      <c r="E18" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="C19" s="49" t="n">
+        <v>673</v>
+      </c>
+      <c r="C19" s="48" t="n">
         <v>27.64125</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="C20" s="49" t="n">
+        <v>675</v>
+      </c>
+      <c r="C20" s="48" t="n">
         <v>35.91</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C21" s="49" t="n">
+        <v>677</v>
+      </c>
+      <c r="C21" s="48" t="n">
         <v>63.590625</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="C22" s="49" t="n">
+        <v>679</v>
+      </c>
+      <c r="C22" s="48" t="n">
         <v>49.8875</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="C23" s="49" t="n">
+        <v>681</v>
+      </c>
+      <c r="C23" s="48" t="n">
         <v>107.652</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="C24" s="49" t="n">
+        <v>683</v>
+      </c>
+      <c r="C24" s="48" t="n">
         <v>81.125</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="C25" s="49" t="n">
+        <v>685</v>
+      </c>
+      <c r="C25" s="48" t="n">
         <v>17.994375</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="C26" s="49" t="n">
+        <v>687</v>
+      </c>
+      <c r="C26" s="48" t="n">
         <v>21.49875</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="C27" s="49" t="n">
+        <v>689</v>
+      </c>
+      <c r="C27" s="48" t="n">
         <v>29.295</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="C28" s="49" t="n">
+        <v>691</v>
+      </c>
+      <c r="C28" s="48" t="n">
         <v>122.5875</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C29" s="48" t="n">
+        <v>131.9375</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="C29" s="49" t="n">
-        <v>131.9375</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>691</v>
+      <c r="E29" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="C30" s="49" t="n">
+        <v>696</v>
+      </c>
+      <c r="C30" s="48" t="n">
         <v>188.55</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="C31" s="49" t="n">
+        <v>698</v>
+      </c>
+      <c r="C31" s="48" t="n">
         <v>180.975</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C32" s="48" t="n">
+        <v>247.536</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="C32" s="49" t="n">
-        <v>247.536</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>698</v>
+      <c r="E32" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="C33" s="49" t="n">
+        <v>703</v>
+      </c>
+      <c r="C33" s="48" t="n">
         <v>396.234</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="C34" s="49"/>
+        <v>705</v>
+      </c>
+      <c r="C34" s="48"/>
       <c r="D34" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C35" s="48" t="n">
+        <v>244.9125</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="C35" s="49" t="n">
-        <v>244.9125</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>705</v>
+      <c r="E35" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="C36" s="49" t="n">
+        <v>710</v>
+      </c>
+      <c r="C36" s="48" t="n">
         <v>343.58625</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="C37" s="49" t="n">
+        <v>712</v>
+      </c>
+      <c r="C37" s="48" t="n">
         <v>257.67</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="C38" s="49" t="n">
+        <v>714</v>
+      </c>
+      <c r="C38" s="48" t="n">
         <v>344.1375</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="C39" s="49" t="n">
+        <v>716</v>
+      </c>
+      <c r="C39" s="48" t="n">
         <v>679.8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="C40" s="49" t="n">
+        <v>718</v>
+      </c>
+      <c r="C40" s="48" t="n">
         <v>336.105</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="C41" s="49" t="n">
+        <v>720</v>
+      </c>
+      <c r="C41" s="48" t="n">
         <v>455.450625</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="C42" s="49" t="n">
+        <v>722</v>
+      </c>
+      <c r="C42" s="48" t="n">
         <v>343.5075</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="C43" s="49" t="n">
+        <v>724</v>
+      </c>
+      <c r="C43" s="48" t="n">
         <v>456.12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="C44" s="49" t="n">
+        <v>726</v>
+      </c>
+      <c r="C44" s="48" t="n">
         <v>776.916</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="C45" s="49" t="n">
+        <v>728</v>
+      </c>
+      <c r="C45" s="48" t="n">
         <v>874.032</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="C46" s="49" t="n">
+        <v>730</v>
+      </c>
+      <c r="C46" s="48" t="n">
         <v>251.37</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C47" s="48" t="n">
+        <v>412.734</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="C47" s="49" t="n">
-        <v>412.734</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>730</v>
+      <c r="E47" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="C48" s="49" t="n">
+        <v>735</v>
+      </c>
+      <c r="C48" s="48" t="n">
         <v>278.22375</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="C49" s="49" t="n">
+        <v>737</v>
+      </c>
+      <c r="C49" s="48" t="n">
         <v>410.59998</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="C50" s="49" t="n">
+        <v>739</v>
+      </c>
+      <c r="C50" s="48" t="n">
         <v>576.7875</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="C51" s="49" t="n">
+        <v>741</v>
+      </c>
+      <c r="C51" s="48" t="n">
         <v>812.214</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="C52" s="49" t="n">
+        <v>743</v>
+      </c>
+      <c r="C52" s="48" t="n">
         <v>343.8225</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="C53" s="49" t="n">
+        <v>745</v>
+      </c>
+      <c r="C53" s="48" t="n">
         <v>534.126</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="C54" s="49" t="n">
+        <v>747</v>
+      </c>
+      <c r="C54" s="48" t="n">
         <v>363.6675</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="C55" s="49" t="n">
+        <v>749</v>
+      </c>
+      <c r="C55" s="48" t="n">
         <v>527.009112</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="C56" s="49" t="n">
+        <v>751</v>
+      </c>
+      <c r="C56" s="48" t="n">
         <v>874.032</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="C57" s="49" t="n">
+        <v>753</v>
+      </c>
+      <c r="C57" s="48" t="n">
         <v>285.46875</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C58" s="48" t="n">
+        <v>427.308</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="C58" s="49" t="n">
-        <v>427.308</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>753</v>
+      <c r="E58" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="C59" s="49" t="n">
+        <v>758</v>
+      </c>
+      <c r="C59" s="48" t="n">
         <v>558.402</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="C60" s="49" t="n">
+        <v>760</v>
+      </c>
+      <c r="C60" s="48" t="n">
         <v>236.51352</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="C61" s="49" t="n">
+        <v>762</v>
+      </c>
+      <c r="C61" s="48" t="n">
         <v>376.11</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="C62" s="49" t="n">
+        <v>763</v>
+      </c>
+      <c r="C62" s="48" t="n">
         <v>534.018</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="C63" s="49" t="n">
+        <v>765</v>
+      </c>
+      <c r="C63" s="48" t="n">
         <v>631.248</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="C64" s="49" t="n">
+        <v>767</v>
+      </c>
+      <c r="C64" s="48" t="n">
         <v>1866.6</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C65" s="48" t="n">
+        <v>2049.6</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="C65" s="49" t="n">
-        <v>2049.6</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>767</v>
+      <c r="E65" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="C66" s="49" t="n">
+        <v>772</v>
+      </c>
+      <c r="C66" s="48" t="n">
         <v>2232.6</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="C67" s="49" t="n">
+        <v>774</v>
+      </c>
+      <c r="C67" s="48" t="n">
         <v>414.8</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="C68" s="49" t="n">
+        <v>776</v>
+      </c>
+      <c r="C68" s="48" t="n">
         <v>646.6</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="C69" s="49" t="n">
+        <v>778</v>
+      </c>
+      <c r="C69" s="48" t="n">
         <v>976</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="C70" s="49" t="n">
+        <v>780</v>
+      </c>
+      <c r="C70" s="48" t="n">
         <v>1476.2</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -9180,10 +10184,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9202,708 +10206,861 @@
       <c r="C1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>73</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="C2" s="49" t="n">
+        <v>783</v>
+      </c>
+      <c r="C2" s="48" t="n">
         <v>27.08355</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="C3" s="49" t="n">
+        <v>785</v>
+      </c>
+      <c r="C3" s="48" t="n">
         <v>44.4106</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="C4" s="49" t="n">
+        <v>787</v>
+      </c>
+      <c r="C4" s="48" t="n">
         <v>72.43275</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="C5" s="49" t="n">
+        <v>789</v>
+      </c>
+      <c r="C5" s="48" t="n">
         <v>28.9731</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="C6" s="49" t="n">
+        <v>791</v>
+      </c>
+      <c r="C6" s="48" t="n">
         <v>44.0895</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="C7" s="49" t="n">
+        <v>793</v>
+      </c>
+      <c r="C7" s="48" t="n">
         <v>27.7134</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="C8" s="49" t="n">
+        <v>795</v>
+      </c>
+      <c r="C8" s="48" t="n">
         <v>40.3104</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="C9" s="49" t="n">
+        <v>797</v>
+      </c>
+      <c r="C9" s="48" t="n">
         <v>62.985</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="C10" s="49" t="n">
+        <v>799</v>
+      </c>
+      <c r="C10" s="48" t="n">
         <v>37.791</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="C11" s="49" t="n">
+        <v>801</v>
+      </c>
+      <c r="C11" s="48" t="n">
         <v>62.985</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="C12" s="49" t="n">
+        <v>803</v>
+      </c>
+      <c r="C12" s="48" t="n">
         <v>88.179</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="C13" s="49" t="n">
+        <v>805</v>
+      </c>
+      <c r="C13" s="48" t="n">
         <v>119.6715</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="C14" s="48" t="n">
+        <v>127.2297</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="C14" s="49" t="n">
-        <v>127.2297</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>805</v>
+      <c r="E14" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="C15" s="49" t="n">
+        <v>810</v>
+      </c>
+      <c r="C15" s="48" t="n">
         <v>178.24755</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="49" t="n">
+        <v>125</v>
+      </c>
+      <c r="C16" s="48" t="n">
         <v>44.0895</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="49" t="n">
+        <v>128</v>
+      </c>
+      <c r="C17" s="48" t="n">
         <v>78.73125</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="49" t="n">
+        <v>130</v>
+      </c>
+      <c r="C18" s="48" t="n">
         <v>119.6715</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="C19" s="49" t="n">
+        <v>815</v>
+      </c>
+      <c r="C19" s="48" t="n">
         <v>22.6746</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C20" s="48" t="n">
+        <v>27.7134</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="C20" s="49" t="n">
-        <v>27.7134</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>815</v>
+      <c r="E20" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="C21" s="49" t="n">
+        <v>820</v>
+      </c>
+      <c r="C21" s="48" t="n">
         <v>30.2328</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="49" t="n">
+        <v>94</v>
+      </c>
+      <c r="C22" s="48" t="n">
         <v>20.78505</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="49" t="n">
+        <v>97</v>
+      </c>
+      <c r="C23" s="48" t="n">
         <v>24.56415</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="49" t="n">
+        <v>99</v>
+      </c>
+      <c r="C24" s="48" t="n">
         <v>31.4925</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="C25" s="49" t="n">
+        <v>825</v>
+      </c>
+      <c r="C25" s="48" t="n">
         <v>27.7134</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="C26" s="49" t="n">
+        <v>827</v>
+      </c>
+      <c r="C26" s="48" t="n">
         <v>32.7522</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="C27" s="49" t="n">
+        <v>829</v>
+      </c>
+      <c r="C27" s="48" t="n">
         <v>32.7522</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="C28" s="49" t="n">
+        <v>831</v>
+      </c>
+      <c r="C28" s="48" t="n">
         <v>20.1552</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="C29" s="49" t="n">
+        <v>833</v>
+      </c>
+      <c r="C29" s="48" t="n">
         <v>20.1552</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="C30" s="49" t="n">
+        <v>835</v>
+      </c>
+      <c r="C30" s="48" t="n">
         <v>25.194</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="49" t="n">
+        <v>104</v>
+      </c>
+      <c r="C31" s="48" t="n">
         <v>25.194</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="49" t="n">
+        <v>107</v>
+      </c>
+      <c r="C32" s="48" t="n">
         <v>28.34325</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="C33" s="49" t="n">
+        <v>839</v>
+      </c>
+      <c r="C33" s="48" t="n">
         <v>37.791</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="C34" s="49" t="n">
+        <v>841</v>
+      </c>
+      <c r="C34" s="48" t="n">
         <v>17.69</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="C35" s="49" t="n">
+        <v>843</v>
+      </c>
+      <c r="C35" s="48" t="n">
         <v>23.79</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="C36" s="49" t="n">
+        <v>845</v>
+      </c>
+      <c r="C36" s="48" t="n">
         <v>29.28</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="C37" s="49" t="n">
+        <v>847</v>
+      </c>
+      <c r="C37" s="48" t="n">
         <v>32.94</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="C38" s="49" t="n">
+        <v>849</v>
+      </c>
+      <c r="C38" s="48" t="n">
         <v>39.04</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="C39" s="49" t="n">
+        <v>851</v>
+      </c>
+      <c r="C39" s="48" t="n">
         <v>53.07</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="C40" s="49" t="n">
+        <v>853</v>
+      </c>
+      <c r="C40" s="48" t="n">
         <v>21.96</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="C41" s="49" t="n">
+        <v>855</v>
+      </c>
+      <c r="C41" s="48" t="n">
         <v>31.11</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="C42" s="49" t="n">
+        <v>857</v>
+      </c>
+      <c r="C42" s="48" t="n">
         <v>39.04</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="C43" s="49" t="n">
+        <v>859</v>
+      </c>
+      <c r="C43" s="48" t="n">
         <v>46.36</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="C44" s="49" t="n">
+        <v>861</v>
+      </c>
+      <c r="C44" s="48" t="n">
         <v>57.34</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="C45" s="49" t="n">
+        <v>863</v>
+      </c>
+      <c r="C45" s="48" t="n">
         <v>69.54</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="C46" s="49" t="n">
+        <v>865</v>
+      </c>
+      <c r="C46" s="48" t="n">
         <v>32.94</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="C47" s="49" t="n">
+        <v>867</v>
+      </c>
+      <c r="C47" s="48" t="n">
         <v>43.92</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="C48" s="49" t="n">
+        <v>869</v>
+      </c>
+      <c r="C48" s="48" t="n">
         <v>57.95</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="C49" s="49" t="n">
+        <v>871</v>
+      </c>
+      <c r="C49" s="48" t="n">
         <v>70.76</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="C50" s="49" t="n">
+        <v>873</v>
+      </c>
+      <c r="C50" s="48" t="n">
         <v>84.79</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="C51" s="49" t="n">
+        <v>875</v>
+      </c>
+      <c r="C51" s="48" t="n">
         <v>96.38</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -9922,10 +11079,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9944,274 +11101,334 @@
       <c r="C1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>73</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="C2" s="49" t="n">
+        <v>877</v>
+      </c>
+      <c r="C2" s="48" t="n">
         <v>577.5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C3" s="48" t="n">
+        <v>91.7125</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="C3" s="49" t="n">
-        <v>91.7125</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>877</v>
+      <c r="E3" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="C4" s="49" t="n">
+        <v>882</v>
+      </c>
+      <c r="C4" s="48" t="n">
         <v>91.7125</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="C5" s="49" t="n">
+        <v>884</v>
+      </c>
+      <c r="C5" s="48" t="n">
         <v>183.4375</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="C6" s="49" t="n">
+        <v>886</v>
+      </c>
+      <c r="C6" s="48" t="n">
         <v>183.4375</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="C7" s="49" t="n">
+        <v>888</v>
+      </c>
+      <c r="C7" s="48" t="n">
         <v>145.1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="C8" s="49" t="n">
+        <v>890</v>
+      </c>
+      <c r="C8" s="48" t="n">
         <v>145.1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="C9" s="49" t="n">
+        <v>892</v>
+      </c>
+      <c r="C9" s="48" t="n">
         <v>148.925</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="C10" s="49" t="n">
+        <v>894</v>
+      </c>
+      <c r="C10" s="48" t="n">
         <v>225</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C11" s="48" t="n">
+        <v>256.25</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="C11" s="49" t="n">
-        <v>256.25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>894</v>
+      <c r="E11" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="C12" s="49" t="n">
+        <v>899</v>
+      </c>
+      <c r="C12" s="48" t="n">
         <v>300</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="C13" s="49" t="n">
+        <v>901</v>
+      </c>
+      <c r="C13" s="48" t="n">
         <v>481.25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="C14" s="49" t="n">
+        <v>903</v>
+      </c>
+      <c r="C14" s="48" t="n">
         <v>225</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="C15" s="49" t="n">
+        <v>905</v>
+      </c>
+      <c r="C15" s="48" t="n">
         <v>256.25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="C16" s="49" t="n">
+        <v>907</v>
+      </c>
+      <c r="C16" s="48" t="n">
         <v>300</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="C17" s="49" t="n">
+        <v>909</v>
+      </c>
+      <c r="C17" s="48" t="n">
         <v>481.25</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="C18" s="49" t="n">
+        <v>911</v>
+      </c>
+      <c r="C18" s="48" t="n">
         <v>124.8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="C19" s="49" t="n">
+        <v>913</v>
+      </c>
+      <c r="C19" s="48" t="n">
         <v>152.1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="C20" s="49" t="n">
+        <v>915</v>
+      </c>
+      <c r="C20" s="48" t="n">
         <v>235.3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/costofinal.xlsx
+++ b/costofinal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PAGINA DE INICIO" sheetId="1" state="visible" r:id="rId2"/>
@@ -4038,7 +4038,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4312,7 +4312,7 @@
         <v>105</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F14" s="34"/>
     </row>
@@ -4331,7 +4331,7 @@
         <v>105</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F15" s="34"/>
     </row>
@@ -4737,7 +4737,7 @@
       <c r="D1" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       <c r="D2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       <c r="D3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       <c r="D4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       <c r="D5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
       <c r="D6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       <c r="D7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       <c r="D8" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       <c r="D9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4890,7 +4890,7 @@
       <c r="D10" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
       <c r="D11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       <c r="D12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       <c r="D13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4958,7 +4958,7 @@
       <c r="D14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       <c r="D15" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       <c r="D16" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       <c r="D17" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       <c r="D18" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
       <c r="D19" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5060,7 +5060,7 @@
       <c r="D20" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       <c r="D21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5094,7 +5094,7 @@
       <c r="D22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       <c r="D23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       <c r="D24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       <c r="D25" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       <c r="D26" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       <c r="D27" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       <c r="D28" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       <c r="D29" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
       <c r="D30" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       <c r="D31" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       <c r="D32" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5281,7 +5281,7 @@
       <c r="D33" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5298,7 +5298,7 @@
       <c r="D34" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5315,7 +5315,7 @@
       <c r="D35" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
       <c r="D36" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       <c r="D37" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       <c r="D38" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
       <c r="D39" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5400,7 +5400,7 @@
       <c r="D40" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       <c r="D41" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5434,7 +5434,7 @@
       <c r="D42" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
       <c r="D43" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5468,7 +5468,7 @@
       <c r="D44" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       <c r="D45" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5502,7 +5502,7 @@
       <c r="D46" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       <c r="D47" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       <c r="D48" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
       <c r="D49" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5570,7 +5570,7 @@
       <c r="D50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       <c r="D51" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5604,7 +5604,7 @@
       <c r="D52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       <c r="D53" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       <c r="D54" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       <c r="D55" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5672,7 +5672,7 @@
       <c r="D56" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
       <c r="D57" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       <c r="D58" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       <c r="D59" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5740,7 +5740,7 @@
       <c r="D60" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       <c r="D61" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5774,7 +5774,7 @@
       <c r="D62" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       <c r="D63" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5808,7 +5808,7 @@
       <c r="D64" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5825,7 +5825,7 @@
       <c r="D65" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5842,7 +5842,7 @@
       <c r="D66" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
       <c r="D67" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5876,7 +5876,7 @@
       <c r="D68" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5893,7 +5893,7 @@
       <c r="D69" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       <c r="D70" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       <c r="D71" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5944,7 +5944,7 @@
       <c r="D72" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       <c r="D73" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5978,7 +5978,7 @@
       <c r="D74" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       <c r="D75" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       <c r="D76" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       <c r="D77" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6046,7 +6046,7 @@
       <c r="D78" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6063,7 +6063,7 @@
       <c r="D79" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
       <c r="D80" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6097,7 +6097,7 @@
       <c r="D81" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6114,7 +6114,7 @@
       <c r="D82" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       <c r="D83" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6148,7 +6148,7 @@
       <c r="D84" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6165,7 +6165,7 @@
       <c r="D85" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
       <c r="D86" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6199,7 +6199,7 @@
       <c r="D87" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
       <c r="D88" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6233,7 +6233,7 @@
       <c r="D89" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6250,7 +6250,7 @@
       <c r="D90" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       <c r="D91" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6284,7 +6284,7 @@
       <c r="D92" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       <c r="D93" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E93" s="0" t="n">
+      <c r="E93" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6318,7 +6318,7 @@
       <c r="D94" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E94" s="0" t="n">
+      <c r="E94" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6335,7 +6335,7 @@
       <c r="D95" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E95" s="0" t="n">
+      <c r="E95" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
       <c r="D96" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E96" s="0" t="n">
+      <c r="E96" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       <c r="D97" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       <c r="D98" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E98" s="0" t="n">
+      <c r="E98" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6403,7 +6403,7 @@
       <c r="D99" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E99" s="0" t="n">
+      <c r="E99" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6420,7 +6420,7 @@
       <c r="D100" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E100" s="0" t="n">
+      <c r="E100" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       <c r="D101" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E101" s="0" t="n">
+      <c r="E101" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       <c r="D102" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E102" s="0" t="n">
+      <c r="E102" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       <c r="D103" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E103" s="0" t="n">
+      <c r="E103" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6488,7 +6488,7 @@
       <c r="D104" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E104" s="0" t="n">
+      <c r="E104" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       <c r="D105" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E105" s="0" t="n">
+      <c r="E105" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6522,7 +6522,7 @@
       <c r="D106" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E106" s="0" t="n">
+      <c r="E106" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6539,7 +6539,7 @@
       <c r="D107" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E107" s="0" t="n">
+      <c r="E107" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       <c r="D108" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E108" s="0" t="n">
+      <c r="E108" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
       <c r="D109" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E109" s="0" t="n">
+      <c r="E109" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6590,7 +6590,7 @@
       <c r="D110" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E110" s="0" t="n">
+      <c r="E110" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6607,7 +6607,7 @@
       <c r="D111" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E111" s="0" t="n">
+      <c r="E111" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6624,7 +6624,7 @@
       <c r="D112" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E112" s="0" t="n">
+      <c r="E112" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
       <c r="D1" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6688,7 +6688,7 @@
       <c r="D2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6705,7 +6705,7 @@
       <c r="D3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6722,7 +6722,7 @@
       <c r="D4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6739,7 +6739,7 @@
       <c r="D5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6756,7 +6756,7 @@
       <c r="D6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
       <c r="D7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6790,7 +6790,7 @@
       <c r="D8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6807,7 +6807,7 @@
       <c r="D9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6824,7 +6824,7 @@
       <c r="D10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6841,7 +6841,7 @@
       <c r="D11" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6858,7 +6858,7 @@
       <c r="D12" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6875,7 +6875,7 @@
       <c r="D13" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6892,7 +6892,7 @@
       <c r="D14" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6909,7 +6909,7 @@
       <c r="D15" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6926,7 +6926,7 @@
       <c r="D16" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6943,7 +6943,7 @@
       <c r="D17" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6960,7 +6960,7 @@
       <c r="D18" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6977,7 +6977,7 @@
       <c r="D19" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6994,7 +6994,7 @@
       <c r="D20" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7011,7 +7011,7 @@
       <c r="D21" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7028,7 +7028,7 @@
       <c r="D22" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7045,7 +7045,7 @@
       <c r="D23" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
       <c r="D24" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7079,7 +7079,7 @@
       <c r="D25" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7096,7 +7096,7 @@
       <c r="D26" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7113,7 +7113,7 @@
       <c r="D27" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7130,7 +7130,7 @@
       <c r="D28" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
       <c r="D29" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7164,7 +7164,7 @@
       <c r="D30" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       <c r="D31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7198,7 +7198,7 @@
       <c r="D32" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7215,7 +7215,7 @@
       <c r="D33" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7232,7 +7232,7 @@
       <c r="D34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7249,7 +7249,7 @@
       <c r="D35" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7266,7 +7266,7 @@
       <c r="D36" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7283,7 +7283,7 @@
       <c r="D37" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7300,7 +7300,7 @@
       <c r="D38" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7317,7 +7317,7 @@
       <c r="D39" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7339,8 +7339,8 @@
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7362,7 +7362,7 @@
       <c r="D1" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7379,7 +7379,7 @@
       <c r="D2" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7396,7 +7396,7 @@
       <c r="D3" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7413,7 +7413,7 @@
       <c r="D4" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7430,7 +7430,7 @@
       <c r="D5" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7447,7 +7447,7 @@
       <c r="D6" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7464,7 +7464,7 @@
       <c r="D7" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7481,7 +7481,7 @@
       <c r="D8" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7498,7 +7498,7 @@
       <c r="D9" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7512,7 +7512,7 @@
       <c r="D10" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7526,7 +7526,7 @@
       <c r="D11" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7543,7 +7543,7 @@
       <c r="D12" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7560,7 +7560,7 @@
       <c r="D13" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       <c r="D14" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7594,7 +7594,7 @@
       <c r="D15" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       <c r="D16" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7628,7 +7628,7 @@
       <c r="D17" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7645,7 +7645,7 @@
       <c r="D18" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7662,7 +7662,7 @@
       <c r="D19" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7679,7 +7679,7 @@
       <c r="D20" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7696,7 +7696,7 @@
       <c r="D21" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7713,7 +7713,7 @@
       <c r="D22" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7730,7 +7730,7 @@
       <c r="D23" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7747,7 +7747,7 @@
       <c r="D24" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7764,7 +7764,7 @@
       <c r="D25" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7781,7 +7781,7 @@
       <c r="D26" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7798,7 +7798,7 @@
       <c r="D27" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7815,7 +7815,7 @@
       <c r="D28" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7832,7 +7832,7 @@
       <c r="D29" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7849,7 +7849,7 @@
       <c r="D30" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7866,7 +7866,7 @@
       <c r="D31" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7883,7 +7883,7 @@
       <c r="D32" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7900,7 +7900,7 @@
       <c r="D33" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7917,7 +7917,7 @@
       <c r="D34" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7934,7 +7934,7 @@
       <c r="D35" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       <c r="D36" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7968,7 +7968,7 @@
       <c r="D37" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7985,7 +7985,7 @@
       <c r="D38" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8002,7 +8002,7 @@
       <c r="D39" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8019,7 +8019,7 @@
       <c r="D40" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8036,7 +8036,7 @@
       <c r="D41" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8053,8 +8053,8 @@
       <c r="D42" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="E42" s="0" t="n">
-        <v>20</v>
+      <c r="E42" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8070,8 +8070,8 @@
       <c r="D43" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="E43" s="0" t="n">
-        <v>20</v>
+      <c r="E43" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8087,8 +8087,8 @@
       <c r="D44" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="E44" s="0" t="n">
-        <v>20</v>
+      <c r="E44" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8104,8 +8104,8 @@
       <c r="D45" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="E45" s="0" t="n">
-        <v>20</v>
+      <c r="E45" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8121,8 +8121,8 @@
       <c r="D46" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="E46" s="0" t="n">
-        <v>20</v>
+      <c r="E46" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8138,8 +8138,8 @@
       <c r="D47" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="E47" s="0" t="n">
-        <v>20</v>
+      <c r="E47" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8155,8 +8155,8 @@
       <c r="D48" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="E48" s="0" t="n">
-        <v>20</v>
+      <c r="E48" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8172,8 +8172,8 @@
       <c r="D49" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="E49" s="0" t="n">
-        <v>20</v>
+      <c r="E49" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8189,8 +8189,8 @@
       <c r="D50" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="E50" s="0" t="n">
-        <v>20</v>
+      <c r="E50" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8206,8 +8206,8 @@
       <c r="D51" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="E51" s="0" t="n">
-        <v>20</v>
+      <c r="E51" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -8251,7 +8251,7 @@
       <c r="D1" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8268,7 +8268,7 @@
       <c r="D2" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8285,7 +8285,7 @@
       <c r="D3" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8302,7 +8302,7 @@
       <c r="D4" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8319,7 +8319,7 @@
       <c r="D5" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8336,7 +8336,7 @@
       <c r="D6" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8353,7 +8353,7 @@
       <c r="D7" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8370,7 +8370,7 @@
       <c r="D8" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8387,7 +8387,7 @@
       <c r="D9" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8404,7 +8404,7 @@
       <c r="D10" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8421,7 +8421,7 @@
       <c r="D11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8438,7 +8438,7 @@
       <c r="D12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8455,7 +8455,7 @@
       <c r="D13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8472,7 +8472,7 @@
       <c r="D14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8489,7 +8489,7 @@
       <c r="D15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8506,7 +8506,7 @@
       <c r="D16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8523,7 +8523,7 @@
       <c r="D17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8540,7 +8540,7 @@
       <c r="D18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8557,7 +8557,7 @@
       <c r="D19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8574,7 +8574,7 @@
       <c r="D20" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8591,7 +8591,7 @@
       <c r="D21" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8608,7 +8608,7 @@
       <c r="D22" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8625,7 +8625,7 @@
       <c r="D23" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8642,7 +8642,7 @@
       <c r="D24" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8659,7 +8659,7 @@
       <c r="D25" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8676,7 +8676,7 @@
       <c r="D26" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
       <c r="D27" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8710,7 +8710,7 @@
       <c r="D28" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8727,7 +8727,7 @@
       <c r="D29" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8744,7 +8744,7 @@
       <c r="D30" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       <c r="D31" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
       <c r="D32" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8795,7 +8795,7 @@
       <c r="D33" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8812,7 +8812,7 @@
       <c r="D34" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8829,7 +8829,7 @@
       <c r="D35" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8846,7 +8846,7 @@
       <c r="D36" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8863,7 +8863,7 @@
       <c r="D37" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8880,7 +8880,7 @@
       <c r="D38" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8897,7 +8897,7 @@
       <c r="D39" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8914,7 +8914,7 @@
       <c r="D40" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8931,7 +8931,7 @@
       <c r="D41" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8948,7 +8948,7 @@
       <c r="D42" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8993,7 +8993,7 @@
       <c r="D1" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -9010,7 +9010,7 @@
       <c r="D2" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9027,7 +9027,7 @@
       <c r="D3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9044,7 +9044,7 @@
       <c r="D4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9061,7 +9061,7 @@
       <c r="D5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9078,7 +9078,7 @@
       <c r="D6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9095,7 +9095,7 @@
       <c r="D7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9112,7 +9112,7 @@
       <c r="D8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       <c r="D9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9146,7 +9146,7 @@
       <c r="D10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9163,7 +9163,7 @@
       <c r="D11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9180,7 +9180,7 @@
       <c r="D12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9197,7 +9197,7 @@
       <c r="D13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9214,7 +9214,7 @@
       <c r="D14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9231,7 +9231,7 @@
       <c r="D15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9248,7 +9248,7 @@
       <c r="D16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9265,7 +9265,7 @@
       <c r="D17" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9282,7 +9282,7 @@
       <c r="D18" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9299,7 +9299,7 @@
       <c r="D19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9316,7 +9316,7 @@
       <c r="D20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9333,7 +9333,7 @@
       <c r="D21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9350,7 +9350,7 @@
       <c r="D22" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9367,7 +9367,7 @@
       <c r="D23" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9384,7 +9384,7 @@
       <c r="D24" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9401,7 +9401,7 @@
       <c r="D25" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9418,7 +9418,7 @@
       <c r="D26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9435,7 +9435,7 @@
       <c r="D27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9452,7 +9452,7 @@
       <c r="D28" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9469,7 +9469,7 @@
       <c r="D29" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9486,7 +9486,7 @@
       <c r="D30" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9503,7 +9503,7 @@
       <c r="D31" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9520,7 +9520,7 @@
       <c r="D32" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9537,7 +9537,7 @@
       <c r="D33" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9552,7 +9552,7 @@
       <c r="D34" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9569,7 +9569,7 @@
       <c r="D35" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9586,7 +9586,7 @@
       <c r="D36" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9603,7 +9603,7 @@
       <c r="D37" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9620,7 +9620,7 @@
       <c r="D38" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9637,7 +9637,7 @@
       <c r="D39" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9654,7 +9654,7 @@
       <c r="D40" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9671,7 +9671,7 @@
       <c r="D41" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9688,7 +9688,7 @@
       <c r="D42" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9705,7 +9705,7 @@
       <c r="D43" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9722,7 +9722,7 @@
       <c r="D44" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9739,7 +9739,7 @@
       <c r="D45" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9756,7 +9756,7 @@
       <c r="D46" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       <c r="D47" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9790,7 +9790,7 @@
       <c r="D48" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9807,7 +9807,7 @@
       <c r="D49" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9824,7 +9824,7 @@
       <c r="D50" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9841,7 +9841,7 @@
       <c r="D51" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9858,7 +9858,7 @@
       <c r="D52" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9875,7 +9875,7 @@
       <c r="D53" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9892,7 +9892,7 @@
       <c r="D54" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9909,7 +9909,7 @@
       <c r="D55" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9926,7 +9926,7 @@
       <c r="D56" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9943,7 +9943,7 @@
       <c r="D57" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9960,7 +9960,7 @@
       <c r="D58" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9977,7 +9977,7 @@
       <c r="D59" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9994,7 +9994,7 @@
       <c r="D60" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10011,7 +10011,7 @@
       <c r="D61" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10028,7 +10028,7 @@
       <c r="D62" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10045,7 +10045,7 @@
       <c r="D63" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10062,7 +10062,7 @@
       <c r="D64" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -10079,7 +10079,7 @@
       <c r="D65" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -10096,7 +10096,7 @@
       <c r="D66" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -10113,7 +10113,7 @@
       <c r="D67" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -10130,7 +10130,7 @@
       <c r="D68" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -10147,7 +10147,7 @@
       <c r="D69" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -10164,7 +10164,7 @@
       <c r="D70" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -10209,7 +10209,7 @@
       <c r="D1" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -10226,7 +10226,7 @@
       <c r="D2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10243,7 +10243,7 @@
       <c r="D3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10260,7 +10260,7 @@
       <c r="D4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10277,7 +10277,7 @@
       <c r="D5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10294,7 +10294,7 @@
       <c r="D6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10311,7 +10311,7 @@
       <c r="D7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10328,7 +10328,7 @@
       <c r="D8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10345,7 +10345,7 @@
       <c r="D9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10362,7 +10362,7 @@
       <c r="D10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10379,7 +10379,7 @@
       <c r="D11" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10396,7 +10396,7 @@
       <c r="D12" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10413,7 +10413,7 @@
       <c r="D13" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10430,7 +10430,7 @@
       <c r="D14" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10447,7 +10447,7 @@
       <c r="D15" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10464,7 +10464,7 @@
       <c r="D16" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10481,7 +10481,7 @@
       <c r="D17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10498,7 +10498,7 @@
       <c r="D18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10515,7 +10515,7 @@
       <c r="D19" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10532,7 +10532,7 @@
       <c r="D20" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10549,7 +10549,7 @@
       <c r="D21" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10566,7 +10566,7 @@
       <c r="D22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10583,7 +10583,7 @@
       <c r="D23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10600,7 +10600,7 @@
       <c r="D24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10617,7 +10617,7 @@
       <c r="D25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10634,7 +10634,7 @@
       <c r="D26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10651,7 +10651,7 @@
       <c r="D27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10668,7 +10668,7 @@
       <c r="D28" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10685,7 +10685,7 @@
       <c r="D29" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10702,7 +10702,7 @@
       <c r="D30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10719,7 +10719,7 @@
       <c r="D31" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10736,7 +10736,7 @@
       <c r="D32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10753,7 +10753,7 @@
       <c r="D33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
       <c r="D34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10787,7 +10787,7 @@
       <c r="D35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10804,7 +10804,7 @@
       <c r="D36" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10821,7 +10821,7 @@
       <c r="D37" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10838,7 +10838,7 @@
       <c r="D38" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10855,7 +10855,7 @@
       <c r="D39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10872,7 +10872,7 @@
       <c r="D40" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10889,7 +10889,7 @@
       <c r="D41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10906,7 +10906,7 @@
       <c r="D42" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10923,7 +10923,7 @@
       <c r="D43" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10940,7 +10940,7 @@
       <c r="D44" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10957,7 +10957,7 @@
       <c r="D45" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10974,7 +10974,7 @@
       <c r="D46" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10991,7 +10991,7 @@
       <c r="D47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -11008,7 +11008,7 @@
       <c r="D48" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -11025,7 +11025,7 @@
       <c r="D49" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -11042,7 +11042,7 @@
       <c r="D50" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -11059,7 +11059,7 @@
       <c r="D51" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -11081,7 +11081,7 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -11104,7 +11104,7 @@
       <c r="D1" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11121,7 +11121,7 @@
       <c r="D2" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -11138,7 +11138,7 @@
       <c r="D3" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -11155,7 +11155,7 @@
       <c r="D4" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -11172,7 +11172,7 @@
       <c r="D5" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -11189,7 +11189,7 @@
       <c r="D6" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -11206,7 +11206,7 @@
       <c r="D7" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -11223,7 +11223,7 @@
       <c r="D8" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -11240,7 +11240,7 @@
       <c r="D9" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -11257,7 +11257,7 @@
       <c r="D10" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -11274,7 +11274,7 @@
       <c r="D11" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -11291,7 +11291,7 @@
       <c r="D12" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -11308,7 +11308,7 @@
       <c r="D13" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -11325,7 +11325,7 @@
       <c r="D14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -11342,7 +11342,7 @@
       <c r="D15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -11359,7 +11359,7 @@
       <c r="D16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -11376,7 +11376,7 @@
       <c r="D17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -11393,7 +11393,7 @@
       <c r="D18" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -11410,7 +11410,7 @@
       <c r="D19" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -11427,7 +11427,7 @@
       <c r="D20" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>10</v>
       </c>
     </row>

--- a/costofinal.xlsx
+++ b/costofinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodrigo madeira\Desktop\Full Stack\costofinal_xlsx_a_json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98551BBE-32B9-468D-B19D-743621D159D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80514EB4-F1C0-41BF-938D-3273F43AB609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="500" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAGINA DE INICIO" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,11 @@
     <sheet name="TERMOFUSION" sheetId="7" r:id="rId7"/>
     <sheet name="POLIPROPILENO" sheetId="8" r:id="rId8"/>
     <sheet name="REJAS Y TAPAS" sheetId="9" r:id="rId9"/>
+    <sheet name="FERRETERIA" sheetId="10" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="1048">
   <si>
     <t>BRONCE ROSCADO PARA AGUA</t>
   </si>
@@ -417,9 +418,6 @@
     <t>Tee 1/2</t>
   </si>
   <si>
-    <t>Ts</t>
-  </si>
-  <si>
     <t>TEE34BR</t>
   </si>
   <si>
@@ -2791,6 +2789,399 @@
   </si>
   <si>
     <t>Tees Inserto</t>
+  </si>
+  <si>
+    <t>TAPYT5</t>
+  </si>
+  <si>
+    <t>TARUGO PY C/TOPE 5 (caja x 150u) CAJA</t>
+  </si>
+  <si>
+    <t>TAPYT6</t>
+  </si>
+  <si>
+    <t>TARUGO PY C/TOPE 6 (caja x 100u) CAJA</t>
+  </si>
+  <si>
+    <t>TAPYT6B</t>
+  </si>
+  <si>
+    <t>TARUGO PY C/TOPE 6 (bolsa x 1000u) BOLSA</t>
+  </si>
+  <si>
+    <t>TAPYT8</t>
+  </si>
+  <si>
+    <t>TARUGO PY C/TOPE 8 (caja x 50u) CAJA</t>
+  </si>
+  <si>
+    <t>TAPYT8B</t>
+  </si>
+  <si>
+    <t>TARUGO PY C/TOPE 8 (bolsa x 500u) BOLSA</t>
+  </si>
+  <si>
+    <t>TAPYT10</t>
+  </si>
+  <si>
+    <t>TARUGO PY C/TOPE 10 (caja x 40u) CAJA</t>
+  </si>
+  <si>
+    <t>TAPYT10B</t>
+  </si>
+  <si>
+    <t>TARUGO PY C/TOPE 10 (bolsa x 500u) BOLSA</t>
+  </si>
+  <si>
+    <t>TAPYT12</t>
+  </si>
+  <si>
+    <t>TARUGO PY C/TOPE 12 (caja x 25u) CAJA</t>
+  </si>
+  <si>
+    <t>TAPY4</t>
+  </si>
+  <si>
+    <t>TARUGO PY 4 (Caja/bolsa x 400u) CAJA</t>
+  </si>
+  <si>
+    <t>TAPY5</t>
+  </si>
+  <si>
+    <t>TARUGO PY 5 (Caja/bolsa x 200u) CAJA</t>
+  </si>
+  <si>
+    <t>TAPY6</t>
+  </si>
+  <si>
+    <t>TARUGO PY 6 (Caja/bolsa x 200u) CAJA</t>
+  </si>
+  <si>
+    <t>TAPY8</t>
+  </si>
+  <si>
+    <t>TARUGO PY 8 (Caja/bolsa x 100u) CAJA</t>
+  </si>
+  <si>
+    <t>TAPY10</t>
+  </si>
+  <si>
+    <t>TARUGO PY 10 (Caja/bolsa x 50u) CAJA</t>
+  </si>
+  <si>
+    <t>TAPY12</t>
+  </si>
+  <si>
+    <t>TARUGO PY 12 (Caja/bolsa x 25u) CAJA</t>
+  </si>
+  <si>
+    <t>TAPY14</t>
+  </si>
+  <si>
+    <t>TARUGO PY 14 (Caja/bolsa x 20u) CAJA</t>
+  </si>
+  <si>
+    <t>TAPY6B</t>
+  </si>
+  <si>
+    <t>TARUGO PY 6 BOLSA X 1000 BOL</t>
+  </si>
+  <si>
+    <t>TAPY8B</t>
+  </si>
+  <si>
+    <t>TARUGO PY 8 BOLSA X 1000 BOL</t>
+  </si>
+  <si>
+    <t>TAPY10B</t>
+  </si>
+  <si>
+    <t>TARUGO PY 10 (Bolsa x 500u) BOL</t>
+  </si>
+  <si>
+    <t>TAPY12B</t>
+  </si>
+  <si>
+    <t>TARUGO PY 12 (Bolsa x 100u) BOL</t>
+  </si>
+  <si>
+    <t>TAPY14B</t>
+  </si>
+  <si>
+    <t>TARUGO PY 14 (Bolsa x 100u) BOL</t>
+  </si>
+  <si>
+    <t>TAPY4B</t>
+  </si>
+  <si>
+    <t>TARUGO PY 4 (Bolsa x 1000u) BOL</t>
+  </si>
+  <si>
+    <t>TAPY5B</t>
+  </si>
+  <si>
+    <t>TARUGO PY 5 (Bolsa x 1000u) BOL</t>
+  </si>
+  <si>
+    <t>LLADEP3</t>
+  </si>
+  <si>
+    <t>LLANA DENTADA PINAS 3x3 (caja x 3u) UNIDAD.</t>
+  </si>
+  <si>
+    <t>LLADEP4</t>
+  </si>
+  <si>
+    <t>LLANA DENTADA PINAS 4x4 (caja x 3u) UNIDAD.</t>
+  </si>
+  <si>
+    <t>LLADEP</t>
+  </si>
+  <si>
+    <t>LLANA DENTADA PINAS 6x6 (caja x 3u) UNIDAD.</t>
+  </si>
+  <si>
+    <t>LLADEP8</t>
+  </si>
+  <si>
+    <t>LLANA DENTADA PINAS 9x9 (caja x 3u) UNIDAD.</t>
+  </si>
+  <si>
+    <t>LLADEP12</t>
+  </si>
+  <si>
+    <t>LLANA DENTADA PINAS 12x12 (caja x 3u) UNIDAD</t>
+  </si>
+  <si>
+    <t>LLAYEP25</t>
+  </si>
+  <si>
+    <t>LLANA YESERO PINAS 12 x 25 (caja x 3u) UNIDAD.</t>
+  </si>
+  <si>
+    <t>LLAYEP30</t>
+  </si>
+  <si>
+    <t>LLANA YESERO PINAS 12 x 30 (caja x 3u) UNIDAD</t>
+  </si>
+  <si>
+    <t>LLAYEP35</t>
+  </si>
+  <si>
+    <t>LLANA YESERO PINAS 12 x 35 (caja x 3u) UNIDAD</t>
+  </si>
+  <si>
+    <t>ESPP2</t>
+  </si>
+  <si>
+    <t>ESPATULA PROFESIONAL PINAS 20 (caja x 12u) UNIDAD.</t>
+  </si>
+  <si>
+    <t>ESPP3</t>
+  </si>
+  <si>
+    <t>ESPATULA PROFESIONAL PINAS 30 (caja x 12u) UNIDAD.</t>
+  </si>
+  <si>
+    <t>ESPP4</t>
+  </si>
+  <si>
+    <t>ESPATULA PROFESIONAL PINAS 40 (caja x 12u) UNIDAD.</t>
+  </si>
+  <si>
+    <t>ESPP5</t>
+  </si>
+  <si>
+    <t>ESPATULA PROFESIONAL PINAS 50 (caja x 12u) UNIDAD.</t>
+  </si>
+  <si>
+    <t>ESPP6</t>
+  </si>
+  <si>
+    <t>ESPATULA PROFESIONAL PINAS 60 (caja x 12u) UNIDAD.</t>
+  </si>
+  <si>
+    <t>ESPP7</t>
+  </si>
+  <si>
+    <t>ESPATULA PROFESIONAL PINAS 70 (caja x 12u) UNIDAD.</t>
+  </si>
+  <si>
+    <t>ESPP8</t>
+  </si>
+  <si>
+    <t>ESPATULA PROFESIONAL PINAS 80 (caja x 12u) UNIDAD.</t>
+  </si>
+  <si>
+    <t>ESPP9</t>
+  </si>
+  <si>
+    <t>ESPATULA PROFESIONAL PINAS 90 (caja x 12u) UNIDAD.</t>
+  </si>
+  <si>
+    <t>CIENN12</t>
+  </si>
+  <si>
+    <t>CINTA de Papel NORTON 12 x 50mts (caja x72u) U</t>
+  </si>
+  <si>
+    <t>CIENN15</t>
+  </si>
+  <si>
+    <t>CINTA DE PAPEL NORTON 15 x 50mts. (caja x 60u) U</t>
+  </si>
+  <si>
+    <t>CIENN18</t>
+  </si>
+  <si>
+    <t>CINTA DE PAPEL NORTON 18 x 50mts (caja x 36u) U</t>
+  </si>
+  <si>
+    <t>CIENN24</t>
+  </si>
+  <si>
+    <t>CINTA DE PAPEL NORTON 24 x 50mts (caja x 30u) U</t>
+  </si>
+  <si>
+    <t>CIENN36</t>
+  </si>
+  <si>
+    <t>CINTA DE PAPEL NORTON 36 x 50mts (caja x 30u) U</t>
+  </si>
+  <si>
+    <t>CIENN48</t>
+  </si>
+  <si>
+    <t>CINTA DE PAPEL NORTON 48 x 50mts (caja x 16u) U</t>
+  </si>
+  <si>
+    <t>Tarugos CON tope</t>
+  </si>
+  <si>
+    <t>Tarugos SIN tope</t>
+  </si>
+  <si>
+    <t>LLANAS</t>
+  </si>
+  <si>
+    <t>ESPATULAS</t>
+  </si>
+  <si>
+    <t>CINTAS</t>
+  </si>
+  <si>
+    <t>381.5</t>
+  </si>
+  <si>
+    <t>3476.93</t>
+  </si>
+  <si>
+    <t>399.58</t>
+  </si>
+  <si>
+    <t>3565.52</t>
+  </si>
+  <si>
+    <t>603.89</t>
+  </si>
+  <si>
+    <t>6523.53</t>
+  </si>
+  <si>
+    <t>898.62</t>
+  </si>
+  <si>
+    <t>945.63</t>
+  </si>
+  <si>
+    <t>377.88</t>
+  </si>
+  <si>
+    <t>596.67</t>
+  </si>
+  <si>
+    <t>641.87</t>
+  </si>
+  <si>
+    <t>797.37</t>
+  </si>
+  <si>
+    <t>1010.71</t>
+  </si>
+  <si>
+    <t>2722.95</t>
+  </si>
+  <si>
+    <t>5644.81</t>
+  </si>
+  <si>
+    <t>5162.06</t>
+  </si>
+  <si>
+    <t>2384.85</t>
+  </si>
+  <si>
+    <t>3728.25</t>
+  </si>
+  <si>
+    <t>1719.48</t>
+  </si>
+  <si>
+    <t>1757.45</t>
+  </si>
+  <si>
+    <t>3582.64</t>
+  </si>
+  <si>
+    <t>4181.1</t>
+  </si>
+  <si>
+    <t>4922.28</t>
+  </si>
+  <si>
+    <t>5647.25</t>
+  </si>
+  <si>
+    <t>966.62</t>
+  </si>
+  <si>
+    <t>1034.73</t>
+  </si>
+  <si>
+    <t>1091.5</t>
+  </si>
+  <si>
+    <t>1216.38</t>
+  </si>
+  <si>
+    <t>1321.8</t>
+  </si>
+  <si>
+    <t>1435.33</t>
+  </si>
+  <si>
+    <t>1565.08</t>
+  </si>
+  <si>
+    <t>1681.85</t>
+  </si>
+  <si>
+    <t>150.32</t>
+  </si>
+  <si>
+    <t>365.04</t>
+  </si>
+  <si>
+    <t>438.41</t>
+  </si>
+  <si>
+    <t>583.62</t>
+  </si>
+  <si>
+    <t>875.55</t>
+  </si>
+  <si>
+    <t>1167.48</t>
   </si>
 </sst>
 </file>
@@ -3143,7 +3534,7 @@
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3271,6 +3662,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -3291,7 +3689,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ACCESORIOS BCE"/>
@@ -3592,7 +3990,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ACCESORIOS BCE"/>
@@ -4591,11 +4989,797 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE61549-6D92-4EB9-8290-E2D5F2589792}">
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C2" s="47">
+        <v>410.43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2" s="48"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B3" t="s">
+        <v>920</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>921</v>
+      </c>
+      <c r="B4" t="s">
+        <v>922</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>923</v>
+      </c>
+      <c r="B5" t="s">
+        <v>924</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>925</v>
+      </c>
+      <c r="B6" t="s">
+        <v>926</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>927</v>
+      </c>
+      <c r="B7" t="s">
+        <v>928</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>929</v>
+      </c>
+      <c r="B8" t="s">
+        <v>930</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>931</v>
+      </c>
+      <c r="B9" t="s">
+        <v>932</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>933</v>
+      </c>
+      <c r="B10" t="s">
+        <v>934</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>935</v>
+      </c>
+      <c r="B11" t="s">
+        <v>936</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>937</v>
+      </c>
+      <c r="B12" t="s">
+        <v>938</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>939</v>
+      </c>
+      <c r="B13" t="s">
+        <v>940</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>941</v>
+      </c>
+      <c r="B14" t="s">
+        <v>942</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>943</v>
+      </c>
+      <c r="B15" t="s">
+        <v>944</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>945</v>
+      </c>
+      <c r="B16" t="s">
+        <v>946</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>947</v>
+      </c>
+      <c r="B17" t="s">
+        <v>948</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>949</v>
+      </c>
+      <c r="B18" t="s">
+        <v>950</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>951</v>
+      </c>
+      <c r="B19" t="s">
+        <v>952</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>953</v>
+      </c>
+      <c r="B20" t="s">
+        <v>954</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>955</v>
+      </c>
+      <c r="B21" t="s">
+        <v>956</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>957</v>
+      </c>
+      <c r="B22" t="s">
+        <v>958</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>959</v>
+      </c>
+      <c r="B23" t="s">
+        <v>960</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>961</v>
+      </c>
+      <c r="B24" t="s">
+        <v>962</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>963</v>
+      </c>
+      <c r="B25" t="s">
+        <v>964</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>965</v>
+      </c>
+      <c r="B26" t="s">
+        <v>966</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>967</v>
+      </c>
+      <c r="B27" t="s">
+        <v>968</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>969</v>
+      </c>
+      <c r="B28" t="s">
+        <v>970</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>971</v>
+      </c>
+      <c r="B29" t="s">
+        <v>972</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>973</v>
+      </c>
+      <c r="B30" t="s">
+        <v>974</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>975</v>
+      </c>
+      <c r="B31" t="s">
+        <v>976</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>977</v>
+      </c>
+      <c r="B32" t="s">
+        <v>978</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>979</v>
+      </c>
+      <c r="B33" t="s">
+        <v>980</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>981</v>
+      </c>
+      <c r="B34" t="s">
+        <v>982</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>983</v>
+      </c>
+      <c r="B35" t="s">
+        <v>984</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>985</v>
+      </c>
+      <c r="B36" t="s">
+        <v>986</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>987</v>
+      </c>
+      <c r="B37" t="s">
+        <v>988</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>989</v>
+      </c>
+      <c r="B38" t="s">
+        <v>990</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>991</v>
+      </c>
+      <c r="B39" t="s">
+        <v>992</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>993</v>
+      </c>
+      <c r="B40" t="s">
+        <v>994</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>995</v>
+      </c>
+      <c r="B41" t="s">
+        <v>996</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>997</v>
+      </c>
+      <c r="B42" t="s">
+        <v>998</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>999</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E45">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -5038,7 +6222,7 @@
         <v>514.20600000000002</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E23" s="25">
         <v>20</v>
@@ -5047,17 +6231,17 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>127</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>128</v>
       </c>
       <c r="C24" s="28">
         <f>'[1]ACCESORIOS BCE'!$G$22</f>
         <v>758.69640000000004</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E24" s="25">
         <v>20</v>
@@ -5066,17 +6250,17 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>129</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>130</v>
       </c>
       <c r="C25" s="28">
         <f>'[1]ACCESORIOS BCE'!$G$23</f>
         <v>1129.3127999999999</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E25" s="25">
         <v>20</v>
@@ -5085,17 +6269,17 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>131</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>132</v>
       </c>
       <c r="C26" s="31">
         <f>'[1]ACCESORIOS BCE'!$G$35</f>
         <v>671.37840000000006</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E26" s="25">
         <v>20</v>
@@ -5104,17 +6288,17 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>133</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>134</v>
       </c>
       <c r="C27" s="23">
         <f>'[1]ACCESORIOS BCE'!$G$24</f>
         <v>799.44479999999999</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E27" s="33">
         <v>10</v>
@@ -5123,17 +6307,17 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="30" t="s">
         <v>136</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>137</v>
       </c>
       <c r="C28" s="31">
         <f>'[1]ACCESORIOS BCE'!$G$25</f>
         <v>1451.4192</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E28" s="33">
         <v>10</v>
@@ -5142,17 +6326,17 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>138</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>139</v>
       </c>
       <c r="C29" s="23">
         <f>'[1]ACCESORIOS BCE'!$G$30</f>
         <v>500.6232</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29" s="33">
         <v>10</v>
@@ -5161,17 +6345,17 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="27" t="s">
         <v>141</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>142</v>
       </c>
       <c r="C30" s="28">
         <f>'[1]ACCESORIOS BCE'!$G$31</f>
         <v>638.39160000000004</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E30" s="33">
         <v>10</v>
@@ -5180,17 +6364,17 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" s="31">
         <f>'[1]ACCESORIOS BCE'!$G$32</f>
         <v>727.65</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E31" s="33">
         <v>10</v>
@@ -5250,7 +6434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -5283,13 +6467,13 @@
         <v>1418</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="46">
         <v>65.107579635324697</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -5300,13 +6484,13 @@
         <v>3818</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="46">
         <v>109.75760034949499</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -5317,13 +6501,13 @@
         <v>3814</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="46">
         <v>94.952080454343502</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -5334,13 +6518,13 @@
         <v>1218</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="46">
         <v>121.579390409091</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -5351,13 +6535,13 @@
         <v>1214</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="46">
         <v>109.476922943182</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -5368,13 +6552,13 @@
         <v>1238</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="46">
         <v>101.237232606061</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -5385,13 +6569,13 @@
         <v>3412</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="46">
         <v>323.99400788888897</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -5399,16 +6583,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" t="s">
         <v>152</v>
-      </c>
-      <c r="B9" t="s">
-        <v>153</v>
       </c>
       <c r="C9" s="46">
         <v>691.72142830224698</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -5416,16 +6600,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
         <v>155</v>
-      </c>
-      <c r="B10" t="s">
-        <v>156</v>
       </c>
       <c r="C10" s="46">
         <v>591.72142830224698</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -5433,10 +6617,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s">
         <v>157</v>
-      </c>
-      <c r="B11" t="s">
-        <v>158</v>
       </c>
       <c r="C11" s="46">
         <v>85.967788364121205</v>
@@ -5450,10 +6634,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s">
         <v>159</v>
-      </c>
-      <c r="B12" t="s">
-        <v>160</v>
       </c>
       <c r="C12" s="46">
         <v>103.17507614290901</v>
@@ -5467,10 +6651,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" t="s">
         <v>161</v>
-      </c>
-      <c r="B13" t="s">
-        <v>162</v>
       </c>
       <c r="C13" s="46">
         <v>142.60737393939399</v>
@@ -5484,10 +6668,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s">
         <v>163</v>
-      </c>
-      <c r="B14" t="s">
-        <v>164</v>
       </c>
       <c r="C14" s="46">
         <v>231.619321454545</v>
@@ -5501,16 +6685,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s">
         <v>165</v>
-      </c>
-      <c r="B15" t="s">
-        <v>166</v>
       </c>
       <c r="C15" s="46">
         <v>149.17483178239101</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E15">
         <v>20</v>
@@ -5518,16 +6702,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" t="s">
         <v>168</v>
-      </c>
-      <c r="B16" t="s">
-        <v>169</v>
       </c>
       <c r="C16" s="46">
         <v>172.52651113636401</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E16">
         <v>20</v>
@@ -5535,16 +6719,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" t="s">
         <v>170</v>
-      </c>
-      <c r="B17" t="s">
-        <v>171</v>
       </c>
       <c r="C17" s="46">
         <v>172.52651113636401</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E17">
         <v>20</v>
@@ -5552,16 +6736,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" t="s">
         <v>172</v>
-      </c>
-      <c r="B18" t="s">
-        <v>173</v>
       </c>
       <c r="C18" s="46">
         <v>208.20515690909099</v>
       </c>
       <c r="D18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E18">
         <v>20</v>
@@ -5569,16 +6753,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" t="s">
         <v>174</v>
-      </c>
-      <c r="B19" t="s">
-        <v>175</v>
       </c>
       <c r="C19" s="46">
         <v>208.20515690909099</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E19">
         <v>20</v>
@@ -5586,16 +6770,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" t="s">
         <v>176</v>
-      </c>
-      <c r="B20" t="s">
-        <v>177</v>
       </c>
       <c r="C20" s="46">
         <v>208.20515690909099</v>
       </c>
       <c r="D20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -5603,10 +6787,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" t="s">
         <v>178</v>
-      </c>
-      <c r="B21" t="s">
-        <v>179</v>
       </c>
       <c r="C21" s="46">
         <v>99.294148529292897</v>
@@ -5620,10 +6804,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" t="s">
         <v>180</v>
-      </c>
-      <c r="B22" t="s">
-        <v>181</v>
       </c>
       <c r="C22" s="46">
         <v>97.367762343434407</v>
@@ -5637,10 +6821,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" t="s">
         <v>182</v>
-      </c>
-      <c r="B23" t="s">
-        <v>183</v>
       </c>
       <c r="C23" s="46">
         <v>127.02982567241401</v>
@@ -5654,10 +6838,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" t="s">
         <v>184</v>
-      </c>
-      <c r="B24" t="s">
-        <v>185</v>
       </c>
       <c r="C24" s="46">
         <v>232.47802960344799</v>
@@ -5671,16 +6855,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" t="s">
         <v>186</v>
-      </c>
-      <c r="B25" t="s">
-        <v>187</v>
       </c>
       <c r="C25" s="46">
         <v>46.869321454545499</v>
       </c>
       <c r="D25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E25">
         <v>20</v>
@@ -5688,16 +6872,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" t="s">
         <v>189</v>
-      </c>
-      <c r="B26" t="s">
-        <v>190</v>
       </c>
       <c r="C26" s="46">
         <v>46.641549381818201</v>
       </c>
       <c r="D26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E26">
         <v>20</v>
@@ -5705,16 +6889,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" t="s">
         <v>191</v>
-      </c>
-      <c r="B27" t="s">
-        <v>192</v>
       </c>
       <c r="C27" s="46">
         <v>46.641549381818201</v>
       </c>
       <c r="D27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E27">
         <v>20</v>
@@ -5722,16 +6906,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" t="s">
         <v>193</v>
-      </c>
-      <c r="B28" t="s">
-        <v>194</v>
       </c>
       <c r="C28" s="46">
         <v>6.984</v>
       </c>
       <c r="D28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E28">
         <v>20</v>
@@ -5739,16 +6923,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" t="s">
         <v>195</v>
-      </c>
-      <c r="B29" t="s">
-        <v>196</v>
       </c>
       <c r="C29" s="46">
         <v>6.984</v>
       </c>
       <c r="D29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E29">
         <v>20</v>
@@ -5756,16 +6940,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" t="s">
         <v>197</v>
-      </c>
-      <c r="B30" t="s">
-        <v>198</v>
       </c>
       <c r="C30" s="46">
         <v>6.984</v>
       </c>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -5773,16 +6957,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" t="s">
         <v>199</v>
-      </c>
-      <c r="B31" t="s">
-        <v>200</v>
       </c>
       <c r="C31" s="46">
         <v>251.25536431230401</v>
       </c>
       <c r="D31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E31">
         <v>20</v>
@@ -5790,16 +6974,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" t="s">
         <v>202</v>
-      </c>
-      <c r="B32" t="s">
-        <v>203</v>
       </c>
       <c r="C32" s="46">
         <v>252.45726005093999</v>
       </c>
       <c r="D32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E32">
         <v>20</v>
@@ -5807,16 +6991,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" t="s">
         <v>204</v>
-      </c>
-      <c r="B33" t="s">
-        <v>205</v>
       </c>
       <c r="C33" s="46">
         <v>135.57374999999999</v>
       </c>
       <c r="D33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -5824,16 +7008,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" t="s">
         <v>207</v>
-      </c>
-      <c r="B34" t="s">
-        <v>208</v>
       </c>
       <c r="C34" s="46">
         <v>188.91437500000001</v>
       </c>
       <c r="D34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E34">
         <v>20</v>
@@ -5841,16 +7025,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" t="s">
         <v>209</v>
-      </c>
-      <c r="B35" t="s">
-        <v>210</v>
       </c>
       <c r="C35" s="46">
         <v>102.01963225353001</v>
       </c>
       <c r="D35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -5858,16 +7042,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" t="s">
         <v>212</v>
-      </c>
-      <c r="B36" t="s">
-        <v>213</v>
       </c>
       <c r="C36" s="46">
         <v>185.31645623529801</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E36">
         <v>20</v>
@@ -5875,16 +7059,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" t="s">
         <v>214</v>
-      </c>
-      <c r="B37" t="s">
-        <v>215</v>
       </c>
       <c r="C37" s="46">
         <v>444.07360312499998</v>
       </c>
       <c r="D37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E37">
         <v>20</v>
@@ -5892,16 +7076,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
         <v>217</v>
-      </c>
-      <c r="B38" t="s">
-        <v>218</v>
       </c>
       <c r="C38" s="46">
         <v>446.982970795455</v>
       </c>
       <c r="D38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E38">
         <v>20</v>
@@ -5909,16 +7093,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39" t="s">
         <v>219</v>
-      </c>
-      <c r="B39" t="s">
-        <v>220</v>
       </c>
       <c r="C39" s="46">
         <v>243.65238041144201</v>
       </c>
       <c r="D39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E39">
         <v>20</v>
@@ -5926,16 +7110,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="B40" t="s">
         <v>221</v>
-      </c>
-      <c r="B40" t="s">
-        <v>222</v>
       </c>
       <c r="C40" s="46">
         <v>272.80627191222601</v>
       </c>
       <c r="D40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E40">
         <v>20</v>
@@ -5943,16 +7127,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" t="s">
         <v>223</v>
-      </c>
-      <c r="B41" t="s">
-        <v>224</v>
       </c>
       <c r="C41" s="46">
         <v>351.17737480731199</v>
       </c>
       <c r="D41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E41">
         <v>20</v>
@@ -5960,16 +7144,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" t="s">
         <v>225</v>
-      </c>
-      <c r="B42" t="s">
-        <v>226</v>
       </c>
       <c r="C42" s="46">
         <v>433.86853935606098</v>
       </c>
       <c r="D42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E42">
         <v>20</v>
@@ -5977,16 +7161,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" t="s">
         <v>227</v>
-      </c>
-      <c r="B43" t="s">
-        <v>228</v>
       </c>
       <c r="C43" s="46">
         <v>487.61578446969702</v>
       </c>
       <c r="D43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E43">
         <v>20</v>
@@ -5994,16 +7178,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="B44" t="s">
         <v>229</v>
-      </c>
-      <c r="B44" t="s">
-        <v>230</v>
       </c>
       <c r="C44" s="46">
         <v>571.04928843181801</v>
       </c>
       <c r="D44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E44">
         <v>20</v>
@@ -6011,16 +7195,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" t="s">
         <v>231</v>
-      </c>
-      <c r="B45" t="s">
-        <v>232</v>
       </c>
       <c r="C45" s="46">
         <v>466.33795303784098</v>
       </c>
       <c r="D45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E45">
         <v>20</v>
@@ -6028,16 +7212,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="B46" t="s">
         <v>233</v>
-      </c>
-      <c r="B46" t="s">
-        <v>234</v>
       </c>
       <c r="C46" s="46">
         <v>561.34921744921803</v>
       </c>
       <c r="D46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E46">
         <v>20</v>
@@ -6045,16 +7229,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="B47" t="s">
         <v>235</v>
-      </c>
-      <c r="B47" t="s">
-        <v>236</v>
       </c>
       <c r="C47" s="46">
         <v>641.17460637300906</v>
       </c>
       <c r="D47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E47">
         <v>20</v>
@@ -6062,16 +7246,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="B48" t="s">
         <v>237</v>
-      </c>
-      <c r="B48" t="s">
-        <v>238</v>
       </c>
       <c r="C48" s="46">
         <v>738.83538260947796</v>
       </c>
       <c r="D48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E48">
         <v>20</v>
@@ -6079,16 +7263,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="B49" t="s">
         <v>239</v>
-      </c>
-      <c r="B49" t="s">
-        <v>240</v>
       </c>
       <c r="C49" s="46">
         <v>890.85747835497796</v>
       </c>
       <c r="D49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E49">
         <v>20</v>
@@ -6096,10 +7280,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" t="s">
         <v>241</v>
-      </c>
-      <c r="B50" t="s">
-        <v>242</v>
       </c>
       <c r="C50" s="46">
         <v>110.358680184075</v>
@@ -6113,10 +7297,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="B51" t="s">
         <v>243</v>
-      </c>
-      <c r="B51" t="s">
-        <v>244</v>
       </c>
       <c r="C51" s="46">
         <v>151.20009419949801</v>
@@ -6130,10 +7314,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="B52" t="s">
         <v>245</v>
-      </c>
-      <c r="B52" t="s">
-        <v>246</v>
       </c>
       <c r="C52" s="46">
         <v>135.46036313696999</v>
@@ -6147,10 +7331,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B53" t="s">
         <v>247</v>
-      </c>
-      <c r="B53" t="s">
-        <v>248</v>
       </c>
       <c r="C53" s="46">
         <v>175.93607422140801</v>
@@ -6164,10 +7348,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B54" t="s">
         <v>249</v>
-      </c>
-      <c r="B54" t="s">
-        <v>250</v>
       </c>
       <c r="C54" s="46">
         <v>171.88709731818199</v>
@@ -6181,10 +7365,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55" t="s">
         <v>251</v>
-      </c>
-      <c r="B55" t="s">
-        <v>252</v>
       </c>
       <c r="C55" s="46">
         <v>191.435589507576</v>
@@ -6198,10 +7382,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="B56" t="s">
         <v>253</v>
-      </c>
-      <c r="B56" t="s">
-        <v>254</v>
       </c>
       <c r="C56" s="46">
         <v>140.248328379718</v>
@@ -6215,10 +7399,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="B57" t="s">
         <v>255</v>
-      </c>
-      <c r="B57" t="s">
-        <v>256</v>
       </c>
       <c r="C57" s="46">
         <v>160.02651113636401</v>
@@ -6232,10 +7416,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="B58" t="s">
         <v>257</v>
-      </c>
-      <c r="B58" t="s">
-        <v>258</v>
       </c>
       <c r="C58" s="46">
         <v>161.31790801262301</v>
@@ -6249,10 +7433,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="B59" t="s">
         <v>259</v>
-      </c>
-      <c r="B59" t="s">
-        <v>260</v>
       </c>
       <c r="C59" s="46">
         <v>208.69792920062699</v>
@@ -6266,10 +7450,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="B60" t="s">
         <v>261</v>
-      </c>
-      <c r="B60" t="s">
-        <v>262</v>
       </c>
       <c r="C60" s="46">
         <v>209.67067415047001</v>
@@ -6283,10 +7467,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61" t="s">
         <v>263</v>
-      </c>
-      <c r="B61" t="s">
-        <v>264</v>
       </c>
       <c r="C61" s="46">
         <v>235.86671322966501</v>
@@ -6300,10 +7484,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="B62" t="s">
         <v>265</v>
-      </c>
-      <c r="B62" t="s">
-        <v>266</v>
       </c>
       <c r="C62" s="46">
         <v>518.39636121212095</v>
@@ -6317,10 +7501,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="B63" t="s">
         <v>267</v>
-      </c>
-      <c r="B63" t="s">
-        <v>268</v>
       </c>
       <c r="C63" s="46">
         <v>568.39636121212095</v>
@@ -6334,10 +7518,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="B64" t="s">
         <v>269</v>
-      </c>
-      <c r="B64" t="s">
-        <v>270</v>
       </c>
       <c r="C64" s="46">
         <v>614.38283713939404</v>
@@ -6351,10 +7535,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="B65" t="s">
         <v>271</v>
-      </c>
-      <c r="B65" t="s">
-        <v>272</v>
       </c>
       <c r="C65" s="46">
         <v>518.39636121212095</v>
@@ -6368,10 +7552,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="B66" t="s">
         <v>273</v>
-      </c>
-      <c r="B66" t="s">
-        <v>274</v>
       </c>
       <c r="C66" s="46">
         <v>147.284406261333</v>
@@ -6385,10 +7569,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="B67" t="s">
         <v>275</v>
-      </c>
-      <c r="B67" t="s">
-        <v>276</v>
       </c>
       <c r="C67" s="46">
         <v>144.05584689460599</v>
@@ -6402,10 +7586,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="B68" t="s">
         <v>277</v>
-      </c>
-      <c r="B68" t="s">
-        <v>278</v>
       </c>
       <c r="C68" s="46">
         <v>159.467972462121</v>
@@ -6419,10 +7603,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="B69" t="s">
         <v>279</v>
-      </c>
-      <c r="B69" t="s">
-        <v>280</v>
       </c>
       <c r="C69" s="46">
         <v>57.852379457454497</v>
@@ -6436,10 +7620,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="B70" t="s">
         <v>281</v>
-      </c>
-      <c r="B70" t="s">
-        <v>282</v>
       </c>
       <c r="C70" s="46">
         <v>68.071420708545503</v>
@@ -6453,10 +7637,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="B71" t="s">
         <v>283</v>
-      </c>
-      <c r="B71" t="s">
-        <v>284</v>
       </c>
       <c r="C71" s="46">
         <v>89.329720705741593</v>
@@ -6470,10 +7654,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="B72" t="s">
         <v>285</v>
-      </c>
-      <c r="B72" t="s">
-        <v>286</v>
       </c>
       <c r="C72" s="46">
         <v>125.68400023197501</v>
@@ -6487,10 +7671,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73" t="s">
         <v>287</v>
-      </c>
-      <c r="B73" t="s">
-        <v>288</v>
       </c>
       <c r="C73" s="46">
         <v>72.612741809454604</v>
@@ -6504,10 +7688,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="B74" t="s">
         <v>289</v>
-      </c>
-      <c r="B74" t="s">
-        <v>290</v>
       </c>
       <c r="C74" s="46">
         <v>62.705831119999999</v>
@@ -6521,10 +7705,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="B75" t="s">
         <v>291</v>
-      </c>
-      <c r="B75" t="s">
-        <v>292</v>
       </c>
       <c r="C75" s="46">
         <v>84.674302676565702</v>
@@ -6538,10 +7722,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="B76" t="s">
         <v>293</v>
-      </c>
-      <c r="B76" t="s">
-        <v>294</v>
       </c>
       <c r="C76" s="46">
         <v>129.12445547727299</v>
@@ -6555,16 +7739,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="B77" t="s">
         <v>295</v>
-      </c>
-      <c r="B77" t="s">
-        <v>296</v>
       </c>
       <c r="C77" s="46">
         <v>110.471818814862</v>
       </c>
       <c r="D77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E77">
         <v>20</v>
@@ -6572,16 +7756,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="B78" t="s">
         <v>298</v>
-      </c>
-      <c r="B78" t="s">
-        <v>299</v>
       </c>
       <c r="C78" s="46">
         <v>115.780864193939</v>
       </c>
       <c r="D78" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E78">
         <v>20</v>
@@ -6589,16 +7773,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="B79" t="s">
         <v>300</v>
-      </c>
-      <c r="B79" t="s">
-        <v>301</v>
       </c>
       <c r="C79" s="46">
         <v>143.69091137939401</v>
       </c>
       <c r="D79" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E79">
         <v>20</v>
@@ -6606,16 +7790,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="B80" t="s">
         <v>302</v>
-      </c>
-      <c r="B80" t="s">
-        <v>303</v>
       </c>
       <c r="C80" s="46">
         <v>196.82683743540699</v>
       </c>
       <c r="D80" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E80">
         <v>20</v>
@@ -6623,16 +7807,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="B81" t="s">
         <v>304</v>
-      </c>
-      <c r="B81" t="s">
-        <v>305</v>
       </c>
       <c r="C81" s="46">
         <v>116.47058427465601</v>
       </c>
       <c r="D81" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E81">
         <v>20</v>
@@ -6640,16 +7824,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="B82" t="s">
         <v>306</v>
-      </c>
-      <c r="B82" t="s">
-        <v>307</v>
       </c>
       <c r="C82" s="46">
         <v>127.20098154971301</v>
       </c>
       <c r="D82" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E82">
         <v>20</v>
@@ -6657,16 +7841,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="B83" t="s">
         <v>308</v>
-      </c>
-      <c r="B83" t="s">
-        <v>309</v>
       </c>
       <c r="C83" s="46">
         <v>168.73613961722501</v>
       </c>
       <c r="D83" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E83">
         <v>20</v>
@@ -6674,16 +7858,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="B84" t="s">
         <v>310</v>
-      </c>
-      <c r="B84" t="s">
-        <v>311</v>
       </c>
       <c r="C84" s="46">
         <v>231.685529799043</v>
       </c>
       <c r="D84" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E84">
         <v>20</v>
@@ -6691,16 +7875,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="B85" t="s">
         <v>312</v>
-      </c>
-      <c r="B85" t="s">
-        <v>313</v>
       </c>
       <c r="C85" s="46">
         <v>311.76437499999997</v>
       </c>
       <c r="D85" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E85">
         <v>20</v>
@@ -6708,16 +7892,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="B86" t="s">
         <v>314</v>
-      </c>
-      <c r="B86" t="s">
-        <v>315</v>
       </c>
       <c r="C86" s="46">
         <v>311.76437499999997</v>
       </c>
       <c r="D86" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E86">
         <v>20</v>
@@ -6725,16 +7909,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="B87" t="s">
         <v>316</v>
-      </c>
-      <c r="B87" t="s">
-        <v>317</v>
       </c>
       <c r="C87" s="46">
         <v>292.065202787879</v>
       </c>
       <c r="D87" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E87">
         <v>20</v>
@@ -6742,16 +7926,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="B88" t="s">
         <v>318</v>
-      </c>
-      <c r="B88" t="s">
-        <v>319</v>
       </c>
       <c r="C88" s="46">
         <v>355.52250886124398</v>
       </c>
       <c r="D88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E88">
         <v>20</v>
@@ -6759,16 +7943,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="B89" t="s">
         <v>320</v>
-      </c>
-      <c r="B89" t="s">
-        <v>321</v>
       </c>
       <c r="C89" s="46">
         <v>57.495236600311699</v>
       </c>
       <c r="D89" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E89">
         <v>20</v>
@@ -6776,16 +7960,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="B90" t="s">
         <v>323</v>
-      </c>
-      <c r="B90" t="s">
-        <v>324</v>
       </c>
       <c r="C90" s="46">
         <v>57.141711423272703</v>
       </c>
       <c r="D90" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E90">
         <v>20</v>
@@ -6793,16 +7977,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="B91" t="s">
         <v>325</v>
-      </c>
-      <c r="B91" t="s">
-        <v>326</v>
       </c>
       <c r="C91" s="46">
         <v>68.804982518939397</v>
       </c>
       <c r="D91" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E91">
         <v>20</v>
@@ -6810,16 +7994,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="B92" t="s">
         <v>327</v>
-      </c>
-      <c r="B92" t="s">
-        <v>328</v>
       </c>
       <c r="C92" s="46">
         <v>149.492493636364</v>
       </c>
       <c r="D92" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E92">
         <v>20</v>
@@ -6827,16 +8011,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="B93" t="s">
         <v>329</v>
-      </c>
-      <c r="B93" t="s">
-        <v>330</v>
       </c>
       <c r="C93" s="46">
         <v>166.46233636363601</v>
       </c>
       <c r="D93" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E93">
         <v>20</v>
@@ -6844,16 +8028,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="B94" t="s">
         <v>331</v>
-      </c>
-      <c r="B94" t="s">
-        <v>332</v>
       </c>
       <c r="C94" s="46">
         <v>74.529754041878803</v>
       </c>
       <c r="D94" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E94">
         <v>20</v>
@@ -6861,16 +8045,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="B95" t="s">
         <v>333</v>
-      </c>
-      <c r="B95" t="s">
-        <v>334</v>
       </c>
       <c r="C95" s="46">
         <v>57.495236600311699</v>
       </c>
       <c r="D95" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E95">
         <v>20</v>
@@ -6878,16 +8062,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="B96" t="s">
         <v>335</v>
-      </c>
-      <c r="B96" t="s">
-        <v>336</v>
       </c>
       <c r="C96" s="46">
         <v>68.804982518939397</v>
       </c>
       <c r="D96" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E96">
         <v>20</v>
@@ -6895,16 +8079,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="B97" t="s">
         <v>337</v>
-      </c>
-      <c r="B97" t="s">
-        <v>338</v>
       </c>
       <c r="C97" s="46">
         <v>29.016016954181801</v>
       </c>
       <c r="D97" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E97">
         <v>20</v>
@@ -6912,16 +8096,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="B98" t="s">
         <v>339</v>
-      </c>
-      <c r="B98" t="s">
-        <v>340</v>
       </c>
       <c r="C98" s="46">
         <v>36.4226338981818</v>
       </c>
       <c r="D98" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E98">
         <v>20</v>
@@ -6929,16 +8113,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="B99" t="s">
         <v>341</v>
-      </c>
-      <c r="B99" t="s">
-        <v>342</v>
       </c>
       <c r="C99" s="46">
         <v>48.644807045454598</v>
       </c>
       <c r="D99" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E99">
         <v>20</v>
@@ -6946,16 +8130,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="B100" t="s">
         <v>343</v>
-      </c>
-      <c r="B100" t="s">
-        <v>344</v>
       </c>
       <c r="C100" s="46">
         <v>91.962663272727298</v>
       </c>
       <c r="D100" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E100">
         <v>20</v>
@@ -6963,16 +8147,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="B101" t="s">
         <v>345</v>
-      </c>
-      <c r="B101" t="s">
-        <v>346</v>
       </c>
       <c r="C101" s="46">
         <v>278.83430945634001</v>
       </c>
       <c r="D101" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E101">
         <v>20</v>
@@ -6980,16 +8164,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="B102" t="s">
         <v>347</v>
-      </c>
-      <c r="B102" t="s">
-        <v>348</v>
       </c>
       <c r="C102" s="46">
         <v>274.47465738139999</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E102">
         <v>20</v>
@@ -6997,16 +8181,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="B103" t="s">
         <v>349</v>
-      </c>
-      <c r="B103" t="s">
-        <v>350</v>
       </c>
       <c r="C103" s="46">
         <v>439.069809988636</v>
       </c>
       <c r="D103" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E103">
         <v>20</v>
@@ -7014,16 +8198,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="B104" t="s">
         <v>351</v>
-      </c>
-      <c r="B104" t="s">
-        <v>352</v>
       </c>
       <c r="C104" s="46">
         <v>411.60649823863599</v>
       </c>
       <c r="D104" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E104">
         <v>20</v>
@@ -7031,16 +8215,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="B105" t="s">
         <v>353</v>
-      </c>
-      <c r="B105" t="s">
-        <v>354</v>
       </c>
       <c r="C105" s="46">
         <v>14.2</v>
       </c>
       <c r="D105" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E105">
         <v>20</v>
@@ -7048,16 +8232,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="B106" t="s">
         <v>356</v>
-      </c>
-      <c r="B106" t="s">
-        <v>357</v>
       </c>
       <c r="C106" s="46">
         <v>14.2</v>
       </c>
       <c r="D106" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E106">
         <v>20</v>
@@ -7065,16 +8249,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="B107" t="s">
         <v>358</v>
-      </c>
-      <c r="B107" t="s">
-        <v>359</v>
       </c>
       <c r="C107" s="46">
         <v>15.76</v>
       </c>
       <c r="D107" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E107">
         <v>20</v>
@@ -7082,16 +8266,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="B108" t="s">
         <v>360</v>
-      </c>
-      <c r="B108" t="s">
-        <v>361</v>
       </c>
       <c r="C108" s="46">
         <v>22</v>
       </c>
       <c r="D108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E108">
         <v>20</v>
@@ -7099,16 +8283,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="B109" t="s">
         <v>362</v>
-      </c>
-      <c r="B109" t="s">
-        <v>363</v>
       </c>
       <c r="C109" s="46">
         <v>23.9484454939</v>
       </c>
       <c r="D109" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E109">
         <v>20</v>
@@ -7116,16 +8300,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="B110" t="s">
         <v>364</v>
-      </c>
-      <c r="B110" t="s">
-        <v>365</v>
       </c>
       <c r="C110" s="46">
         <v>27.087522576761</v>
       </c>
       <c r="D110" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E110">
         <v>20</v>
@@ -7133,16 +8317,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="B111" t="s">
         <v>366</v>
-      </c>
-      <c r="B111" t="s">
-        <v>367</v>
       </c>
       <c r="C111" s="46">
         <v>32.499703557312301</v>
       </c>
       <c r="D111" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E111">
         <v>20</v>
@@ -7150,16 +8334,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="B112" t="s">
         <v>368</v>
-      </c>
-      <c r="B112" t="s">
-        <v>369</v>
       </c>
       <c r="C112" s="46">
         <v>46.038916562889199</v>
       </c>
       <c r="D112" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E112">
         <v>20</v>
@@ -7175,8 +8359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7204,10 +8388,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" t="s">
         <v>370</v>
-      </c>
-      <c r="B2" t="s">
-        <v>371</v>
       </c>
       <c r="C2" s="46">
         <v>259.81312500000001</v>
@@ -7221,10 +8405,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3" t="s">
         <v>372</v>
-      </c>
-      <c r="B3" t="s">
-        <v>373</v>
       </c>
       <c r="C3" s="46">
         <v>198.12</v>
@@ -7238,10 +8422,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B4" t="s">
         <v>374</v>
-      </c>
-      <c r="B4" t="s">
-        <v>375</v>
       </c>
       <c r="C4" s="46">
         <v>263.68875000000003</v>
@@ -7255,10 +8439,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" t="s">
         <v>376</v>
-      </c>
-      <c r="B5" t="s">
-        <v>377</v>
       </c>
       <c r="C5" s="46">
         <v>215.46687499999999</v>
@@ -7272,10 +8456,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" t="s">
         <v>378</v>
-      </c>
-      <c r="B6" t="s">
-        <v>379</v>
       </c>
       <c r="C6" s="46">
         <v>223.738125</v>
@@ -7289,10 +8473,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7" t="s">
         <v>380</v>
-      </c>
-      <c r="B7" t="s">
-        <v>381</v>
       </c>
       <c r="C7" s="46">
         <v>267.57249999999999</v>
@@ -7306,10 +8490,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B8" t="s">
         <v>382</v>
-      </c>
-      <c r="B8" t="s">
-        <v>383</v>
       </c>
       <c r="C8" s="46">
         <v>195.49562499999999</v>
@@ -7323,10 +8507,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" t="s">
         <v>384</v>
-      </c>
-      <c r="B9" t="s">
-        <v>385</v>
       </c>
       <c r="C9" s="46">
         <v>242.48249999999999</v>
@@ -7340,10 +8524,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B10" t="s">
         <v>386</v>
-      </c>
-      <c r="B10" t="s">
-        <v>387</v>
       </c>
       <c r="C10" s="46">
         <v>294.63687499999997</v>
@@ -7357,16 +8541,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B11" t="s">
         <v>388</v>
-      </c>
-      <c r="B11" t="s">
-        <v>389</v>
       </c>
       <c r="C11" s="46">
         <v>314.68124999999998</v>
       </c>
       <c r="D11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -7374,16 +8558,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B12" t="s">
         <v>391</v>
-      </c>
-      <c r="B12" t="s">
-        <v>392</v>
       </c>
       <c r="C12" s="46">
         <v>333.43374999999997</v>
       </c>
       <c r="D12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E12">
         <v>20</v>
@@ -7391,16 +8575,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>392</v>
+      </c>
+      <c r="B13" t="s">
         <v>393</v>
-      </c>
-      <c r="B13" t="s">
-        <v>394</v>
       </c>
       <c r="C13" s="46">
         <v>378.763125</v>
       </c>
       <c r="D13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -7408,16 +8592,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>394</v>
+      </c>
+      <c r="B14" t="s">
         <v>395</v>
-      </c>
-      <c r="B14" t="s">
-        <v>396</v>
       </c>
       <c r="C14" s="46">
         <v>290.82625000000002</v>
       </c>
       <c r="D14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E14">
         <v>20</v>
@@ -7425,16 +8609,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>396</v>
+      </c>
+      <c r="B15" t="s">
         <v>397</v>
-      </c>
-      <c r="B15" t="s">
-        <v>398</v>
       </c>
       <c r="C15" s="46">
         <v>322.32687499999997</v>
       </c>
       <c r="D15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E15">
         <v>20</v>
@@ -7442,16 +8626,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>398</v>
+      </c>
+      <c r="B16" t="s">
         <v>399</v>
-      </c>
-      <c r="B16" t="s">
-        <v>400</v>
       </c>
       <c r="C16" s="46">
         <v>287.67374999999998</v>
       </c>
       <c r="D16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E16">
         <v>20</v>
@@ -7459,16 +8643,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B17" t="s">
         <v>401</v>
-      </c>
-      <c r="B17" t="s">
-        <v>402</v>
       </c>
       <c r="C17" s="46">
         <v>307.10062499999998</v>
       </c>
       <c r="D17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E17">
         <v>20</v>
@@ -7476,16 +8660,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>402</v>
+      </c>
+      <c r="B18" t="s">
         <v>403</v>
-      </c>
-      <c r="B18" t="s">
-        <v>404</v>
       </c>
       <c r="C18" s="46">
         <v>284.35062499999998</v>
       </c>
       <c r="D18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E18">
         <v>20</v>
@@ -7493,16 +8677,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>404</v>
+      </c>
+      <c r="B19" t="s">
         <v>405</v>
-      </c>
-      <c r="B19" t="s">
-        <v>406</v>
       </c>
       <c r="C19" s="46">
         <v>311.21187500000002</v>
       </c>
       <c r="D19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E19">
         <v>20</v>
@@ -7510,16 +8694,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>406</v>
+      </c>
+      <c r="B20" t="s">
         <v>407</v>
-      </c>
-      <c r="B20" t="s">
-        <v>408</v>
       </c>
       <c r="C20" s="46">
         <v>289.49374999999998</v>
       </c>
       <c r="D20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -7527,16 +8711,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>408</v>
+      </c>
+      <c r="B21" t="s">
         <v>409</v>
-      </c>
-      <c r="B21" t="s">
-        <v>410</v>
       </c>
       <c r="C21" s="46">
         <v>289.49374999999998</v>
       </c>
       <c r="D21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -7544,16 +8728,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>410</v>
+      </c>
+      <c r="B22" t="s">
         <v>411</v>
-      </c>
-      <c r="B22" t="s">
-        <v>412</v>
       </c>
       <c r="C22" s="46">
         <v>294.051875</v>
       </c>
       <c r="D22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -7561,16 +8745,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>412</v>
+      </c>
+      <c r="B23" t="s">
         <v>413</v>
-      </c>
-      <c r="B23" t="s">
-        <v>414</v>
       </c>
       <c r="C23" s="46">
         <v>294.051875</v>
       </c>
       <c r="D23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -7578,16 +8762,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>414</v>
+      </c>
+      <c r="B24" t="s">
         <v>415</v>
-      </c>
-      <c r="B24" t="s">
-        <v>416</v>
       </c>
       <c r="C24" s="46">
         <v>287.67374999999998</v>
       </c>
       <c r="D24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E24">
         <v>20</v>
@@ -7595,16 +8779,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>416</v>
+      </c>
+      <c r="B25" t="s">
         <v>417</v>
-      </c>
-      <c r="B25" t="s">
-        <v>418</v>
       </c>
       <c r="C25" s="46">
         <v>280.450625</v>
       </c>
       <c r="D25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E25">
         <v>20</v>
@@ -7612,16 +8796,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>418</v>
+      </c>
+      <c r="B26" t="s">
         <v>419</v>
-      </c>
-      <c r="B26" t="s">
-        <v>420</v>
       </c>
       <c r="C26" s="46">
         <v>244.35124999999999</v>
       </c>
       <c r="D26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E26">
         <v>20</v>
@@ -7629,16 +8813,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>420</v>
+      </c>
+      <c r="B27" t="s">
         <v>421</v>
-      </c>
-      <c r="B27" t="s">
-        <v>422</v>
       </c>
       <c r="C27" s="46">
         <v>300.94187499999998</v>
       </c>
       <c r="D27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E27">
         <v>20</v>
@@ -7646,16 +8830,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>422</v>
+      </c>
+      <c r="B28" t="s">
         <v>423</v>
-      </c>
-      <c r="B28" t="s">
-        <v>424</v>
       </c>
       <c r="C28" s="46">
         <v>311.21187500000002</v>
       </c>
       <c r="D28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E28">
         <v>20</v>
@@ -7663,16 +8847,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>424</v>
+      </c>
+      <c r="B29" t="s">
         <v>425</v>
-      </c>
-      <c r="B29" t="s">
-        <v>426</v>
       </c>
       <c r="C29" s="46">
         <v>311.21187500000002</v>
       </c>
       <c r="D29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E29">
         <v>20</v>
@@ -7680,16 +8864,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>426</v>
+      </c>
+      <c r="B30" t="s">
         <v>427</v>
-      </c>
-      <c r="B30" t="s">
-        <v>428</v>
       </c>
       <c r="C30" s="46">
         <v>215.46687499999999</v>
       </c>
       <c r="D30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -7697,16 +8881,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>428</v>
+      </c>
+      <c r="B31" t="s">
         <v>429</v>
-      </c>
-      <c r="B31" t="s">
-        <v>430</v>
       </c>
       <c r="C31" s="46">
         <v>352.86874999999998</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>915</v>
       </c>
       <c r="E31">
         <v>20</v>
@@ -7714,16 +8898,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>430</v>
+      </c>
+      <c r="B32" t="s">
         <v>431</v>
-      </c>
-      <c r="B32" t="s">
-        <v>432</v>
       </c>
       <c r="C32" s="46">
         <v>250.68062499999999</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>915</v>
       </c>
       <c r="E32">
         <v>20</v>
@@ -7731,16 +8915,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>432</v>
+      </c>
+      <c r="B33" t="s">
         <v>433</v>
-      </c>
-      <c r="B33" t="s">
-        <v>434</v>
       </c>
       <c r="C33" s="46">
         <v>341.10374999999999</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>915</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -7748,16 +8932,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>434</v>
+      </c>
+      <c r="B34" t="s">
         <v>435</v>
-      </c>
-      <c r="B34" t="s">
-        <v>436</v>
       </c>
       <c r="C34" s="46">
         <v>283.765625</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>915</v>
       </c>
       <c r="E34">
         <v>20</v>
@@ -7765,16 +8949,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>436</v>
+      </c>
+      <c r="B35" t="s">
         <v>437</v>
-      </c>
-      <c r="B35" t="s">
-        <v>438</v>
       </c>
       <c r="C35" s="46">
         <v>317.78500000000003</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>915</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -7782,16 +8966,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>438</v>
+      </c>
+      <c r="B36" t="s">
         <v>439</v>
-      </c>
-      <c r="B36" t="s">
-        <v>440</v>
       </c>
       <c r="C36" s="46">
         <v>414.06625000000003</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>915</v>
       </c>
       <c r="E36">
         <v>20</v>
@@ -7799,16 +8983,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>440</v>
+      </c>
+      <c r="B37" t="s">
         <v>441</v>
-      </c>
-      <c r="B37" t="s">
-        <v>442</v>
       </c>
       <c r="C37" s="46">
         <v>267.08499999999998</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>915</v>
       </c>
       <c r="E37">
         <v>20</v>
@@ -7816,16 +9000,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>442</v>
+      </c>
+      <c r="B38" t="s">
         <v>443</v>
-      </c>
-      <c r="B38" t="s">
-        <v>444</v>
       </c>
       <c r="C38" s="46">
         <v>235.78749999999999</v>
       </c>
       <c r="D38" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E38">
         <v>20</v>
@@ -7833,16 +9017,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>445</v>
+      </c>
+      <c r="B39" t="s">
         <v>446</v>
-      </c>
-      <c r="B39" t="s">
-        <v>447</v>
       </c>
       <c r="C39" s="46">
         <v>91.206082606060605</v>
       </c>
       <c r="D39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E39">
         <v>20</v>
@@ -7858,7 +9042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -7888,16 +9072,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B2" t="s">
         <v>449</v>
-      </c>
-      <c r="B2" t="s">
-        <v>450</v>
       </c>
       <c r="C2" s="46">
         <v>424.56</v>
       </c>
       <c r="D2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -7905,16 +9089,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3" t="s">
         <v>452</v>
-      </c>
-      <c r="B3" t="s">
-        <v>453</v>
       </c>
       <c r="C3" s="46">
         <v>526.82000000000005</v>
       </c>
       <c r="D3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -7922,16 +9106,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B4" t="s">
         <v>454</v>
-      </c>
-      <c r="B4" t="s">
-        <v>455</v>
       </c>
       <c r="C4" s="46">
         <v>564</v>
       </c>
       <c r="D4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -7939,16 +9123,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B5" t="s">
         <v>456</v>
-      </c>
-      <c r="B5" t="s">
-        <v>457</v>
       </c>
       <c r="C5" s="46">
         <v>594.86</v>
       </c>
       <c r="D5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -7956,16 +9140,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B6" t="s">
         <v>458</v>
-      </c>
-      <c r="B6" t="s">
-        <v>459</v>
       </c>
       <c r="C6" s="46">
         <v>635.29999999999995</v>
       </c>
       <c r="D6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -7973,16 +9157,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B7" t="s">
         <v>460</v>
-      </c>
-      <c r="B7" t="s">
-        <v>461</v>
       </c>
       <c r="C7" s="46">
         <v>678.84</v>
       </c>
       <c r="D7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -7990,16 +9174,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>461</v>
+      </c>
+      <c r="B8" t="s">
         <v>462</v>
-      </c>
-      <c r="B8" t="s">
-        <v>463</v>
       </c>
       <c r="C8" s="46">
         <v>469.63</v>
       </c>
       <c r="D8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -8007,16 +9191,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B9" t="s">
         <v>464</v>
-      </c>
-      <c r="B9" t="s">
-        <v>465</v>
       </c>
       <c r="C9" s="46">
         <v>692.74</v>
       </c>
       <c r="D9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -8024,13 +9208,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C10" s="46">
         <v>424.56</v>
       </c>
       <c r="D10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -8038,13 +9222,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C11" s="46">
         <v>564</v>
       </c>
       <c r="D11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -8052,16 +9236,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>467</v>
+      </c>
+      <c r="B12" t="s">
         <v>468</v>
-      </c>
-      <c r="B12" t="s">
-        <v>469</v>
       </c>
       <c r="C12" s="46">
         <v>486.5</v>
       </c>
       <c r="D12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -8069,16 +9253,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>469</v>
+      </c>
+      <c r="B13" t="s">
         <v>470</v>
-      </c>
-      <c r="B13" t="s">
-        <v>471</v>
       </c>
       <c r="C13" s="46">
         <v>712.77</v>
       </c>
       <c r="D13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -8086,16 +9270,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B14" t="s">
         <v>472</v>
-      </c>
-      <c r="B14" t="s">
-        <v>473</v>
       </c>
       <c r="C14" s="46">
         <v>578.14220799999998</v>
       </c>
       <c r="D14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -8103,16 +9287,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>474</v>
+      </c>
+      <c r="B15" t="s">
         <v>475</v>
-      </c>
-      <c r="B15" t="s">
-        <v>476</v>
       </c>
       <c r="C15" s="46">
         <v>608.14745600000003</v>
       </c>
       <c r="D15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -8120,16 +9304,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>476</v>
+      </c>
+      <c r="B16" t="s">
         <v>477</v>
-      </c>
-      <c r="B16" t="s">
-        <v>478</v>
       </c>
       <c r="C16" s="46">
         <v>691.862528</v>
       </c>
       <c r="D16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -8137,16 +9321,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>478</v>
+      </c>
+      <c r="B17" t="s">
         <v>479</v>
-      </c>
-      <c r="B17" t="s">
-        <v>480</v>
       </c>
       <c r="C17" s="46">
         <v>785.61279999999999</v>
       </c>
       <c r="D17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -8154,16 +9338,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>480</v>
+      </c>
+      <c r="B18" t="s">
         <v>481</v>
-      </c>
-      <c r="B18" t="s">
-        <v>482</v>
       </c>
       <c r="C18" s="46">
         <v>879.37023999999997</v>
       </c>
       <c r="D18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -8171,16 +9355,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>482</v>
+      </c>
+      <c r="B19" t="s">
         <v>483</v>
-      </c>
-      <c r="B19" t="s">
-        <v>484</v>
       </c>
       <c r="C19" s="46">
         <v>973.12768000000005</v>
       </c>
       <c r="D19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -8188,16 +9372,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>484</v>
+      </c>
+      <c r="B20" t="s">
         <v>485</v>
-      </c>
-      <c r="B20" t="s">
-        <v>486</v>
       </c>
       <c r="C20" s="46">
         <v>1066.906624</v>
       </c>
       <c r="D20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -8205,16 +9389,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>486</v>
+      </c>
+      <c r="B21" t="s">
         <v>487</v>
-      </c>
-      <c r="B21" t="s">
-        <v>488</v>
       </c>
       <c r="C21" s="46">
         <v>1255.8694399999999</v>
       </c>
       <c r="D21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -8222,16 +9406,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>488</v>
+      </c>
+      <c r="B22" t="s">
         <v>489</v>
-      </c>
-      <c r="B22" t="s">
-        <v>490</v>
       </c>
       <c r="C22" s="46">
         <v>1336.8678399999999</v>
       </c>
       <c r="D22" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -8239,16 +9423,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>490</v>
+      </c>
+      <c r="B23" t="s">
         <v>491</v>
-      </c>
-      <c r="B23" t="s">
-        <v>492</v>
       </c>
       <c r="C23" s="46">
         <v>1446.6959360000001</v>
       </c>
       <c r="D23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E23">
         <v>10</v>
@@ -8256,16 +9440,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>492</v>
+      </c>
+      <c r="B24" t="s">
         <v>493</v>
-      </c>
-      <c r="B24" t="s">
-        <v>494</v>
       </c>
       <c r="C24" s="46">
         <v>1542.3672320000001</v>
       </c>
       <c r="D24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E24">
         <v>10</v>
@@ -8273,16 +9457,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>494</v>
+      </c>
+      <c r="B25" t="s">
         <v>495</v>
-      </c>
-      <c r="B25" t="s">
-        <v>496</v>
       </c>
       <c r="C25" s="46">
         <v>1734.290432</v>
       </c>
       <c r="D25" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E25">
         <v>10</v>
@@ -8290,16 +9474,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>496</v>
+      </c>
+      <c r="B26" t="s">
         <v>497</v>
-      </c>
-      <c r="B26" t="s">
-        <v>498</v>
       </c>
       <c r="C26" s="46">
         <v>834.88563199999999</v>
       </c>
       <c r="D26" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E26">
         <v>10</v>
@@ -8307,16 +9491,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>499</v>
+      </c>
+      <c r="B27" t="s">
         <v>500</v>
-      </c>
-      <c r="B27" t="s">
-        <v>501</v>
       </c>
       <c r="C27" s="46">
         <v>124.450816</v>
       </c>
       <c r="D27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E27">
         <v>20</v>
@@ -8324,16 +9508,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>502</v>
+      </c>
+      <c r="B28" t="s">
         <v>503</v>
-      </c>
-      <c r="B28" t="s">
-        <v>504</v>
       </c>
       <c r="C28" s="46">
         <v>124.450816</v>
       </c>
       <c r="D28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E28">
         <v>20</v>
@@ -8341,16 +9525,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>504</v>
+      </c>
+      <c r="B29" t="s">
         <v>505</v>
-      </c>
-      <c r="B29" t="s">
-        <v>506</v>
       </c>
       <c r="C29" s="46">
         <v>124.450816</v>
       </c>
       <c r="D29" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E29">
         <v>20</v>
@@ -8358,16 +9542,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>506</v>
+      </c>
+      <c r="B30" t="s">
         <v>507</v>
-      </c>
-      <c r="B30" t="s">
-        <v>508</v>
       </c>
       <c r="C30" s="46">
         <v>124.450816</v>
       </c>
       <c r="D30" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -8375,16 +9559,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>508</v>
+      </c>
+      <c r="B31" t="s">
         <v>509</v>
-      </c>
-      <c r="B31" t="s">
-        <v>510</v>
       </c>
       <c r="C31" s="46">
         <v>173.91718399999999</v>
       </c>
       <c r="D31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E31">
         <v>20</v>
@@ -8392,16 +9576,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>510</v>
+      </c>
+      <c r="B32" t="s">
         <v>511</v>
-      </c>
-      <c r="B32" t="s">
-        <v>512</v>
       </c>
       <c r="C32" s="46">
         <v>124.450816</v>
       </c>
       <c r="D32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E32">
         <v>20</v>
@@ -8409,16 +9593,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>512</v>
+      </c>
+      <c r="B33" t="s">
         <v>513</v>
-      </c>
-      <c r="B33" t="s">
-        <v>514</v>
       </c>
       <c r="C33" s="46">
         <v>124.450816</v>
       </c>
       <c r="D33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -8426,16 +9610,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>514</v>
+      </c>
+      <c r="B34" t="s">
         <v>515</v>
-      </c>
-      <c r="B34" t="s">
-        <v>516</v>
       </c>
       <c r="C34" s="46">
         <v>145.31686400000001</v>
       </c>
       <c r="D34" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E34">
         <v>20</v>
@@ -8443,16 +9627,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C35" s="46">
         <v>53.279744000000001</v>
       </c>
       <c r="D35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -8460,16 +9644,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>517</v>
+      </c>
+      <c r="B36" t="s">
         <v>518</v>
-      </c>
-      <c r="B36" t="s">
-        <v>519</v>
       </c>
       <c r="C36" s="46">
         <v>53.279744000000001</v>
       </c>
       <c r="D36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E36">
         <v>20</v>
@@ -8477,16 +9661,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>519</v>
+      </c>
+      <c r="B37" t="s">
         <v>520</v>
-      </c>
-      <c r="B37" t="s">
-        <v>521</v>
       </c>
       <c r="C37" s="46">
         <v>53.279744000000001</v>
       </c>
       <c r="D37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E37">
         <v>20</v>
@@ -8494,16 +9678,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>521</v>
+      </c>
+      <c r="B38" t="s">
         <v>522</v>
-      </c>
-      <c r="B38" t="s">
-        <v>523</v>
       </c>
       <c r="C38" s="46">
         <v>53.279744000000001</v>
       </c>
       <c r="D38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E38">
         <v>20</v>
@@ -8511,16 +9695,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>523</v>
+      </c>
+      <c r="B39" t="s">
         <v>524</v>
-      </c>
-      <c r="B39" t="s">
-        <v>525</v>
       </c>
       <c r="C39" s="46">
         <v>70.884352000000007</v>
       </c>
       <c r="D39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E39">
         <v>20</v>
@@ -8528,16 +9712,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>525</v>
+      </c>
+      <c r="B40" t="s">
         <v>526</v>
-      </c>
-      <c r="B40" t="s">
-        <v>527</v>
       </c>
       <c r="C40" s="46">
         <v>34.671616</v>
       </c>
       <c r="D40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E40">
         <v>20</v>
@@ -8545,16 +9729,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>527</v>
+      </c>
+      <c r="B41" t="s">
         <v>528</v>
-      </c>
-      <c r="B41" t="s">
-        <v>529</v>
       </c>
       <c r="C41" s="46">
         <v>63.18</v>
       </c>
       <c r="D41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E41">
         <v>20</v>
@@ -8562,16 +9746,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>529</v>
+      </c>
+      <c r="B42" t="s">
         <v>530</v>
-      </c>
-      <c r="B42" t="s">
-        <v>531</v>
       </c>
       <c r="C42" s="46">
         <v>489.276928</v>
       </c>
       <c r="D42" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E42">
         <v>10</v>
@@ -8579,16 +9763,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>531</v>
+      </c>
+      <c r="B43" t="s">
         <v>532</v>
-      </c>
-      <c r="B43" t="s">
-        <v>533</v>
       </c>
       <c r="C43" s="46">
         <v>519.28217600000005</v>
       </c>
       <c r="D43" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E43">
         <v>10</v>
@@ -8596,16 +9780,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>533</v>
+      </c>
+      <c r="B44" t="s">
         <v>534</v>
-      </c>
-      <c r="B44" t="s">
-        <v>535</v>
       </c>
       <c r="C44" s="46">
         <v>602.99724800000001</v>
       </c>
       <c r="D44" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E44">
         <v>10</v>
@@ -8613,16 +9797,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>535</v>
+      </c>
+      <c r="B45" t="s">
         <v>536</v>
-      </c>
-      <c r="B45" t="s">
-        <v>537</v>
       </c>
       <c r="C45" s="46">
         <v>696.74752000000001</v>
       </c>
       <c r="D45" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E45">
         <v>10</v>
@@ -8630,16 +9814,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>537</v>
+      </c>
+      <c r="B46" t="s">
         <v>538</v>
-      </c>
-      <c r="B46" t="s">
-        <v>539</v>
       </c>
       <c r="C46" s="46">
         <v>790.50495999999998</v>
       </c>
       <c r="D46" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E46">
         <v>10</v>
@@ -8647,16 +9831,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>539</v>
+      </c>
+      <c r="B47" t="s">
         <v>540</v>
-      </c>
-      <c r="B47" t="s">
-        <v>541</v>
       </c>
       <c r="C47" s="46">
         <v>884.26239999999996</v>
       </c>
       <c r="D47" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E47">
         <v>10</v>
@@ -8664,16 +9848,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>541</v>
+      </c>
+      <c r="B48" t="s">
         <v>542</v>
-      </c>
-      <c r="B48" t="s">
-        <v>543</v>
       </c>
       <c r="C48" s="46">
         <v>978.04134399999998</v>
       </c>
       <c r="D48" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E48">
         <v>10</v>
@@ -8681,16 +9865,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>543</v>
+      </c>
+      <c r="B49" t="s">
         <v>544</v>
-      </c>
-      <c r="B49" t="s">
-        <v>545</v>
       </c>
       <c r="C49" s="46">
         <v>1167.00416</v>
       </c>
       <c r="D49" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E49">
         <v>10</v>
@@ -8698,16 +9882,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>545</v>
+      </c>
+      <c r="B50" t="s">
         <v>546</v>
-      </c>
-      <c r="B50" t="s">
-        <v>547</v>
       </c>
       <c r="C50" s="46">
         <v>1357.8306560000001</v>
       </c>
       <c r="D50" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E50">
         <v>10</v>
@@ -8715,16 +9899,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>547</v>
+      </c>
+      <c r="B51" t="s">
         <v>548</v>
-      </c>
-      <c r="B51" t="s">
-        <v>549</v>
       </c>
       <c r="C51" s="46">
         <v>1645.425152</v>
       </c>
       <c r="D51" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E51">
         <v>10</v>
@@ -8740,7 +9924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -8769,16 +9953,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B2" t="s">
         <v>550</v>
-      </c>
-      <c r="B2" t="s">
-        <v>551</v>
       </c>
       <c r="C2" s="46">
         <v>11.37162</v>
       </c>
       <c r="D2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -8786,16 +9970,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B3" t="s">
         <v>553</v>
-      </c>
-      <c r="B3" t="s">
-        <v>554</v>
       </c>
       <c r="C3" s="46">
         <v>16.621279999999999</v>
       </c>
       <c r="D3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -8803,16 +9987,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B4" t="s">
         <v>555</v>
-      </c>
-      <c r="B4" t="s">
-        <v>556</v>
       </c>
       <c r="C4" s="46">
         <v>23.163530000000002</v>
       </c>
       <c r="D4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -8820,16 +10004,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B5" t="s">
         <v>557</v>
-      </c>
-      <c r="B5" t="s">
-        <v>558</v>
       </c>
       <c r="C5" s="46">
         <v>11.38748</v>
       </c>
       <c r="D5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -8837,16 +10021,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>559</v>
+      </c>
+      <c r="B6" t="s">
         <v>560</v>
-      </c>
-      <c r="B6" t="s">
-        <v>561</v>
       </c>
       <c r="C6" s="46">
         <v>17.961449999999999</v>
       </c>
       <c r="D6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -8854,16 +10038,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B7" t="s">
         <v>562</v>
-      </c>
-      <c r="B7" t="s">
-        <v>563</v>
       </c>
       <c r="C7" s="46">
         <v>25.16189</v>
       </c>
       <c r="D7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -8871,16 +10055,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>563</v>
+      </c>
+      <c r="B8" t="s">
         <v>564</v>
-      </c>
-      <c r="B8" t="s">
-        <v>565</v>
       </c>
       <c r="C8" s="46">
         <v>23.34592</v>
       </c>
       <c r="D8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -8888,16 +10072,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B9" t="s">
         <v>566</v>
-      </c>
-      <c r="B9" t="s">
-        <v>567</v>
       </c>
       <c r="C9" s="46">
         <v>32.90157</v>
       </c>
       <c r="D9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -8905,16 +10089,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B10" t="s">
         <v>568</v>
-      </c>
-      <c r="B10" t="s">
-        <v>569</v>
       </c>
       <c r="C10" s="46">
         <v>41.711799999999997</v>
       </c>
       <c r="D10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -8922,10 +10106,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>569</v>
+      </c>
+      <c r="B11" t="s">
         <v>570</v>
-      </c>
-      <c r="B11" t="s">
-        <v>571</v>
       </c>
       <c r="C11" s="46">
         <v>22.814609999999998</v>
@@ -8939,10 +10123,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>571</v>
+      </c>
+      <c r="B12" t="s">
         <v>572</v>
-      </c>
-      <c r="B12" t="s">
-        <v>573</v>
       </c>
       <c r="C12" s="46">
         <v>30.26088</v>
@@ -8956,10 +10140,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>573</v>
+      </c>
+      <c r="B13" t="s">
         <v>574</v>
-      </c>
-      <c r="B13" t="s">
-        <v>575</v>
       </c>
       <c r="C13" s="46">
         <v>45.121699999999997</v>
@@ -8973,10 +10157,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>575</v>
+      </c>
+      <c r="B14" t="s">
         <v>576</v>
-      </c>
-      <c r="B14" t="s">
-        <v>577</v>
       </c>
       <c r="C14" s="46">
         <v>35.938760000000002</v>
@@ -8990,10 +10174,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>577</v>
+      </c>
+      <c r="B15" t="s">
         <v>578</v>
-      </c>
-      <c r="B15" t="s">
-        <v>579</v>
       </c>
       <c r="C15" s="46">
         <v>56.92154</v>
@@ -9007,10 +10191,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>579</v>
+      </c>
+      <c r="B16" t="s">
         <v>580</v>
-      </c>
-      <c r="B16" t="s">
-        <v>581</v>
       </c>
       <c r="C16" s="46">
         <v>74.391329999999996</v>
@@ -9024,10 +10208,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>581</v>
+      </c>
+      <c r="B17" t="s">
         <v>582</v>
-      </c>
-      <c r="B17" t="s">
-        <v>583</v>
       </c>
       <c r="C17" s="46">
         <v>26.89856</v>
@@ -9041,10 +10225,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>583</v>
+      </c>
+      <c r="B18" t="s">
         <v>584</v>
-      </c>
-      <c r="B18" t="s">
-        <v>585</v>
       </c>
       <c r="C18" s="46">
         <v>39.142479999999999</v>
@@ -9058,10 +10242,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>585</v>
+      </c>
+      <c r="B19" t="s">
         <v>586</v>
-      </c>
-      <c r="B19" t="s">
-        <v>587</v>
       </c>
       <c r="C19" s="46">
         <v>74.518209999999996</v>
@@ -9075,16 +10259,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>587</v>
+      </c>
+      <c r="B20" t="s">
         <v>588</v>
-      </c>
-      <c r="B20" t="s">
-        <v>589</v>
       </c>
       <c r="C20" s="46">
         <v>28.183219999999999</v>
       </c>
       <c r="D20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -9092,16 +10276,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>589</v>
+      </c>
+      <c r="B21" t="s">
         <v>590</v>
-      </c>
-      <c r="B21" t="s">
-        <v>591</v>
       </c>
       <c r="C21" s="46">
         <v>20.372170000000001</v>
       </c>
       <c r="D21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -9109,16 +10293,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>591</v>
+      </c>
+      <c r="B22" t="s">
         <v>592</v>
-      </c>
-      <c r="B22" t="s">
-        <v>593</v>
       </c>
       <c r="C22" s="46">
         <v>21.38721</v>
       </c>
       <c r="D22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -9126,16 +10310,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>593</v>
+      </c>
+      <c r="B23" t="s">
         <v>594</v>
-      </c>
-      <c r="B23" t="s">
-        <v>595</v>
       </c>
       <c r="C23" s="46">
         <v>28.611440000000002</v>
       </c>
       <c r="D23" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -9143,16 +10327,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>595</v>
+      </c>
+      <c r="B24" t="s">
         <v>596</v>
-      </c>
-      <c r="B24" t="s">
-        <v>597</v>
       </c>
       <c r="C24" s="46">
         <v>28.611440000000002</v>
       </c>
       <c r="D24" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E24">
         <v>20</v>
@@ -9160,16 +10344,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>597</v>
+      </c>
+      <c r="B25" t="s">
         <v>598</v>
-      </c>
-      <c r="B25" t="s">
-        <v>599</v>
       </c>
       <c r="C25" s="46">
         <v>35.819809999999997</v>
       </c>
       <c r="D25" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E25">
         <v>20</v>
@@ -9177,16 +10361,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>599</v>
+      </c>
+      <c r="B26" t="s">
         <v>600</v>
-      </c>
-      <c r="B26" t="s">
-        <v>601</v>
       </c>
       <c r="C26" s="46">
         <v>41.172559999999997</v>
       </c>
       <c r="D26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E26">
         <v>20</v>
@@ -9194,16 +10378,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>601</v>
+      </c>
+      <c r="B27" t="s">
         <v>602</v>
-      </c>
-      <c r="B27" t="s">
-        <v>603</v>
       </c>
       <c r="C27" s="46">
         <v>41.172559999999997</v>
       </c>
       <c r="D27" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E27">
         <v>20</v>
@@ -9211,16 +10395,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>603</v>
+      </c>
+      <c r="B28" t="s">
         <v>604</v>
-      </c>
-      <c r="B28" t="s">
-        <v>605</v>
       </c>
       <c r="C28" s="46">
         <v>41.172559999999997</v>
       </c>
       <c r="D28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E28">
         <v>20</v>
@@ -9228,16 +10412,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>605</v>
+      </c>
+      <c r="B29" t="s">
         <v>606</v>
-      </c>
-      <c r="B29" t="s">
-        <v>607</v>
       </c>
       <c r="C29" s="46">
         <v>41.172559999999997</v>
       </c>
       <c r="D29" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E29">
         <v>20</v>
@@ -9245,16 +10429,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>607</v>
+      </c>
+      <c r="B30" t="s">
         <v>608</v>
-      </c>
-      <c r="B30" t="s">
-        <v>609</v>
       </c>
       <c r="C30" s="46">
         <v>41.172559999999997</v>
       </c>
       <c r="D30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -9262,16 +10446,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>609</v>
+      </c>
+      <c r="B31" t="s">
         <v>610</v>
-      </c>
-      <c r="B31" t="s">
-        <v>611</v>
       </c>
       <c r="C31" s="46">
         <v>19.341270000000002</v>
       </c>
       <c r="D31" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E31">
         <v>20</v>
@@ -9279,16 +10463,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>612</v>
+      </c>
+      <c r="B32" t="s">
         <v>613</v>
-      </c>
-      <c r="B32" t="s">
-        <v>614</v>
       </c>
       <c r="C32" s="46">
         <v>25.621829999999999</v>
       </c>
       <c r="D32" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E32">
         <v>20</v>
@@ -9296,16 +10480,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>614</v>
+      </c>
+      <c r="B33" t="s">
         <v>615</v>
-      </c>
-      <c r="B33" t="s">
-        <v>616</v>
       </c>
       <c r="C33" s="46">
         <v>25.621829999999999</v>
       </c>
       <c r="D33" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -9313,16 +10497,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>616</v>
+      </c>
+      <c r="B34" t="s">
         <v>617</v>
-      </c>
-      <c r="B34" t="s">
-        <v>618</v>
       </c>
       <c r="C34" s="46">
         <v>33.028449999999999</v>
       </c>
       <c r="D34" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E34">
         <v>20</v>
@@ -9330,16 +10514,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>618</v>
+      </c>
+      <c r="B35" t="s">
         <v>619</v>
-      </c>
-      <c r="B35" t="s">
-        <v>620</v>
       </c>
       <c r="C35" s="46">
         <v>42.599960000000003</v>
       </c>
       <c r="D35" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -9347,16 +10531,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>620</v>
+      </c>
+      <c r="B36" t="s">
         <v>621</v>
-      </c>
-      <c r="B36" t="s">
-        <v>622</v>
       </c>
       <c r="C36" s="46">
         <v>71.044870000000003</v>
       </c>
       <c r="D36" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E36">
         <v>20</v>
@@ -9364,16 +10548,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>622</v>
+      </c>
+      <c r="B37" t="s">
         <v>623</v>
-      </c>
-      <c r="B37" t="s">
-        <v>624</v>
       </c>
       <c r="C37" s="46">
         <v>59.808059999999998</v>
       </c>
       <c r="D37" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E37">
         <v>20</v>
@@ -9381,16 +10565,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>624</v>
+      </c>
+      <c r="B38" t="s">
         <v>625</v>
-      </c>
-      <c r="B38" t="s">
-        <v>626</v>
       </c>
       <c r="C38" s="46">
         <v>69.466800000000006</v>
       </c>
       <c r="D38" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E38">
         <v>20</v>
@@ -9398,16 +10582,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>626</v>
+      </c>
+      <c r="B39" t="s">
         <v>627</v>
-      </c>
-      <c r="B39" t="s">
-        <v>628</v>
       </c>
       <c r="C39" s="46">
         <v>91.964209999999994</v>
       </c>
       <c r="D39" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E39">
         <v>20</v>
@@ -9415,16 +10599,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>628</v>
+      </c>
+      <c r="B40" t="s">
         <v>629</v>
-      </c>
-      <c r="B40" t="s">
-        <v>630</v>
       </c>
       <c r="C40" s="46">
         <v>55.51793</v>
       </c>
       <c r="D40" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E40">
         <v>20</v>
@@ -9432,16 +10616,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>630</v>
+      </c>
+      <c r="B41" t="s">
         <v>631</v>
-      </c>
-      <c r="B41" t="s">
-        <v>632</v>
       </c>
       <c r="C41" s="46">
         <v>65.715909999999994</v>
       </c>
       <c r="D41" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E41">
         <v>20</v>
@@ -9449,16 +10633,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>632</v>
+      </c>
+      <c r="B42" t="s">
         <v>633</v>
-      </c>
-      <c r="B42" t="s">
-        <v>634</v>
       </c>
       <c r="C42" s="46">
         <v>93.700879999999998</v>
       </c>
       <c r="D42" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E42">
         <v>20</v>
@@ -9504,16 +10688,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B2" t="s">
         <v>635</v>
-      </c>
-      <c r="B2" t="s">
-        <v>636</v>
       </c>
       <c r="C2" s="46">
         <v>20.553750000000001</v>
       </c>
       <c r="D2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -9521,10 +10705,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B3" t="s">
         <v>638</v>
-      </c>
-      <c r="B3" t="s">
-        <v>639</v>
       </c>
       <c r="C3" s="46">
         <v>21.853124999999999</v>
@@ -9538,10 +10722,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B4" t="s">
         <v>640</v>
-      </c>
-      <c r="B4" t="s">
-        <v>641</v>
       </c>
       <c r="C4" s="46">
         <v>30.791250000000002</v>
@@ -9555,10 +10739,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B5" t="s">
         <v>642</v>
-      </c>
-      <c r="B5" t="s">
-        <v>643</v>
       </c>
       <c r="C5" s="46">
         <v>54.022500000000001</v>
@@ -9572,10 +10756,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B6" t="s">
         <v>644</v>
-      </c>
-      <c r="B6" t="s">
-        <v>645</v>
       </c>
       <c r="C6" s="46">
         <v>35.316000000000003</v>
@@ -9589,10 +10773,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>645</v>
+      </c>
+      <c r="B7" t="s">
         <v>646</v>
-      </c>
-      <c r="B7" t="s">
-        <v>647</v>
       </c>
       <c r="C7" s="46">
         <v>55.902000000000001</v>
@@ -9606,10 +10790,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>647</v>
+      </c>
+      <c r="B8" t="s">
         <v>648</v>
-      </c>
-      <c r="B8" t="s">
-        <v>649</v>
       </c>
       <c r="C8" s="46">
         <v>38.137500000000003</v>
@@ -9623,10 +10807,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B9" t="s">
         <v>650</v>
-      </c>
-      <c r="B9" t="s">
-        <v>651</v>
       </c>
       <c r="C9" s="46">
         <v>84.72</v>
@@ -9640,10 +10824,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>651</v>
+      </c>
+      <c r="B10" t="s">
         <v>652</v>
-      </c>
-      <c r="B10" t="s">
-        <v>653</v>
       </c>
       <c r="C10" s="46">
         <v>66.724999999999994</v>
@@ -9657,10 +10841,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>653</v>
+      </c>
+      <c r="B11" t="s">
         <v>654</v>
-      </c>
-      <c r="B11" t="s">
-        <v>655</v>
       </c>
       <c r="C11" s="46">
         <v>19.13625</v>
@@ -9674,10 +10858,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>655</v>
+      </c>
+      <c r="B12" t="s">
         <v>656</v>
-      </c>
-      <c r="B12" t="s">
-        <v>657</v>
       </c>
       <c r="C12" s="46">
         <v>24.215624999999999</v>
@@ -9691,10 +10875,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>657</v>
+      </c>
+      <c r="B13" t="s">
         <v>658</v>
-      </c>
-      <c r="B13" t="s">
-        <v>659</v>
       </c>
       <c r="C13" s="46">
         <v>31.303125000000001</v>
@@ -9708,10 +10892,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>659</v>
+      </c>
+      <c r="B14" t="s">
         <v>660</v>
-      </c>
-      <c r="B14" t="s">
-        <v>661</v>
       </c>
       <c r="C14" s="46">
         <v>23.270624999999999</v>
@@ -9725,10 +10909,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>661</v>
+      </c>
+      <c r="B15" t="s">
         <v>662</v>
-      </c>
-      <c r="B15" t="s">
-        <v>663</v>
       </c>
       <c r="C15" s="46">
         <v>34.825000000000003</v>
@@ -9742,10 +10926,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>663</v>
+      </c>
+      <c r="B16" t="s">
         <v>664</v>
-      </c>
-      <c r="B16" t="s">
-        <v>665</v>
       </c>
       <c r="C16" s="46">
         <v>29.570625</v>
@@ -9759,16 +10943,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>665</v>
+      </c>
+      <c r="B17" t="s">
         <v>666</v>
-      </c>
-      <c r="B17" t="s">
-        <v>667</v>
       </c>
       <c r="C17" s="46">
         <v>95.1</v>
       </c>
       <c r="D17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E17">
         <v>20</v>
@@ -9776,16 +10960,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>668</v>
+      </c>
+      <c r="B18" t="s">
         <v>669</v>
-      </c>
-      <c r="B18" t="s">
-        <v>670</v>
       </c>
       <c r="C18" s="46">
         <v>123.625</v>
       </c>
       <c r="D18" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E18">
         <v>20</v>
@@ -9793,16 +10977,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>670</v>
+      </c>
+      <c r="B19" t="s">
         <v>671</v>
-      </c>
-      <c r="B19" t="s">
-        <v>672</v>
       </c>
       <c r="C19" s="46">
         <v>27.641249999999999</v>
       </c>
       <c r="D19" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E19">
         <v>20</v>
@@ -9810,16 +10994,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>672</v>
+      </c>
+      <c r="B20" t="s">
         <v>673</v>
-      </c>
-      <c r="B20" t="s">
-        <v>674</v>
       </c>
       <c r="C20" s="46">
         <v>35.909999999999997</v>
       </c>
       <c r="D20" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -9827,16 +11011,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>674</v>
+      </c>
+      <c r="B21" t="s">
         <v>675</v>
-      </c>
-      <c r="B21" t="s">
-        <v>676</v>
       </c>
       <c r="C21" s="46">
         <v>63.590625000000003</v>
       </c>
       <c r="D21" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -9844,16 +11028,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>676</v>
+      </c>
+      <c r="B22" t="s">
         <v>677</v>
-      </c>
-      <c r="B22" t="s">
-        <v>678</v>
       </c>
       <c r="C22" s="46">
         <v>49.887500000000003</v>
       </c>
       <c r="D22" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -9861,16 +11045,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>678</v>
+      </c>
+      <c r="B23" t="s">
         <v>679</v>
-      </c>
-      <c r="B23" t="s">
-        <v>680</v>
       </c>
       <c r="C23" s="46">
         <v>107.652</v>
       </c>
       <c r="D23" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -9878,16 +11062,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>680</v>
+      </c>
+      <c r="B24" t="s">
         <v>681</v>
-      </c>
-      <c r="B24" t="s">
-        <v>682</v>
       </c>
       <c r="C24" s="46">
         <v>81.125</v>
       </c>
       <c r="D24" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E24">
         <v>20</v>
@@ -9895,10 +11079,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>682</v>
+      </c>
+      <c r="B25" t="s">
         <v>683</v>
-      </c>
-      <c r="B25" t="s">
-        <v>684</v>
       </c>
       <c r="C25" s="46">
         <v>17.994375000000002</v>
@@ -9912,10 +11096,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>684</v>
+      </c>
+      <c r="B26" t="s">
         <v>685</v>
-      </c>
-      <c r="B26" t="s">
-        <v>686</v>
       </c>
       <c r="C26" s="46">
         <v>21.498750000000001</v>
@@ -9929,10 +11113,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>686</v>
+      </c>
+      <c r="B27" t="s">
         <v>687</v>
-      </c>
-      <c r="B27" t="s">
-        <v>688</v>
       </c>
       <c r="C27" s="46">
         <v>29.295000000000002</v>
@@ -9946,16 +11130,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>688</v>
+      </c>
+      <c r="B28" t="s">
         <v>689</v>
-      </c>
-      <c r="B28" t="s">
-        <v>690</v>
       </c>
       <c r="C28" s="46">
         <v>122.58750000000001</v>
       </c>
       <c r="D28" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E28">
         <v>20</v>
@@ -9963,16 +11147,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>691</v>
+      </c>
+      <c r="B29" t="s">
         <v>692</v>
-      </c>
-      <c r="B29" t="s">
-        <v>693</v>
       </c>
       <c r="C29" s="46">
         <v>131.9375</v>
       </c>
       <c r="D29" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E29">
         <v>20</v>
@@ -9980,16 +11164,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>693</v>
+      </c>
+      <c r="B30" t="s">
         <v>694</v>
-      </c>
-      <c r="B30" t="s">
-        <v>695</v>
       </c>
       <c r="C30" s="46">
         <v>188.55</v>
       </c>
       <c r="D30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -9997,16 +11181,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>695</v>
+      </c>
+      <c r="B31" t="s">
         <v>696</v>
-      </c>
-      <c r="B31" t="s">
-        <v>697</v>
       </c>
       <c r="C31" s="46">
         <v>180.97499999999999</v>
       </c>
       <c r="D31" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E31">
         <v>20</v>
@@ -10014,16 +11198,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>698</v>
+      </c>
+      <c r="B32" t="s">
         <v>699</v>
-      </c>
-      <c r="B32" t="s">
-        <v>700</v>
       </c>
       <c r="C32" s="46">
         <v>247.536</v>
       </c>
       <c r="D32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E32">
         <v>20</v>
@@ -10031,16 +11215,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>700</v>
+      </c>
+      <c r="B33" t="s">
         <v>701</v>
-      </c>
-      <c r="B33" t="s">
-        <v>702</v>
       </c>
       <c r="C33" s="46">
         <v>396.23399999999998</v>
       </c>
       <c r="D33" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -10048,14 +11232,14 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>702</v>
+      </c>
+      <c r="B34" t="s">
         <v>703</v>
-      </c>
-      <c r="B34" t="s">
-        <v>704</v>
       </c>
       <c r="C34" s="46"/>
       <c r="D34" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E34">
         <v>20</v>
@@ -10063,16 +11247,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>705</v>
+      </c>
+      <c r="B35" t="s">
         <v>706</v>
-      </c>
-      <c r="B35" t="s">
-        <v>707</v>
       </c>
       <c r="C35" s="46">
         <v>244.91249999999999</v>
       </c>
       <c r="D35" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -10080,16 +11264,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>707</v>
+      </c>
+      <c r="B36" t="s">
         <v>708</v>
-      </c>
-      <c r="B36" t="s">
-        <v>709</v>
       </c>
       <c r="C36" s="46">
         <v>343.58625000000001</v>
       </c>
       <c r="D36" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E36">
         <v>20</v>
@@ -10097,16 +11281,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>709</v>
+      </c>
+      <c r="B37" t="s">
         <v>710</v>
-      </c>
-      <c r="B37" t="s">
-        <v>711</v>
       </c>
       <c r="C37" s="46">
         <v>257.67</v>
       </c>
       <c r="D37" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E37">
         <v>20</v>
@@ -10114,16 +11298,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>711</v>
+      </c>
+      <c r="B38" t="s">
         <v>712</v>
-      </c>
-      <c r="B38" t="s">
-        <v>713</v>
       </c>
       <c r="C38" s="46">
         <v>344.13749999999999</v>
       </c>
       <c r="D38" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E38">
         <v>20</v>
@@ -10131,16 +11315,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>713</v>
+      </c>
+      <c r="B39" t="s">
         <v>714</v>
-      </c>
-      <c r="B39" t="s">
-        <v>715</v>
       </c>
       <c r="C39" s="46">
         <v>679.8</v>
       </c>
       <c r="D39" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E39">
         <v>20</v>
@@ -10148,16 +11332,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>715</v>
+      </c>
+      <c r="B40" t="s">
         <v>716</v>
-      </c>
-      <c r="B40" t="s">
-        <v>717</v>
       </c>
       <c r="C40" s="46">
         <v>336.10500000000002</v>
       </c>
       <c r="D40" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E40">
         <v>20</v>
@@ -10165,16 +11349,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>717</v>
+      </c>
+      <c r="B41" t="s">
         <v>718</v>
-      </c>
-      <c r="B41" t="s">
-        <v>719</v>
       </c>
       <c r="C41" s="46">
         <v>455.450625</v>
       </c>
       <c r="D41" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E41">
         <v>20</v>
@@ -10182,16 +11366,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>719</v>
+      </c>
+      <c r="B42" t="s">
         <v>720</v>
-      </c>
-      <c r="B42" t="s">
-        <v>721</v>
       </c>
       <c r="C42" s="46">
         <v>343.50749999999999</v>
       </c>
       <c r="D42" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E42">
         <v>20</v>
@@ -10199,16 +11383,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>721</v>
+      </c>
+      <c r="B43" t="s">
         <v>722</v>
-      </c>
-      <c r="B43" t="s">
-        <v>723</v>
       </c>
       <c r="C43" s="46">
         <v>456.12</v>
       </c>
       <c r="D43" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E43">
         <v>20</v>
@@ -10216,16 +11400,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>723</v>
+      </c>
+      <c r="B44" t="s">
         <v>724</v>
-      </c>
-      <c r="B44" t="s">
-        <v>725</v>
       </c>
       <c r="C44" s="46">
         <v>776.91600000000005</v>
       </c>
       <c r="D44" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E44">
         <v>20</v>
@@ -10233,16 +11417,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>725</v>
+      </c>
+      <c r="B45" t="s">
         <v>726</v>
-      </c>
-      <c r="B45" t="s">
-        <v>727</v>
       </c>
       <c r="C45" s="46">
         <v>874.03200000000004</v>
       </c>
       <c r="D45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E45">
         <v>20</v>
@@ -10250,16 +11434,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>727</v>
+      </c>
+      <c r="B46" t="s">
         <v>728</v>
-      </c>
-      <c r="B46" t="s">
-        <v>729</v>
       </c>
       <c r="C46" s="46">
         <v>251.37</v>
       </c>
       <c r="D46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E46">
         <v>20</v>
@@ -10267,16 +11451,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>730</v>
+      </c>
+      <c r="B47" t="s">
         <v>731</v>
-      </c>
-      <c r="B47" t="s">
-        <v>732</v>
       </c>
       <c r="C47" s="46">
         <v>412.73399999999998</v>
       </c>
       <c r="D47" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E47">
         <v>20</v>
@@ -10284,16 +11468,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>732</v>
+      </c>
+      <c r="B48" t="s">
         <v>733</v>
-      </c>
-      <c r="B48" t="s">
-        <v>734</v>
       </c>
       <c r="C48" s="46">
         <v>278.22375</v>
       </c>
       <c r="D48" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E48">
         <v>20</v>
@@ -10301,16 +11485,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>734</v>
+      </c>
+      <c r="B49" t="s">
         <v>735</v>
-      </c>
-      <c r="B49" t="s">
-        <v>736</v>
       </c>
       <c r="C49" s="46">
         <v>410.59998000000002</v>
       </c>
       <c r="D49" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E49">
         <v>20</v>
@@ -10318,16 +11502,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>736</v>
+      </c>
+      <c r="B50" t="s">
         <v>737</v>
-      </c>
-      <c r="B50" t="s">
-        <v>738</v>
       </c>
       <c r="C50" s="46">
         <v>576.78750000000002</v>
       </c>
       <c r="D50" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E50">
         <v>20</v>
@@ -10335,16 +11519,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>738</v>
+      </c>
+      <c r="B51" t="s">
         <v>739</v>
-      </c>
-      <c r="B51" t="s">
-        <v>740</v>
       </c>
       <c r="C51" s="46">
         <v>812.21400000000006</v>
       </c>
       <c r="D51" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E51">
         <v>20</v>
@@ -10352,16 +11536,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>740</v>
+      </c>
+      <c r="B52" t="s">
         <v>741</v>
-      </c>
-      <c r="B52" t="s">
-        <v>742</v>
       </c>
       <c r="C52" s="46">
         <v>343.82249999999999</v>
       </c>
       <c r="D52" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E52">
         <v>20</v>
@@ -10369,16 +11553,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>742</v>
+      </c>
+      <c r="B53" t="s">
         <v>743</v>
-      </c>
-      <c r="B53" t="s">
-        <v>744</v>
       </c>
       <c r="C53" s="46">
         <v>534.12599999999998</v>
       </c>
       <c r="D53" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E53">
         <v>20</v>
@@ -10386,16 +11570,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>744</v>
+      </c>
+      <c r="B54" t="s">
         <v>745</v>
-      </c>
-      <c r="B54" t="s">
-        <v>746</v>
       </c>
       <c r="C54" s="46">
         <v>363.66750000000002</v>
       </c>
       <c r="D54" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E54">
         <v>20</v>
@@ -10403,16 +11587,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>746</v>
+      </c>
+      <c r="B55" t="s">
         <v>747</v>
-      </c>
-      <c r="B55" t="s">
-        <v>748</v>
       </c>
       <c r="C55" s="46">
         <v>527.00911199999996</v>
       </c>
       <c r="D55" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E55">
         <v>20</v>
@@ -10420,16 +11604,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>748</v>
+      </c>
+      <c r="B56" t="s">
         <v>749</v>
-      </c>
-      <c r="B56" t="s">
-        <v>750</v>
       </c>
       <c r="C56" s="46">
         <v>874.03200000000004</v>
       </c>
       <c r="D56" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E56">
         <v>20</v>
@@ -10437,16 +11621,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>750</v>
+      </c>
+      <c r="B57" t="s">
         <v>751</v>
-      </c>
-      <c r="B57" t="s">
-        <v>752</v>
       </c>
       <c r="C57" s="46">
         <v>285.46875</v>
       </c>
       <c r="D57" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E57">
         <v>20</v>
@@ -10454,16 +11638,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>752</v>
+      </c>
+      <c r="B58" t="s">
         <v>753</v>
-      </c>
-      <c r="B58" t="s">
-        <v>754</v>
       </c>
       <c r="C58" s="46">
         <v>427.30799999999999</v>
       </c>
       <c r="D58" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E58">
         <v>20</v>
@@ -10471,16 +11655,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>754</v>
+      </c>
+      <c r="B59" t="s">
         <v>755</v>
-      </c>
-      <c r="B59" t="s">
-        <v>756</v>
       </c>
       <c r="C59" s="46">
         <v>558.40200000000004</v>
       </c>
       <c r="D59" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E59">
         <v>20</v>
@@ -10488,16 +11672,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>756</v>
+      </c>
+      <c r="B60" t="s">
         <v>757</v>
-      </c>
-      <c r="B60" t="s">
-        <v>758</v>
       </c>
       <c r="C60" s="46">
         <v>236.51352</v>
       </c>
       <c r="D60" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E60">
         <v>20</v>
@@ -10505,16 +11689,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>758</v>
+      </c>
+      <c r="B61" t="s">
         <v>759</v>
-      </c>
-      <c r="B61" t="s">
-        <v>760</v>
       </c>
       <c r="C61" s="46">
         <v>376.11</v>
       </c>
       <c r="D61" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E61">
         <v>20</v>
@@ -10522,16 +11706,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B62" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C62" s="46">
         <v>534.01800000000003</v>
       </c>
       <c r="D62" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E62">
         <v>20</v>
@@ -10539,16 +11723,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>761</v>
+      </c>
+      <c r="B63" t="s">
         <v>762</v>
-      </c>
-      <c r="B63" t="s">
-        <v>763</v>
       </c>
       <c r="C63" s="46">
         <v>631.24800000000005</v>
       </c>
       <c r="D63" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E63">
         <v>20</v>
@@ -10556,16 +11740,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>763</v>
+      </c>
+      <c r="B64" t="s">
         <v>764</v>
-      </c>
-      <c r="B64" t="s">
-        <v>765</v>
       </c>
       <c r="C64" s="46">
         <v>1866.6</v>
       </c>
       <c r="D64" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E64">
         <v>10</v>
@@ -10573,16 +11757,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>766</v>
+      </c>
+      <c r="B65" t="s">
         <v>767</v>
-      </c>
-      <c r="B65" t="s">
-        <v>768</v>
       </c>
       <c r="C65" s="46">
         <v>2049.6</v>
       </c>
       <c r="D65" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E65">
         <v>10</v>
@@ -10590,16 +11774,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>768</v>
+      </c>
+      <c r="B66" t="s">
         <v>769</v>
-      </c>
-      <c r="B66" t="s">
-        <v>770</v>
       </c>
       <c r="C66" s="46">
         <v>2232.6</v>
       </c>
       <c r="D66" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E66">
         <v>10</v>
@@ -10607,16 +11791,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>770</v>
+      </c>
+      <c r="B67" t="s">
         <v>771</v>
-      </c>
-      <c r="B67" t="s">
-        <v>772</v>
       </c>
       <c r="C67" s="46">
         <v>414.8</v>
       </c>
       <c r="D67" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E67">
         <v>10</v>
@@ -10624,16 +11808,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>772</v>
+      </c>
+      <c r="B68" t="s">
         <v>773</v>
-      </c>
-      <c r="B68" t="s">
-        <v>774</v>
       </c>
       <c r="C68" s="46">
         <v>646.6</v>
       </c>
       <c r="D68" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E68">
         <v>10</v>
@@ -10641,16 +11825,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>774</v>
+      </c>
+      <c r="B69" t="s">
         <v>775</v>
-      </c>
-      <c r="B69" t="s">
-        <v>776</v>
       </c>
       <c r="C69" s="46">
         <v>976</v>
       </c>
       <c r="D69" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E69">
         <v>10</v>
@@ -10658,16 +11842,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>776</v>
+      </c>
+      <c r="B70" t="s">
         <v>777</v>
-      </c>
-      <c r="B70" t="s">
-        <v>778</v>
       </c>
       <c r="C70" s="46">
         <v>1476.2</v>
       </c>
       <c r="D70" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E70">
         <v>10</v>
@@ -10712,10 +11896,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2" t="s">
         <v>780</v>
-      </c>
-      <c r="B2" t="s">
-        <v>781</v>
       </c>
       <c r="C2" s="46">
         <v>27.083549999999999</v>
@@ -10729,10 +11913,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B3" t="s">
         <v>782</v>
-      </c>
-      <c r="B3" t="s">
-        <v>783</v>
       </c>
       <c r="C3" s="46">
         <v>44.410600000000002</v>
@@ -10746,10 +11930,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>783</v>
+      </c>
+      <c r="B4" t="s">
         <v>784</v>
-      </c>
-      <c r="B4" t="s">
-        <v>785</v>
       </c>
       <c r="C4" s="46">
         <v>72.432749999999999</v>
@@ -10763,10 +11947,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>785</v>
+      </c>
+      <c r="B5" t="s">
         <v>786</v>
-      </c>
-      <c r="B5" t="s">
-        <v>787</v>
       </c>
       <c r="C5" s="46">
         <v>28.973099999999999</v>
@@ -10780,10 +11964,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>787</v>
+      </c>
+      <c r="B6" t="s">
         <v>788</v>
-      </c>
-      <c r="B6" t="s">
-        <v>789</v>
       </c>
       <c r="C6" s="46">
         <v>44.089500000000001</v>
@@ -10797,10 +11981,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>789</v>
+      </c>
+      <c r="B7" t="s">
         <v>790</v>
-      </c>
-      <c r="B7" t="s">
-        <v>791</v>
       </c>
       <c r="C7" s="46">
         <v>27.7134</v>
@@ -10814,10 +11998,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>791</v>
+      </c>
+      <c r="B8" t="s">
         <v>792</v>
-      </c>
-      <c r="B8" t="s">
-        <v>793</v>
       </c>
       <c r="C8" s="46">
         <v>40.310400000000001</v>
@@ -10831,10 +12015,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>793</v>
+      </c>
+      <c r="B9" t="s">
         <v>794</v>
-      </c>
-      <c r="B9" t="s">
-        <v>795</v>
       </c>
       <c r="C9" s="46">
         <v>62.984999999999999</v>
@@ -10848,10 +12032,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>795</v>
+      </c>
+      <c r="B10" t="s">
         <v>796</v>
-      </c>
-      <c r="B10" t="s">
-        <v>797</v>
       </c>
       <c r="C10" s="46">
         <v>37.790999999999997</v>
@@ -10865,16 +12049,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>797</v>
+      </c>
+      <c r="B11" t="s">
         <v>798</v>
-      </c>
-      <c r="B11" t="s">
-        <v>799</v>
       </c>
       <c r="C11" s="46">
         <v>62.984999999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -10882,16 +12066,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>799</v>
+      </c>
+      <c r="B12" t="s">
         <v>800</v>
-      </c>
-      <c r="B12" t="s">
-        <v>801</v>
       </c>
       <c r="C12" s="46">
         <v>88.179000000000002</v>
       </c>
       <c r="D12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E12">
         <v>20</v>
@@ -10899,16 +12083,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>801</v>
+      </c>
+      <c r="B13" t="s">
         <v>802</v>
-      </c>
-      <c r="B13" t="s">
-        <v>803</v>
       </c>
       <c r="C13" s="46">
         <v>119.67149999999999</v>
       </c>
       <c r="D13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -10916,16 +12100,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>804</v>
+      </c>
+      <c r="B14" t="s">
         <v>805</v>
-      </c>
-      <c r="B14" t="s">
-        <v>806</v>
       </c>
       <c r="C14" s="46">
         <v>127.22969999999999</v>
       </c>
       <c r="D14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E14">
         <v>20</v>
@@ -10933,16 +12117,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>806</v>
+      </c>
+      <c r="B15" t="s">
         <v>807</v>
-      </c>
-      <c r="B15" t="s">
-        <v>808</v>
       </c>
       <c r="C15" s="46">
         <v>178.24754999999999</v>
       </c>
       <c r="D15" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E15">
         <v>20</v>
@@ -10950,7 +12134,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B16" t="s">
         <v>125</v>
@@ -10959,7 +12143,7 @@
         <v>44.089500000000001</v>
       </c>
       <c r="D16" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E16">
         <v>20</v>
@@ -10967,16 +12151,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="46">
         <v>78.731250000000003</v>
       </c>
       <c r="D17" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E17">
         <v>20</v>
@@ -10984,16 +12168,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="46">
         <v>119.67149999999999</v>
       </c>
       <c r="D18" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E18">
         <v>20</v>
@@ -11001,16 +12185,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>811</v>
+      </c>
+      <c r="B19" t="s">
         <v>812</v>
-      </c>
-      <c r="B19" t="s">
-        <v>813</v>
       </c>
       <c r="C19" s="46">
         <v>22.674600000000002</v>
       </c>
       <c r="D19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E19">
         <v>20</v>
@@ -11018,16 +12202,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>814</v>
+      </c>
+      <c r="B20" t="s">
         <v>815</v>
-      </c>
-      <c r="B20" t="s">
-        <v>816</v>
       </c>
       <c r="C20" s="46">
         <v>27.7134</v>
       </c>
       <c r="D20" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -11035,16 +12219,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>816</v>
+      </c>
+      <c r="B21" t="s">
         <v>817</v>
-      </c>
-      <c r="B21" t="s">
-        <v>818</v>
       </c>
       <c r="C21" s="46">
         <v>30.232800000000001</v>
       </c>
       <c r="D21" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -11052,7 +12236,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B22" t="s">
         <v>94</v>
@@ -11069,7 +12253,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B23" t="s">
         <v>97</v>
@@ -11086,7 +12270,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B24" t="s">
         <v>99</v>
@@ -11103,10 +12287,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>821</v>
+      </c>
+      <c r="B25" t="s">
         <v>822</v>
-      </c>
-      <c r="B25" t="s">
-        <v>823</v>
       </c>
       <c r="C25" s="46">
         <v>27.7134</v>
@@ -11120,10 +12304,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>823</v>
+      </c>
+      <c r="B26" t="s">
         <v>824</v>
-      </c>
-      <c r="B26" t="s">
-        <v>825</v>
       </c>
       <c r="C26" s="46">
         <v>32.752200000000002</v>
@@ -11137,10 +12321,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>825</v>
+      </c>
+      <c r="B27" t="s">
         <v>826</v>
-      </c>
-      <c r="B27" t="s">
-        <v>827</v>
       </c>
       <c r="C27" s="46">
         <v>32.752200000000002</v>
@@ -11154,10 +12338,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>827</v>
+      </c>
+      <c r="B28" t="s">
         <v>828</v>
-      </c>
-      <c r="B28" t="s">
-        <v>829</v>
       </c>
       <c r="C28" s="46">
         <v>20.155200000000001</v>
@@ -11171,10 +12355,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>829</v>
+      </c>
+      <c r="B29" t="s">
         <v>830</v>
-      </c>
-      <c r="B29" t="s">
-        <v>831</v>
       </c>
       <c r="C29" s="46">
         <v>20.155200000000001</v>
@@ -11188,10 +12372,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>831</v>
+      </c>
+      <c r="B30" t="s">
         <v>832</v>
-      </c>
-      <c r="B30" t="s">
-        <v>833</v>
       </c>
       <c r="C30" s="46">
         <v>25.193999999999999</v>
@@ -11205,7 +12389,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B31" t="s">
         <v>104</v>
@@ -11222,7 +12406,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B32" t="s">
         <v>107</v>
@@ -11239,10 +12423,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>835</v>
+      </c>
+      <c r="B33" t="s">
         <v>836</v>
-      </c>
-      <c r="B33" t="s">
-        <v>837</v>
       </c>
       <c r="C33" s="46">
         <v>37.790999999999997</v>
@@ -11256,17 +12440,17 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>837</v>
+      </c>
+      <c r="B34" t="s">
         <v>838</v>
-      </c>
-      <c r="B34" t="s">
-        <v>839</v>
       </c>
       <c r="C34" s="46">
         <f>[2]NIPLES!$G$15</f>
         <v>19.52</v>
       </c>
       <c r="D34" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E34">
         <v>20</v>
@@ -11274,17 +12458,17 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>839</v>
+      </c>
+      <c r="B35" t="s">
         <v>840</v>
-      </c>
-      <c r="B35" t="s">
-        <v>841</v>
       </c>
       <c r="C35" s="46">
         <f>[2]NIPLES!$G$16</f>
         <v>26.23</v>
       </c>
       <c r="D35" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -11292,17 +12476,17 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>841</v>
+      </c>
+      <c r="B36" t="s">
         <v>842</v>
-      </c>
-      <c r="B36" t="s">
-        <v>843</v>
       </c>
       <c r="C36" s="46">
         <f>[2]NIPLES!$G$17</f>
         <v>32.33</v>
       </c>
       <c r="D36" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E36">
         <v>20</v>
@@ -11310,17 +12494,17 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>843</v>
+      </c>
+      <c r="B37" t="s">
         <v>844</v>
-      </c>
-      <c r="B37" t="s">
-        <v>845</v>
       </c>
       <c r="C37" s="46">
         <f>[2]NIPLES!$G$18</f>
         <v>36.6</v>
       </c>
       <c r="D37" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E37">
         <v>20</v>
@@ -11328,17 +12512,17 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>845</v>
+      </c>
+      <c r="B38" t="s">
         <v>846</v>
-      </c>
-      <c r="B38" t="s">
-        <v>847</v>
       </c>
       <c r="C38" s="46">
         <f>[2]NIPLES!$G$19</f>
         <v>42.7</v>
       </c>
       <c r="D38" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E38">
         <v>20</v>
@@ -11346,17 +12530,17 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>847</v>
+      </c>
+      <c r="B39" t="s">
         <v>848</v>
-      </c>
-      <c r="B39" t="s">
-        <v>849</v>
       </c>
       <c r="C39" s="46">
         <f>[2]NIPLES!$G$20</f>
         <v>58.56</v>
       </c>
       <c r="D39" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E39">
         <v>20</v>
@@ -11364,17 +12548,17 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>849</v>
+      </c>
+      <c r="B40" t="s">
         <v>850</v>
-      </c>
-      <c r="B40" t="s">
-        <v>851</v>
       </c>
       <c r="C40" s="46">
         <f>[2]NIPLES!$G$21</f>
         <v>24.4</v>
       </c>
       <c r="D40" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E40">
         <v>20</v>
@@ -11382,17 +12566,17 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>851</v>
+      </c>
+      <c r="B41" t="s">
         <v>852</v>
-      </c>
-      <c r="B41" t="s">
-        <v>853</v>
       </c>
       <c r="C41" s="46">
         <f>[2]NIPLES!$G$22</f>
         <v>34.159999999999997</v>
       </c>
       <c r="D41" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E41">
         <v>20</v>
@@ -11400,17 +12584,17 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>853</v>
+      </c>
+      <c r="B42" t="s">
         <v>854</v>
-      </c>
-      <c r="B42" t="s">
-        <v>855</v>
       </c>
       <c r="C42" s="46">
         <f>[2]NIPLES!$G$23</f>
         <v>42.7</v>
       </c>
       <c r="D42" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E42">
         <v>20</v>
@@ -11418,17 +12602,17 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>855</v>
+      </c>
+      <c r="B43" t="s">
         <v>856</v>
-      </c>
-      <c r="B43" t="s">
-        <v>857</v>
       </c>
       <c r="C43" s="46">
         <f>[2]NIPLES!$G$24</f>
         <v>51.24</v>
       </c>
       <c r="D43" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E43">
         <v>20</v>
@@ -11436,17 +12620,17 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>857</v>
+      </c>
+      <c r="B44" t="s">
         <v>858</v>
-      </c>
-      <c r="B44" t="s">
-        <v>859</v>
       </c>
       <c r="C44" s="46">
         <f>[2]NIPLES!$G$25</f>
         <v>63.44</v>
       </c>
       <c r="D44" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E44">
         <v>20</v>
@@ -11454,17 +12638,17 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>859</v>
+      </c>
+      <c r="B45" t="s">
         <v>860</v>
-      </c>
-      <c r="B45" t="s">
-        <v>861</v>
       </c>
       <c r="C45" s="46">
         <f>[2]NIPLES!$G$26</f>
         <v>76.86</v>
       </c>
       <c r="D45" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E45">
         <v>20</v>
@@ -11472,17 +12656,17 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>861</v>
+      </c>
+      <c r="B46" t="s">
         <v>862</v>
-      </c>
-      <c r="B46" t="s">
-        <v>863</v>
       </c>
       <c r="C46" s="46">
         <f>[2]NIPLES!$G$27</f>
         <v>36.6</v>
       </c>
       <c r="D46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E46">
         <v>20</v>
@@ -11490,17 +12674,17 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>863</v>
+      </c>
+      <c r="B47" t="s">
         <v>864</v>
-      </c>
-      <c r="B47" t="s">
-        <v>865</v>
       </c>
       <c r="C47" s="46">
         <f>[2]NIPLES!$G$28</f>
         <v>48.8</v>
       </c>
       <c r="D47" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E47">
         <v>20</v>
@@ -11508,17 +12692,17 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>865</v>
+      </c>
+      <c r="B48" t="s">
         <v>866</v>
-      </c>
-      <c r="B48" t="s">
-        <v>867</v>
       </c>
       <c r="C48" s="46">
         <f>[2]NIPLES!$G$29</f>
         <v>64.05</v>
       </c>
       <c r="D48" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E48">
         <v>20</v>
@@ -11526,17 +12710,17 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>867</v>
+      </c>
+      <c r="B49" t="s">
         <v>868</v>
-      </c>
-      <c r="B49" t="s">
-        <v>869</v>
       </c>
       <c r="C49" s="46">
         <f>[2]NIPLES!$G$30</f>
         <v>78.08</v>
       </c>
       <c r="D49" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E49">
         <v>20</v>
@@ -11544,17 +12728,17 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>869</v>
+      </c>
+      <c r="B50" t="s">
         <v>870</v>
-      </c>
-      <c r="B50" t="s">
-        <v>871</v>
       </c>
       <c r="C50" s="46">
         <f>[2]NIPLES!$G$31</f>
         <v>93.33</v>
       </c>
       <c r="D50" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E50">
         <v>20</v>
@@ -11562,17 +12746,17 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>871</v>
+      </c>
+      <c r="B51" t="s">
         <v>872</v>
-      </c>
-      <c r="B51" t="s">
-        <v>873</v>
       </c>
       <c r="C51" s="46">
         <f>[2]NIPLES!$G$32</f>
         <v>106.14</v>
       </c>
       <c r="D51" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E51">
         <v>20</v>
@@ -11589,7 +12773,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11617,16 +12801,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B2" t="s">
         <v>874</v>
-      </c>
-      <c r="B2" t="s">
-        <v>875</v>
       </c>
       <c r="C2" s="46">
         <v>577.5</v>
       </c>
       <c r="D2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -11634,16 +12818,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B3" t="s">
         <v>877</v>
-      </c>
-      <c r="B3" t="s">
-        <v>878</v>
       </c>
       <c r="C3" s="46">
         <v>91.712500000000006</v>
       </c>
       <c r="D3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -11651,16 +12835,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>878</v>
+      </c>
+      <c r="B4" t="s">
         <v>879</v>
-      </c>
-      <c r="B4" t="s">
-        <v>880</v>
       </c>
       <c r="C4" s="46">
         <v>91.712500000000006</v>
       </c>
       <c r="D4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -11668,16 +12852,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>880</v>
+      </c>
+      <c r="B5" t="s">
         <v>881</v>
-      </c>
-      <c r="B5" t="s">
-        <v>882</v>
       </c>
       <c r="C5" s="46">
         <v>183.4375</v>
       </c>
       <c r="D5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -11685,16 +12869,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>882</v>
+      </c>
+      <c r="B6" t="s">
         <v>883</v>
-      </c>
-      <c r="B6" t="s">
-        <v>884</v>
       </c>
       <c r="C6" s="46">
         <v>183.4375</v>
       </c>
       <c r="D6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -11702,16 +12886,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>884</v>
+      </c>
+      <c r="B7" t="s">
         <v>885</v>
-      </c>
-      <c r="B7" t="s">
-        <v>886</v>
       </c>
       <c r="C7" s="46">
         <v>145.1</v>
       </c>
       <c r="D7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -11719,16 +12903,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>886</v>
+      </c>
+      <c r="B8" t="s">
         <v>887</v>
-      </c>
-      <c r="B8" t="s">
-        <v>888</v>
       </c>
       <c r="C8" s="46">
         <v>145.1</v>
       </c>
       <c r="D8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -11736,16 +12920,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>888</v>
+      </c>
+      <c r="B9" t="s">
         <v>889</v>
-      </c>
-      <c r="B9" t="s">
-        <v>890</v>
       </c>
       <c r="C9" s="46">
         <v>148.92500000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -11753,16 +12937,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>890</v>
+      </c>
+      <c r="B10" t="s">
         <v>891</v>
-      </c>
-      <c r="B10" t="s">
-        <v>892</v>
       </c>
       <c r="C10" s="46">
         <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -11770,16 +12954,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>893</v>
+      </c>
+      <c r="B11" t="s">
         <v>894</v>
-      </c>
-      <c r="B11" t="s">
-        <v>895</v>
       </c>
       <c r="C11" s="46">
         <v>256.25</v>
       </c>
       <c r="D11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -11787,16 +12971,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>895</v>
+      </c>
+      <c r="B12" t="s">
         <v>896</v>
-      </c>
-      <c r="B12" t="s">
-        <v>897</v>
       </c>
       <c r="C12" s="46">
         <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -11804,16 +12988,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>897</v>
+      </c>
+      <c r="B13" t="s">
         <v>898</v>
-      </c>
-      <c r="B13" t="s">
-        <v>899</v>
       </c>
       <c r="C13" s="46">
         <v>481.25</v>
       </c>
       <c r="D13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -11821,10 +13005,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>899</v>
+      </c>
+      <c r="B14" t="s">
         <v>900</v>
-      </c>
-      <c r="B14" t="s">
-        <v>901</v>
       </c>
       <c r="C14" s="46">
         <v>225</v>
@@ -11838,10 +13022,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>901</v>
+      </c>
+      <c r="B15" t="s">
         <v>902</v>
-      </c>
-      <c r="B15" t="s">
-        <v>903</v>
       </c>
       <c r="C15" s="46">
         <v>256.25</v>
@@ -11855,10 +13039,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>903</v>
+      </c>
+      <c r="B16" t="s">
         <v>904</v>
-      </c>
-      <c r="B16" t="s">
-        <v>905</v>
       </c>
       <c r="C16" s="46">
         <v>300</v>
@@ -11872,10 +13056,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>905</v>
+      </c>
+      <c r="B17" t="s">
         <v>906</v>
-      </c>
-      <c r="B17" t="s">
-        <v>907</v>
       </c>
       <c r="C17" s="46">
         <v>481.25</v>
@@ -11889,16 +13073,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>907</v>
+      </c>
+      <c r="B18" t="s">
         <v>908</v>
-      </c>
-      <c r="B18" t="s">
-        <v>909</v>
       </c>
       <c r="C18" s="46">
         <v>124.8</v>
       </c>
       <c r="D18" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -11906,16 +13090,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>909</v>
+      </c>
+      <c r="B19" t="s">
         <v>910</v>
-      </c>
-      <c r="B19" t="s">
-        <v>911</v>
       </c>
       <c r="C19" s="46">
         <v>152.1</v>
       </c>
       <c r="D19" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -11923,16 +13107,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>911</v>
+      </c>
+      <c r="B20" t="s">
         <v>912</v>
-      </c>
-      <c r="B20" t="s">
-        <v>913</v>
       </c>
       <c r="C20" s="46">
         <v>235.3</v>
       </c>
       <c r="D20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E20">
         <v>10</v>
